--- a/작업명세서(WBS).xlsx
+++ b/작업명세서(WBS).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\문서\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020-1\GitHub\IMCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AB62B-CD4D-4005-9DF7-E660E3BD779D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6F0AF-E653-4243-AC22-E88A89A9E4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="178">
   <si>
     <r>
       <rPr>
@@ -1018,6 +1018,10 @@
     <t>실종아이 목록 조회 필터링(거리)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1028,7 +1032,7 @@
     <numFmt numFmtId="177" formatCode="mmm"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1998,10 +2002,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,15 +2067,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2287,33 +2291,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F37" sqref="F37"/>
+      <selection pane="topRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
-    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.125" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="27" width="3.5" customWidth="1"/>
-    <col min="28" max="28" width="3.5" style="119" customWidth="1"/>
-    <col min="29" max="42" width="3.5" customWidth="1"/>
-    <col min="43" max="43" width="3.5" style="68" customWidth="1"/>
-    <col min="44" max="178" width="3.5" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="27" width="3.44140625" customWidth="1"/>
+    <col min="28" max="28" width="3.44140625" style="119" customWidth="1"/>
+    <col min="29" max="42" width="3.44140625" customWidth="1"/>
+    <col min="43" max="43" width="3.44140625" style="68" customWidth="1"/>
+    <col min="44" max="178" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:200" ht="28.5" customHeight="1">
-      <c r="A1" s="166" t="s">
+    <row r="1" spans="1:200" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2513,13 +2517,13 @@
       <c r="GQ1" s="159"/>
       <c r="GR1" s="159"/>
     </row>
-    <row r="2" spans="1:200" ht="11.25" customHeight="1">
+    <row r="2" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
       <c r="E2" s="3">
         <v>43966</v>
       </c>
@@ -2721,13 +2725,13 @@
       <c r="GQ2" s="159"/>
       <c r="GR2" s="159"/>
     </row>
-    <row r="3" spans="1:200" ht="11.25" customHeight="1">
+    <row r="3" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2927,16 +2931,16 @@
       <c r="GQ3" s="159"/>
       <c r="GR3" s="159"/>
     </row>
-    <row r="4" spans="1:200">
+    <row r="4" spans="1:200" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="174"/>
-      <c r="F4" s="168" t="s">
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="169"/>
+      <c r="G4" s="172"/>
       <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
@@ -3643,239 +3647,239 @@
       <c r="GQ4" s="114"/>
       <c r="GR4" s="119"/>
     </row>
-    <row r="5" spans="1:200" ht="11.25" customHeight="1">
+    <row r="5" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
-      <c r="B5" s="175"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="177"/>
-      <c r="F5" s="170" t="s">
+      <c r="B5" s="178"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="171"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="172" t="s">
+      <c r="I5" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="172" t="s">
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="174"/>
+      <c r="P5" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="172" t="s">
+      <c r="Q5" s="176"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="172" t="s">
+      <c r="X5" s="176"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="176"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="173"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="172" t="s">
+      <c r="AE5" s="176"/>
+      <c r="AF5" s="176"/>
+      <c r="AG5" s="176"/>
+      <c r="AH5" s="176"/>
+      <c r="AI5" s="176"/>
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="173"/>
-      <c r="AM5" s="173"/>
-      <c r="AN5" s="173"/>
-      <c r="AO5" s="173"/>
-      <c r="AP5" s="173"/>
-      <c r="AQ5" s="171"/>
-      <c r="AR5" s="172" t="s">
+      <c r="AL5" s="176"/>
+      <c r="AM5" s="176"/>
+      <c r="AN5" s="176"/>
+      <c r="AO5" s="176"/>
+      <c r="AP5" s="176"/>
+      <c r="AQ5" s="174"/>
+      <c r="AR5" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="173"/>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="173"/>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="171"/>
-      <c r="AY5" s="172" t="s">
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="176"/>
+      <c r="AU5" s="176"/>
+      <c r="AV5" s="176"/>
+      <c r="AW5" s="176"/>
+      <c r="AX5" s="174"/>
+      <c r="AY5" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="AZ5" s="173"/>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="173"/>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="173"/>
-      <c r="BE5" s="171"/>
-      <c r="BF5" s="160" t="s">
+      <c r="AZ5" s="176"/>
+      <c r="BA5" s="176"/>
+      <c r="BB5" s="176"/>
+      <c r="BC5" s="176"/>
+      <c r="BD5" s="176"/>
+      <c r="BE5" s="174"/>
+      <c r="BF5" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="161"/>
-      <c r="BH5" s="161"/>
-      <c r="BI5" s="161"/>
-      <c r="BJ5" s="161"/>
-      <c r="BK5" s="161"/>
-      <c r="BL5" s="161"/>
-      <c r="BM5" s="160" t="s">
+      <c r="BG5" s="162"/>
+      <c r="BH5" s="162"/>
+      <c r="BI5" s="162"/>
+      <c r="BJ5" s="162"/>
+      <c r="BK5" s="162"/>
+      <c r="BL5" s="162"/>
+      <c r="BM5" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="BN5" s="161"/>
-      <c r="BO5" s="161"/>
-      <c r="BP5" s="161"/>
-      <c r="BQ5" s="161"/>
-      <c r="BR5" s="161"/>
-      <c r="BS5" s="161"/>
-      <c r="BT5" s="160" t="s">
+      <c r="BN5" s="162"/>
+      <c r="BO5" s="162"/>
+      <c r="BP5" s="162"/>
+      <c r="BQ5" s="162"/>
+      <c r="BR5" s="162"/>
+      <c r="BS5" s="162"/>
+      <c r="BT5" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="BU5" s="161"/>
-      <c r="BV5" s="161"/>
-      <c r="BW5" s="161"/>
-      <c r="BX5" s="161"/>
-      <c r="BY5" s="161"/>
-      <c r="BZ5" s="161"/>
-      <c r="CA5" s="160" t="s">
+      <c r="BU5" s="162"/>
+      <c r="BV5" s="162"/>
+      <c r="BW5" s="162"/>
+      <c r="BX5" s="162"/>
+      <c r="BY5" s="162"/>
+      <c r="BZ5" s="162"/>
+      <c r="CA5" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="CB5" s="161"/>
-      <c r="CC5" s="161"/>
-      <c r="CD5" s="161"/>
-      <c r="CE5" s="161"/>
-      <c r="CF5" s="161"/>
-      <c r="CG5" s="161"/>
-      <c r="CH5" s="160" t="s">
+      <c r="CB5" s="162"/>
+      <c r="CC5" s="162"/>
+      <c r="CD5" s="162"/>
+      <c r="CE5" s="162"/>
+      <c r="CF5" s="162"/>
+      <c r="CG5" s="162"/>
+      <c r="CH5" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="161"/>
-      <c r="CJ5" s="161"/>
-      <c r="CK5" s="161"/>
-      <c r="CL5" s="161"/>
-      <c r="CM5" s="161"/>
-      <c r="CN5" s="161"/>
-      <c r="CO5" s="160" t="s">
+      <c r="CI5" s="162"/>
+      <c r="CJ5" s="162"/>
+      <c r="CK5" s="162"/>
+      <c r="CL5" s="162"/>
+      <c r="CM5" s="162"/>
+      <c r="CN5" s="162"/>
+      <c r="CO5" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="CP5" s="161"/>
-      <c r="CQ5" s="161"/>
-      <c r="CR5" s="161"/>
-      <c r="CS5" s="161"/>
-      <c r="CT5" s="161"/>
-      <c r="CU5" s="161"/>
-      <c r="CV5" s="160" t="s">
+      <c r="CP5" s="162"/>
+      <c r="CQ5" s="162"/>
+      <c r="CR5" s="162"/>
+      <c r="CS5" s="162"/>
+      <c r="CT5" s="162"/>
+      <c r="CU5" s="162"/>
+      <c r="CV5" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="CW5" s="161"/>
-      <c r="CX5" s="161"/>
-      <c r="CY5" s="161"/>
-      <c r="CZ5" s="161"/>
-      <c r="DA5" s="161"/>
-      <c r="DB5" s="161"/>
-      <c r="DC5" s="160" t="s">
+      <c r="CW5" s="162"/>
+      <c r="CX5" s="162"/>
+      <c r="CY5" s="162"/>
+      <c r="CZ5" s="162"/>
+      <c r="DA5" s="162"/>
+      <c r="DB5" s="162"/>
+      <c r="DC5" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="DD5" s="161"/>
-      <c r="DE5" s="161"/>
-      <c r="DF5" s="161"/>
-      <c r="DG5" s="161"/>
-      <c r="DH5" s="161"/>
-      <c r="DI5" s="161"/>
-      <c r="DJ5" s="160" t="s">
+      <c r="DD5" s="162"/>
+      <c r="DE5" s="162"/>
+      <c r="DF5" s="162"/>
+      <c r="DG5" s="162"/>
+      <c r="DH5" s="162"/>
+      <c r="DI5" s="162"/>
+      <c r="DJ5" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="DK5" s="161"/>
-      <c r="DL5" s="161"/>
-      <c r="DM5" s="161"/>
-      <c r="DN5" s="161"/>
-      <c r="DO5" s="161"/>
-      <c r="DP5" s="161"/>
-      <c r="DQ5" s="160" t="s">
+      <c r="DK5" s="162"/>
+      <c r="DL5" s="162"/>
+      <c r="DM5" s="162"/>
+      <c r="DN5" s="162"/>
+      <c r="DO5" s="162"/>
+      <c r="DP5" s="162"/>
+      <c r="DQ5" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="DR5" s="161"/>
-      <c r="DS5" s="161"/>
-      <c r="DT5" s="161"/>
-      <c r="DU5" s="161"/>
-      <c r="DV5" s="161"/>
-      <c r="DW5" s="161"/>
-      <c r="DX5" s="160" t="s">
+      <c r="DR5" s="162"/>
+      <c r="DS5" s="162"/>
+      <c r="DT5" s="162"/>
+      <c r="DU5" s="162"/>
+      <c r="DV5" s="162"/>
+      <c r="DW5" s="162"/>
+      <c r="DX5" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="DY5" s="161"/>
-      <c r="DZ5" s="161"/>
-      <c r="EA5" s="161"/>
-      <c r="EB5" s="161"/>
-      <c r="EC5" s="161"/>
-      <c r="ED5" s="161"/>
-      <c r="EE5" s="160" t="s">
+      <c r="DY5" s="162"/>
+      <c r="DZ5" s="162"/>
+      <c r="EA5" s="162"/>
+      <c r="EB5" s="162"/>
+      <c r="EC5" s="162"/>
+      <c r="ED5" s="162"/>
+      <c r="EE5" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="EF5" s="161"/>
-      <c r="EG5" s="161"/>
-      <c r="EH5" s="161"/>
-      <c r="EI5" s="161"/>
-      <c r="EJ5" s="161"/>
-      <c r="EK5" s="161"/>
-      <c r="EL5" s="160" t="s">
+      <c r="EF5" s="162"/>
+      <c r="EG5" s="162"/>
+      <c r="EH5" s="162"/>
+      <c r="EI5" s="162"/>
+      <c r="EJ5" s="162"/>
+      <c r="EK5" s="162"/>
+      <c r="EL5" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="EM5" s="161"/>
-      <c r="EN5" s="161"/>
-      <c r="EO5" s="161"/>
-      <c r="EP5" s="161"/>
-      <c r="EQ5" s="161"/>
-      <c r="ER5" s="161"/>
-      <c r="ES5" s="160" t="s">
+      <c r="EM5" s="162"/>
+      <c r="EN5" s="162"/>
+      <c r="EO5" s="162"/>
+      <c r="EP5" s="162"/>
+      <c r="EQ5" s="162"/>
+      <c r="ER5" s="162"/>
+      <c r="ES5" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="ET5" s="161"/>
-      <c r="EU5" s="161"/>
-      <c r="EV5" s="161"/>
-      <c r="EW5" s="161"/>
-      <c r="EX5" s="161"/>
-      <c r="EY5" s="161"/>
-      <c r="EZ5" s="160" t="s">
+      <c r="ET5" s="162"/>
+      <c r="EU5" s="162"/>
+      <c r="EV5" s="162"/>
+      <c r="EW5" s="162"/>
+      <c r="EX5" s="162"/>
+      <c r="EY5" s="162"/>
+      <c r="EZ5" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="FA5" s="161"/>
-      <c r="FB5" s="161"/>
-      <c r="FC5" s="161"/>
-      <c r="FD5" s="161"/>
-      <c r="FE5" s="161"/>
-      <c r="FF5" s="161"/>
-      <c r="FG5" s="160" t="s">
+      <c r="FA5" s="162"/>
+      <c r="FB5" s="162"/>
+      <c r="FC5" s="162"/>
+      <c r="FD5" s="162"/>
+      <c r="FE5" s="162"/>
+      <c r="FF5" s="162"/>
+      <c r="FG5" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="FH5" s="161"/>
-      <c r="FI5" s="161"/>
-      <c r="FJ5" s="161"/>
-      <c r="FK5" s="161"/>
-      <c r="FL5" s="161"/>
-      <c r="FM5" s="161"/>
-      <c r="FN5" s="179" t="s">
+      <c r="FH5" s="162"/>
+      <c r="FI5" s="162"/>
+      <c r="FJ5" s="162"/>
+      <c r="FK5" s="162"/>
+      <c r="FL5" s="162"/>
+      <c r="FM5" s="162"/>
+      <c r="FN5" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="FO5" s="161"/>
-      <c r="FP5" s="161"/>
-      <c r="FQ5" s="161"/>
-      <c r="FR5" s="161"/>
-      <c r="FS5" s="161"/>
-      <c r="FT5" s="161"/>
-      <c r="FU5" s="179" t="s">
+      <c r="FO5" s="162"/>
+      <c r="FP5" s="162"/>
+      <c r="FQ5" s="162"/>
+      <c r="FR5" s="162"/>
+      <c r="FS5" s="162"/>
+      <c r="FT5" s="162"/>
+      <c r="FU5" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="FV5" s="180"/>
+      <c r="FV5" s="163"/>
       <c r="FW5" s="124"/>
       <c r="FX5" s="124"/>
       <c r="FY5" s="124"/>
@@ -3899,16 +3903,16 @@
       <c r="GQ5" s="119"/>
       <c r="GR5" s="119"/>
     </row>
-    <row r="6" spans="1:200" ht="11.25" customHeight="1">
+    <row r="6" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="168" t="s">
+      <c r="B6" s="178"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="169"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="12" t="s">
         <v>36</v>
       </c>
@@ -4615,16 +4619,16 @@
       <c r="GQ6" s="115"/>
       <c r="GR6" s="119"/>
     </row>
-    <row r="7" spans="1:200" ht="11.25" customHeight="1">
+    <row r="7" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="168" t="s">
+      <c r="B7" s="181"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="169"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="14" t="s">
         <v>38</v>
       </c>
@@ -5330,7 +5334,7 @@
       <c r="GQ7" s="116"/>
       <c r="GR7" s="119"/>
     </row>
-    <row r="8" spans="1:200" ht="11.25" customHeight="1">
+    <row r="8" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="17" t="s">
         <v>39</v>
@@ -5544,7 +5548,7 @@
       <c r="GQ8" s="120"/>
       <c r="GR8" s="119"/>
     </row>
-    <row r="9" spans="1:200" ht="20.25" customHeight="1">
+    <row r="9" spans="1:200" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25">
@@ -5756,7 +5760,7 @@
       <c r="GQ9" s="121"/>
       <c r="GR9" s="119"/>
     </row>
-    <row r="10" spans="1:200" ht="11.25" customHeight="1">
+    <row r="10" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33">
@@ -5968,7 +5972,7 @@
       <c r="GQ10" s="121"/>
       <c r="GR10" s="119"/>
     </row>
-    <row r="11" spans="1:200" ht="11.25" customHeight="1">
+    <row r="11" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23"/>
       <c r="B11" s="40"/>
       <c r="C11" s="41"/>
@@ -6179,7 +6183,7 @@
       <c r="GQ11" s="122"/>
       <c r="GR11" s="119"/>
     </row>
-    <row r="12" spans="1:200" ht="11.25" customHeight="1">
+    <row r="12" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="40"/>
       <c r="C12" s="41"/>
@@ -6390,7 +6394,7 @@
       <c r="GQ12" s="122"/>
       <c r="GR12" s="119"/>
     </row>
-    <row r="13" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="13" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23"/>
       <c r="B13" s="40"/>
       <c r="C13" s="41"/>
@@ -6601,7 +6605,7 @@
       <c r="GQ13" s="122"/>
       <c r="GR13" s="119"/>
     </row>
-    <row r="14" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="14" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33">
@@ -6813,7 +6817,7 @@
       <c r="GQ14" s="121"/>
       <c r="GR14" s="119"/>
     </row>
-    <row r="15" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="15" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23"/>
       <c r="B15" s="40" t="s">
         <v>54</v>
@@ -7026,7 +7030,7 @@
       <c r="GQ15" s="122"/>
       <c r="GR15" s="119"/>
     </row>
-    <row r="16" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="16" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23"/>
       <c r="B16" s="40" t="s">
         <v>57</v>
@@ -7239,7 +7243,7 @@
       <c r="GQ16" s="122"/>
       <c r="GR16" s="119"/>
     </row>
-    <row r="17" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="17" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23"/>
       <c r="B17" s="40" t="s">
         <v>57</v>
@@ -7452,7 +7456,7 @@
       <c r="GQ17" s="122"/>
       <c r="GR17" s="119"/>
     </row>
-    <row r="18" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="18" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
       <c r="B18" s="40" t="s">
         <v>62</v>
@@ -7665,7 +7669,7 @@
       <c r="GQ18" s="122"/>
       <c r="GR18" s="119"/>
     </row>
-    <row r="19" spans="1:200" ht="20.25" customHeight="1">
+    <row r="19" spans="1:200" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25">
@@ -7877,7 +7881,7 @@
       <c r="GQ19" s="121"/>
       <c r="GR19" s="119"/>
     </row>
-    <row r="20" spans="1:200" ht="11.25" customHeight="1">
+    <row r="20" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="158"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33">
@@ -8089,7 +8093,7 @@
       <c r="GQ20" s="123"/>
       <c r="GR20" s="119"/>
     </row>
-    <row r="21" spans="1:200" ht="11.25" customHeight="1">
+    <row r="21" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="158"/>
       <c r="B21" s="40" t="s">
         <v>54</v>
@@ -8302,7 +8306,7 @@
       <c r="GQ21" s="110"/>
       <c r="GR21" s="119"/>
     </row>
-    <row r="22" spans="1:200" ht="11.25" customHeight="1">
+    <row r="22" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="158"/>
       <c r="B22" s="40" t="s">
         <v>54</v>
@@ -8515,7 +8519,7 @@
       <c r="GQ22" s="107"/>
       <c r="GR22" s="119"/>
     </row>
-    <row r="23" spans="1:200" ht="11.25" customHeight="1">
+    <row r="23" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="158"/>
       <c r="B23" s="32"/>
       <c r="C23" s="33">
@@ -8727,7 +8731,7 @@
       <c r="GQ23" s="106"/>
       <c r="GR23" s="119"/>
     </row>
-    <row r="24" spans="1:200" ht="11.25" customHeight="1">
+    <row r="24" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="158"/>
       <c r="B24" s="40" t="s">
         <v>54</v>
@@ -8940,7 +8944,7 @@
       <c r="GQ24" s="107"/>
       <c r="GR24" s="119"/>
     </row>
-    <row r="25" spans="1:200" ht="20.25" customHeight="1">
+    <row r="25" spans="1:200" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25">
@@ -9152,7 +9156,7 @@
       <c r="GQ25" s="121"/>
       <c r="GR25" s="119"/>
     </row>
-    <row r="26" spans="1:200" ht="11.25" customHeight="1">
+    <row r="26" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="158"/>
       <c r="B26" s="32" t="s">
         <v>74</v>
@@ -9366,7 +9370,7 @@
       <c r="GQ26" s="106"/>
       <c r="GR26" s="119"/>
     </row>
-    <row r="27" spans="1:200" ht="11.25" customHeight="1">
+    <row r="27" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="158"/>
       <c r="B27" s="151" t="s">
         <v>76</v>
@@ -9389,7 +9393,9 @@
       <c r="I27" s="108"/>
       <c r="J27" s="109"/>
       <c r="K27" s="109"/>
-      <c r="L27" s="134"/>
+      <c r="L27" s="134" t="s">
+        <v>177</v>
+      </c>
       <c r="M27" s="109"/>
       <c r="N27" s="109"/>
       <c r="O27" s="109"/>
@@ -9579,7 +9585,7 @@
       <c r="GQ27" s="107"/>
       <c r="GR27" s="119"/>
     </row>
-    <row r="28" spans="1:200" ht="11.25" customHeight="1">
+    <row r="28" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="158"/>
       <c r="B28" s="151" t="s">
         <v>76</v>
@@ -9603,7 +9609,9 @@
       <c r="J28" s="109"/>
       <c r="K28" s="109"/>
       <c r="L28" s="109"/>
-      <c r="M28" s="134"/>
+      <c r="M28" s="134" t="s">
+        <v>177</v>
+      </c>
       <c r="N28" s="109"/>
       <c r="O28" s="109"/>
       <c r="P28" s="109"/>
@@ -9792,7 +9800,7 @@
       <c r="GQ28" s="107"/>
       <c r="GR28" s="119"/>
     </row>
-    <row r="29" spans="1:200" ht="11.25" customHeight="1">
+    <row r="29" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="158"/>
       <c r="B29" s="151" t="s">
         <v>76</v>
@@ -10005,7 +10013,7 @@
       <c r="GQ29" s="107"/>
       <c r="GR29" s="119"/>
     </row>
-    <row r="30" spans="1:200" ht="11.25" customHeight="1">
+    <row r="30" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="158"/>
       <c r="B30" s="151" t="s">
         <v>76</v>
@@ -10218,7 +10226,7 @@
       <c r="GQ30" s="107"/>
       <c r="GR30" s="119"/>
     </row>
-    <row r="31" spans="1:200" ht="11.25" customHeight="1">
+    <row r="31" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="158"/>
       <c r="B31" s="151" t="s">
         <v>76</v>
@@ -10431,7 +10439,7 @@
       <c r="GQ31" s="107"/>
       <c r="GR31" s="119"/>
     </row>
-    <row r="32" spans="1:200" ht="11.25" customHeight="1">
+    <row r="32" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="158"/>
       <c r="B32" s="151" t="s">
         <v>76</v>
@@ -10461,7 +10469,7 @@
       <c r="P32" s="109"/>
       <c r="Q32" s="109"/>
       <c r="R32" s="109"/>
-      <c r="S32" s="181"/>
+      <c r="S32" s="160"/>
       <c r="T32" s="134"/>
       <c r="U32" s="134"/>
       <c r="V32" s="109"/>
@@ -10644,7 +10652,7 @@
       <c r="GQ32" s="107"/>
       <c r="GR32" s="119"/>
     </row>
-    <row r="33" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="33" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="158"/>
       <c r="B33" s="151" t="s">
         <v>76</v>
@@ -10857,7 +10865,7 @@
       <c r="GQ33" s="107"/>
       <c r="GR33" s="119"/>
     </row>
-    <row r="34" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="34" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="158"/>
       <c r="B34" s="151" t="s">
         <v>76</v>
@@ -11070,7 +11078,7 @@
       <c r="GQ34" s="107"/>
       <c r="GR34" s="119"/>
     </row>
-    <row r="35" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="35" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="158"/>
       <c r="B35" s="151" t="s">
         <v>76</v>
@@ -11283,7 +11291,7 @@
       <c r="GQ35" s="107"/>
       <c r="GR35" s="119"/>
     </row>
-    <row r="36" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="36" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="158"/>
       <c r="B36" s="151" t="s">
         <v>76</v>
@@ -11496,7 +11504,7 @@
       <c r="GQ36" s="107"/>
       <c r="GR36" s="119"/>
     </row>
-    <row r="37" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="37" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="158"/>
       <c r="B37" s="150" t="s">
         <v>97</v>
@@ -11709,7 +11717,7 @@
       <c r="GQ37" s="107"/>
       <c r="GR37" s="119"/>
     </row>
-    <row r="38" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="38" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="158"/>
       <c r="B38" s="150" t="s">
         <v>97</v>
@@ -11922,7 +11930,7 @@
       <c r="GQ38" s="107"/>
       <c r="GR38" s="119"/>
     </row>
-    <row r="39" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="39" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="158"/>
       <c r="B39" s="150" t="s">
         <v>97</v>
@@ -12135,7 +12143,7 @@
       <c r="GQ39" s="107"/>
       <c r="GR39" s="119"/>
     </row>
-    <row r="40" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="40" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="158"/>
       <c r="B40" s="150" t="s">
         <v>97</v>
@@ -12348,7 +12356,7 @@
       <c r="GQ40" s="107"/>
       <c r="GR40" s="119"/>
     </row>
-    <row r="41" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="41" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="158"/>
       <c r="B41" s="150" t="s">
         <v>97</v>
@@ -12561,7 +12569,7 @@
       <c r="GQ41" s="107"/>
       <c r="GR41" s="119"/>
     </row>
-    <row r="42" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="42" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="158"/>
       <c r="B42" s="150" t="s">
         <v>97</v>
@@ -12774,7 +12782,7 @@
       <c r="GQ42" s="107"/>
       <c r="GR42" s="119"/>
     </row>
-    <row r="43" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="43" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="158"/>
       <c r="B43" s="150" t="s">
         <v>97</v>
@@ -12987,7 +12995,7 @@
       <c r="GQ43" s="107"/>
       <c r="GR43" s="119"/>
     </row>
-    <row r="44" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="44" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="158"/>
       <c r="B44" s="150" t="s">
         <v>97</v>
@@ -13200,7 +13208,7 @@
       <c r="GQ44" s="107"/>
       <c r="GR44" s="119"/>
     </row>
-    <row r="45" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="45" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="158"/>
       <c r="B45" s="150" t="s">
         <v>97</v>
@@ -13413,7 +13421,7 @@
       <c r="GQ45" s="107"/>
       <c r="GR45" s="119"/>
     </row>
-    <row r="46" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="46" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="158"/>
       <c r="B46" s="150" t="s">
         <v>97</v>
@@ -13626,7 +13634,7 @@
       <c r="GQ46" s="107"/>
       <c r="GR46" s="119"/>
     </row>
-    <row r="47" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="47" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="158"/>
       <c r="B47" s="150" t="s">
         <v>97</v>
@@ -13839,7 +13847,7 @@
       <c r="GQ47" s="107"/>
       <c r="GR47" s="119"/>
     </row>
-    <row r="48" spans="1:200" ht="11.25" customHeight="1">
+    <row r="48" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="158"/>
       <c r="B48" s="32" t="s">
         <v>62</v>
@@ -14053,7 +14061,7 @@
       <c r="GQ48" s="106"/>
       <c r="GR48" s="119"/>
     </row>
-    <row r="49" spans="1:200" ht="11.25" customHeight="1">
+    <row r="49" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="158"/>
       <c r="B49" s="149"/>
       <c r="C49" s="45"/>
@@ -14264,7 +14272,7 @@
       <c r="GQ49" s="107"/>
       <c r="GR49" s="119"/>
     </row>
-    <row r="50" spans="1:200" ht="11.25" customHeight="1">
+    <row r="50" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="158"/>
       <c r="B50" s="149"/>
       <c r="C50" s="45"/>
@@ -14475,7 +14483,7 @@
       <c r="GQ50" s="107"/>
       <c r="GR50" s="119"/>
     </row>
-    <row r="51" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="51" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="158"/>
       <c r="B51" s="149"/>
       <c r="C51" s="45"/>
@@ -14686,7 +14694,7 @@
       <c r="GQ51" s="107"/>
       <c r="GR51" s="119"/>
     </row>
-    <row r="52" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="52" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="158"/>
       <c r="B52" s="151" t="s">
         <v>127</v>
@@ -14899,7 +14907,7 @@
       <c r="GQ52" s="107"/>
       <c r="GR52" s="119"/>
     </row>
-    <row r="53" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="53" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="158"/>
       <c r="B53" s="151" t="s">
         <v>127</v>
@@ -15112,7 +15120,7 @@
       <c r="GQ53" s="107"/>
       <c r="GR53" s="119"/>
     </row>
-    <row r="54" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="54" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="158"/>
       <c r="B54" s="151" t="s">
         <v>127</v>
@@ -15325,7 +15333,7 @@
       <c r="GQ54" s="107"/>
       <c r="GR54" s="119"/>
     </row>
-    <row r="55" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="55" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="158"/>
       <c r="B55" s="151" t="s">
         <v>127</v>
@@ -15538,7 +15546,7 @@
       <c r="GQ55" s="107"/>
       <c r="GR55" s="119"/>
     </row>
-    <row r="56" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="56" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="158"/>
       <c r="B56" s="151" t="s">
         <v>127</v>
@@ -15751,7 +15759,7 @@
       <c r="GQ56" s="107"/>
       <c r="GR56" s="119"/>
     </row>
-    <row r="57" spans="1:200" s="148" customFormat="1" ht="11.25" customHeight="1">
+    <row r="57" spans="1:200" s="148" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="158"/>
       <c r="B57" s="151" t="s">
         <v>127</v>
@@ -15964,7 +15972,7 @@
       <c r="GQ57" s="107"/>
       <c r="GR57" s="119"/>
     </row>
-    <row r="58" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="58" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="158"/>
       <c r="B58" s="151" t="s">
         <v>127</v>
@@ -16177,7 +16185,7 @@
       <c r="GQ58" s="107"/>
       <c r="GR58" s="119"/>
     </row>
-    <row r="59" spans="1:200" s="125" customFormat="1" ht="11.25" customHeight="1">
+    <row r="59" spans="1:200" s="125" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="158"/>
       <c r="B59" s="151" t="s">
         <v>127</v>
@@ -16390,7 +16398,7 @@
       <c r="GQ59" s="107"/>
       <c r="GR59" s="119"/>
     </row>
-    <row r="60" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="60" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="158"/>
       <c r="B60" s="151" t="s">
         <v>127</v>
@@ -16603,7 +16611,7 @@
       <c r="GQ60" s="107"/>
       <c r="GR60" s="119"/>
     </row>
-    <row r="61" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="61" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="158"/>
       <c r="B61" s="151" t="s">
         <v>127</v>
@@ -16816,7 +16824,7 @@
       <c r="GQ61" s="107"/>
       <c r="GR61" s="119"/>
     </row>
-    <row r="62" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="62" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="158"/>
       <c r="B62" s="152" t="s">
         <v>54</v>
@@ -17029,7 +17037,7 @@
       <c r="GQ62" s="107"/>
       <c r="GR62" s="119"/>
     </row>
-    <row r="63" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="63" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="158"/>
       <c r="B63" s="152" t="s">
         <v>54</v>
@@ -17242,7 +17250,7 @@
       <c r="GQ63" s="107"/>
       <c r="GR63" s="119"/>
     </row>
-    <row r="64" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="64" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="158"/>
       <c r="B64" s="152" t="s">
         <v>54</v>
@@ -17455,7 +17463,7 @@
       <c r="GQ64" s="107"/>
       <c r="GR64" s="119"/>
     </row>
-    <row r="65" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="65" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="158"/>
       <c r="B65" s="152" t="s">
         <v>54</v>
@@ -17668,7 +17676,7 @@
       <c r="GQ65" s="107"/>
       <c r="GR65" s="119"/>
     </row>
-    <row r="66" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="66" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="158"/>
       <c r="B66" s="152" t="s">
         <v>54</v>
@@ -17881,7 +17889,7 @@
       <c r="GQ66" s="107"/>
       <c r="GR66" s="119"/>
     </row>
-    <row r="67" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="67" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="158"/>
       <c r="B67" s="152" t="s">
         <v>54</v>
@@ -18094,7 +18102,7 @@
       <c r="GQ67" s="107"/>
       <c r="GR67" s="119"/>
     </row>
-    <row r="68" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1">
+    <row r="68" spans="1:200" s="102" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="158"/>
       <c r="B68" s="152" t="s">
         <v>54</v>
@@ -18307,7 +18315,7 @@
       <c r="GQ68" s="107"/>
       <c r="GR68" s="119"/>
     </row>
-    <row r="69" spans="1:200" ht="11.25" customHeight="1">
+    <row r="69" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="158"/>
       <c r="B69" s="32"/>
       <c r="C69" s="33">
@@ -18519,7 +18527,7 @@
       <c r="GQ69" s="106"/>
       <c r="GR69" s="119"/>
     </row>
-    <row r="70" spans="1:200" ht="11.25" customHeight="1">
+    <row r="70" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="158"/>
       <c r="B70" s="40"/>
       <c r="C70" s="45"/>
@@ -18730,7 +18738,7 @@
       <c r="GQ70" s="107"/>
       <c r="GR70" s="119"/>
     </row>
-    <row r="71" spans="1:200" ht="11.25" customHeight="1">
+    <row r="71" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="158"/>
       <c r="B71" s="40"/>
       <c r="C71" s="45"/>
@@ -18941,7 +18949,7 @@
       <c r="GQ71" s="107"/>
       <c r="GR71" s="119"/>
     </row>
-    <row r="72" spans="1:200" ht="11.25" customHeight="1">
+    <row r="72" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="158"/>
       <c r="B72" s="40"/>
       <c r="C72" s="45"/>
@@ -19152,7 +19160,7 @@
       <c r="GQ72" s="107"/>
       <c r="GR72" s="119"/>
     </row>
-    <row r="73" spans="1:200" ht="11.25" customHeight="1">
+    <row r="73" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="158"/>
       <c r="B73" s="58"/>
       <c r="C73" s="59"/>
@@ -19363,7 +19371,7 @@
       <c r="GQ73" s="119"/>
       <c r="GR73" s="119"/>
     </row>
-    <row r="74" spans="1:200" ht="11.25" customHeight="1">
+    <row r="74" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="158"/>
       <c r="B74" s="58"/>
       <c r="C74" s="59"/>
@@ -19574,7 +19582,7 @@
       <c r="GQ74" s="159"/>
       <c r="GR74" s="159"/>
     </row>
-    <row r="75" spans="1:200" ht="11.25" customHeight="1">
+    <row r="75" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="158"/>
       <c r="B75" s="58"/>
       <c r="C75" s="59"/>
@@ -19785,7 +19793,7 @@
       <c r="GQ75" s="159"/>
       <c r="GR75" s="159"/>
     </row>
-    <row r="76" spans="1:200" ht="11.25" customHeight="1">
+    <row r="76" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="158"/>
       <c r="B76" s="58"/>
       <c r="C76" s="59"/>
@@ -19996,7 +20004,7 @@
       <c r="GQ76" s="159"/>
       <c r="GR76" s="159"/>
     </row>
-    <row r="77" spans="1:200" ht="11.25" customHeight="1">
+    <row r="77" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="158"/>
       <c r="B77" s="58"/>
       <c r="C77" s="59"/>
@@ -20198,7 +20206,7 @@
       <c r="GQ77" s="159"/>
       <c r="GR77" s="159"/>
     </row>
-    <row r="78" spans="1:200" ht="11.25" customHeight="1">
+    <row r="78" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="158"/>
       <c r="B78" s="23"/>
       <c r="C78" s="47"/>
@@ -20400,7 +20408,7 @@
       <c r="GQ78" s="159"/>
       <c r="GR78" s="159"/>
     </row>
-    <row r="79" spans="1:200" ht="11.25" customHeight="1">
+    <row r="79" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="158"/>
       <c r="B79" s="23"/>
       <c r="C79" s="47"/>
@@ -20602,7 +20610,7 @@
       <c r="GQ79" s="159"/>
       <c r="GR79" s="159"/>
     </row>
-    <row r="80" spans="1:200" ht="11.25" customHeight="1">
+    <row r="80" spans="1:200" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="158"/>
       <c r="B80" s="23"/>
       <c r="C80" s="47"/>
@@ -20804,7 +20812,7 @@
       <c r="GQ80" s="159"/>
       <c r="GR80" s="159"/>
     </row>
-    <row r="81" spans="1:62" ht="11.25" customHeight="1">
+    <row r="81" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="158"/>
       <c r="B81" s="23"/>
       <c r="C81" s="47"/>
@@ -20868,7 +20876,7 @@
       <c r="BI81" s="158"/>
       <c r="BJ81" s="158"/>
     </row>
-    <row r="82" spans="1:62" ht="11.25" customHeight="1">
+    <row r="82" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="158"/>
       <c r="B82" s="23"/>
       <c r="C82" s="47"/>
@@ -20932,7 +20940,7 @@
       <c r="BI82" s="158"/>
       <c r="BJ82" s="158"/>
     </row>
-    <row r="83" spans="1:62" ht="11.25" customHeight="1">
+    <row r="83" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="158"/>
       <c r="B83" s="23"/>
       <c r="C83" s="47"/>
@@ -20996,7 +21004,7 @@
       <c r="BI83" s="158"/>
       <c r="BJ83" s="158"/>
     </row>
-    <row r="84" spans="1:62" ht="11.25" customHeight="1">
+    <row r="84" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="158"/>
       <c r="B84" s="23"/>
       <c r="C84" s="47"/>
@@ -21060,7 +21068,7 @@
       <c r="BI84" s="158"/>
       <c r="BJ84" s="158"/>
     </row>
-    <row r="85" spans="1:62" ht="11.25" customHeight="1">
+    <row r="85" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="158"/>
       <c r="B85" s="23"/>
       <c r="C85" s="47"/>
@@ -21124,7 +21132,7 @@
       <c r="BI85" s="158"/>
       <c r="BJ85" s="158"/>
     </row>
-    <row r="86" spans="1:62" ht="11.25" customHeight="1">
+    <row r="86" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="158"/>
       <c r="B86" s="23"/>
       <c r="C86" s="47"/>
@@ -21188,7 +21196,7 @@
       <c r="BI86" s="158"/>
       <c r="BJ86" s="158"/>
     </row>
-    <row r="87" spans="1:62" ht="11.25" customHeight="1">
+    <row r="87" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="158"/>
       <c r="B87" s="23"/>
       <c r="C87" s="47"/>
@@ -21252,7 +21260,7 @@
       <c r="BI87" s="158"/>
       <c r="BJ87" s="158"/>
     </row>
-    <row r="88" spans="1:62" ht="11.25" customHeight="1">
+    <row r="88" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="158"/>
       <c r="B88" s="23"/>
       <c r="C88" s="47"/>
@@ -21316,7 +21324,7 @@
       <c r="BI88" s="158"/>
       <c r="BJ88" s="158"/>
     </row>
-    <row r="89" spans="1:62" ht="11.25" customHeight="1">
+    <row r="89" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="158"/>
       <c r="B89" s="23"/>
       <c r="C89" s="47"/>
@@ -21380,7 +21388,7 @@
       <c r="BI89" s="158"/>
       <c r="BJ89" s="158"/>
     </row>
-    <row r="90" spans="1:62" ht="11.25" customHeight="1">
+    <row r="90" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="158"/>
       <c r="B90" s="23"/>
       <c r="C90" s="47"/>
@@ -21444,7 +21452,7 @@
       <c r="BI90" s="158"/>
       <c r="BJ90" s="158"/>
     </row>
-    <row r="91" spans="1:62" ht="11.25" customHeight="1">
+    <row r="91" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="158"/>
       <c r="B91" s="23"/>
       <c r="C91" s="47"/>
@@ -21508,7 +21516,7 @@
       <c r="BI91" s="158"/>
       <c r="BJ91" s="158"/>
     </row>
-    <row r="92" spans="1:62" ht="11.25" customHeight="1">
+    <row r="92" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="158"/>
       <c r="B92" s="23"/>
       <c r="C92" s="47"/>
@@ -21572,7 +21580,7 @@
       <c r="BI92" s="158"/>
       <c r="BJ92" s="158"/>
     </row>
-    <row r="93" spans="1:62" ht="11.25" customHeight="1">
+    <row r="93" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="158"/>
       <c r="B93" s="23"/>
       <c r="C93" s="47"/>
@@ -21636,7 +21644,7 @@
       <c r="BI93" s="158"/>
       <c r="BJ93" s="158"/>
     </row>
-    <row r="94" spans="1:62" ht="11.25" customHeight="1">
+    <row r="94" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="158"/>
       <c r="B94" s="23"/>
       <c r="C94" s="47"/>
@@ -21700,7 +21708,7 @@
       <c r="BI94" s="158"/>
       <c r="BJ94" s="158"/>
     </row>
-    <row r="95" spans="1:62" ht="11.25" customHeight="1">
+    <row r="95" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="158"/>
       <c r="B95" s="23"/>
       <c r="C95" s="47"/>
@@ -21764,7 +21772,7 @@
       <c r="BI95" s="158"/>
       <c r="BJ95" s="158"/>
     </row>
-    <row r="96" spans="1:62" ht="11.25" customHeight="1">
+    <row r="96" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="158"/>
       <c r="B96" s="23"/>
       <c r="C96" s="47"/>
@@ -21828,7 +21836,7 @@
       <c r="BI96" s="158"/>
       <c r="BJ96" s="158"/>
     </row>
-    <row r="97" spans="1:62" ht="11.25" customHeight="1">
+    <row r="97" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="158"/>
       <c r="B97" s="23"/>
       <c r="C97" s="47"/>
@@ -21892,7 +21900,7 @@
       <c r="BI97" s="158"/>
       <c r="BJ97" s="158"/>
     </row>
-    <row r="98" spans="1:62" ht="11.25" customHeight="1">
+    <row r="98" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="158"/>
       <c r="B98" s="23"/>
       <c r="C98" s="47"/>
@@ -21956,7 +21964,7 @@
       <c r="BI98" s="158"/>
       <c r="BJ98" s="158"/>
     </row>
-    <row r="99" spans="1:62" ht="11.25" customHeight="1">
+    <row r="99" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="158"/>
       <c r="B99" s="23"/>
       <c r="C99" s="47"/>
@@ -22020,7 +22028,7 @@
       <c r="BI99" s="158"/>
       <c r="BJ99" s="158"/>
     </row>
-    <row r="100" spans="1:62" ht="11.25" customHeight="1">
+    <row r="100" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="158"/>
       <c r="B100" s="23"/>
       <c r="C100" s="47"/>
@@ -22084,7 +22092,7 @@
       <c r="BI100" s="158"/>
       <c r="BJ100" s="158"/>
     </row>
-    <row r="101" spans="1:62" ht="11.25" customHeight="1">
+    <row r="101" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="158"/>
       <c r="B101" s="23"/>
       <c r="C101" s="47"/>
@@ -22148,7 +22156,7 @@
       <c r="BI101" s="158"/>
       <c r="BJ101" s="158"/>
     </row>
-    <row r="102" spans="1:62" ht="11.25" customHeight="1">
+    <row r="102" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="158"/>
       <c r="B102" s="23"/>
       <c r="C102" s="47"/>
@@ -22212,7 +22220,7 @@
       <c r="BI102" s="158"/>
       <c r="BJ102" s="158"/>
     </row>
-    <row r="103" spans="1:62" ht="11.25" customHeight="1">
+    <row r="103" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="158"/>
       <c r="B103" s="23"/>
       <c r="C103" s="47"/>
@@ -22276,7 +22284,7 @@
       <c r="BI103" s="158"/>
       <c r="BJ103" s="158"/>
     </row>
-    <row r="104" spans="1:62" ht="11.25" customHeight="1">
+    <row r="104" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="158"/>
       <c r="B104" s="23"/>
       <c r="C104" s="47"/>
@@ -22340,7 +22348,7 @@
       <c r="BI104" s="158"/>
       <c r="BJ104" s="158"/>
     </row>
-    <row r="105" spans="1:62" ht="11.25" customHeight="1">
+    <row r="105" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="158"/>
       <c r="B105" s="23"/>
       <c r="C105" s="47"/>
@@ -22404,7 +22412,7 @@
       <c r="BI105" s="158"/>
       <c r="BJ105" s="158"/>
     </row>
-    <row r="106" spans="1:62" ht="11.25" customHeight="1">
+    <row r="106" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="158"/>
       <c r="B106" s="23"/>
       <c r="C106" s="47"/>
@@ -22468,7 +22476,7 @@
       <c r="BI106" s="158"/>
       <c r="BJ106" s="158"/>
     </row>
-    <row r="107" spans="1:62" ht="11.25" customHeight="1">
+    <row r="107" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="158"/>
       <c r="B107" s="23"/>
       <c r="C107" s="47"/>
@@ -22532,7 +22540,7 @@
       <c r="BI107" s="158"/>
       <c r="BJ107" s="158"/>
     </row>
-    <row r="108" spans="1:62" ht="11.25" customHeight="1">
+    <row r="108" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="158"/>
       <c r="B108" s="23"/>
       <c r="C108" s="47"/>
@@ -22596,7 +22604,7 @@
       <c r="BI108" s="158"/>
       <c r="BJ108" s="158"/>
     </row>
-    <row r="109" spans="1:62" ht="11.25" customHeight="1">
+    <row r="109" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="158"/>
       <c r="B109" s="23"/>
       <c r="C109" s="47"/>
@@ -22660,7 +22668,7 @@
       <c r="BI109" s="158"/>
       <c r="BJ109" s="158"/>
     </row>
-    <row r="110" spans="1:62" ht="11.25" customHeight="1">
+    <row r="110" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="158"/>
       <c r="B110" s="23"/>
       <c r="C110" s="47"/>
@@ -22724,7 +22732,7 @@
       <c r="BI110" s="158"/>
       <c r="BJ110" s="158"/>
     </row>
-    <row r="111" spans="1:62" ht="11.25" customHeight="1">
+    <row r="111" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="158"/>
       <c r="B111" s="23"/>
       <c r="C111" s="47"/>
@@ -22788,7 +22796,7 @@
       <c r="BI111" s="158"/>
       <c r="BJ111" s="158"/>
     </row>
-    <row r="112" spans="1:62" ht="11.25" customHeight="1">
+    <row r="112" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="158"/>
       <c r="B112" s="23"/>
       <c r="C112" s="47"/>
@@ -22852,7 +22860,7 @@
       <c r="BI112" s="158"/>
       <c r="BJ112" s="158"/>
     </row>
-    <row r="113" spans="1:62" ht="11.25" customHeight="1">
+    <row r="113" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="158"/>
       <c r="B113" s="23"/>
       <c r="C113" s="47"/>
@@ -22916,7 +22924,7 @@
       <c r="BI113" s="158"/>
       <c r="BJ113" s="158"/>
     </row>
-    <row r="114" spans="1:62" ht="11.25" customHeight="1">
+    <row r="114" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="158"/>
       <c r="B114" s="23"/>
       <c r="C114" s="47"/>
@@ -22980,7 +22988,7 @@
       <c r="BI114" s="158"/>
       <c r="BJ114" s="158"/>
     </row>
-    <row r="115" spans="1:62" ht="11.25" customHeight="1">
+    <row r="115" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="158"/>
       <c r="B115" s="23"/>
       <c r="C115" s="47"/>
@@ -23044,7 +23052,7 @@
       <c r="BI115" s="158"/>
       <c r="BJ115" s="158"/>
     </row>
-    <row r="116" spans="1:62" ht="11.25" customHeight="1">
+    <row r="116" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="158"/>
       <c r="B116" s="23"/>
       <c r="C116" s="47"/>
@@ -23108,7 +23116,7 @@
       <c r="BI116" s="158"/>
       <c r="BJ116" s="158"/>
     </row>
-    <row r="117" spans="1:62" ht="11.25" customHeight="1">
+    <row r="117" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="158"/>
       <c r="B117" s="23"/>
       <c r="C117" s="47"/>
@@ -23172,7 +23180,7 @@
       <c r="BI117" s="158"/>
       <c r="BJ117" s="158"/>
     </row>
-    <row r="118" spans="1:62" ht="11.25" customHeight="1">
+    <row r="118" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="158"/>
       <c r="B118" s="23"/>
       <c r="C118" s="47"/>
@@ -23236,7 +23244,7 @@
       <c r="BI118" s="158"/>
       <c r="BJ118" s="158"/>
     </row>
-    <row r="119" spans="1:62" ht="11.25" customHeight="1">
+    <row r="119" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="158"/>
       <c r="B119" s="23"/>
       <c r="C119" s="47"/>
@@ -23300,7 +23308,7 @@
       <c r="BI119" s="158"/>
       <c r="BJ119" s="158"/>
     </row>
-    <row r="120" spans="1:62" ht="11.25" customHeight="1">
+    <row r="120" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="158"/>
       <c r="B120" s="23"/>
       <c r="C120" s="47"/>
@@ -23364,7 +23372,7 @@
       <c r="BI120" s="158"/>
       <c r="BJ120" s="158"/>
     </row>
-    <row r="121" spans="1:62" ht="11.25" customHeight="1">
+    <row r="121" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="158"/>
       <c r="B121" s="23"/>
       <c r="C121" s="47"/>
@@ -23428,7 +23436,7 @@
       <c r="BI121" s="158"/>
       <c r="BJ121" s="158"/>
     </row>
-    <row r="122" spans="1:62" ht="11.25" customHeight="1">
+    <row r="122" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="158"/>
       <c r="B122" s="23"/>
       <c r="C122" s="47"/>
@@ -23492,7 +23500,7 @@
       <c r="BI122" s="158"/>
       <c r="BJ122" s="158"/>
     </row>
-    <row r="123" spans="1:62" ht="11.25" customHeight="1">
+    <row r="123" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="158"/>
       <c r="B123" s="23"/>
       <c r="C123" s="47"/>
@@ -23556,7 +23564,7 @@
       <c r="BI123" s="158"/>
       <c r="BJ123" s="158"/>
     </row>
-    <row r="124" spans="1:62" ht="11.25" customHeight="1">
+    <row r="124" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="158"/>
       <c r="B124" s="23"/>
       <c r="C124" s="47"/>
@@ -23620,7 +23628,7 @@
       <c r="BI124" s="158"/>
       <c r="BJ124" s="158"/>
     </row>
-    <row r="125" spans="1:62" ht="11.25" customHeight="1">
+    <row r="125" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="158"/>
       <c r="B125" s="23"/>
       <c r="C125" s="47"/>
@@ -23684,7 +23692,7 @@
       <c r="BI125" s="158"/>
       <c r="BJ125" s="158"/>
     </row>
-    <row r="126" spans="1:62" ht="11.25" customHeight="1">
+    <row r="126" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="158"/>
       <c r="B126" s="23"/>
       <c r="C126" s="47"/>
@@ -23748,7 +23756,7 @@
       <c r="BI126" s="158"/>
       <c r="BJ126" s="158"/>
     </row>
-    <row r="127" spans="1:62" ht="11.25" customHeight="1">
+    <row r="127" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="158"/>
       <c r="B127" s="23"/>
       <c r="C127" s="47"/>
@@ -23812,7 +23820,7 @@
       <c r="BI127" s="158"/>
       <c r="BJ127" s="158"/>
     </row>
-    <row r="128" spans="1:62" ht="11.25" customHeight="1">
+    <row r="128" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="158"/>
       <c r="B128" s="23"/>
       <c r="C128" s="47"/>
@@ -23876,7 +23884,7 @@
       <c r="BI128" s="158"/>
       <c r="BJ128" s="158"/>
     </row>
-    <row r="129" spans="1:62" ht="11.25" customHeight="1">
+    <row r="129" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="158"/>
       <c r="B129" s="23"/>
       <c r="C129" s="47"/>
@@ -23940,7 +23948,7 @@
       <c r="BI129" s="158"/>
       <c r="BJ129" s="158"/>
     </row>
-    <row r="130" spans="1:62" ht="11.25" customHeight="1">
+    <row r="130" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="158"/>
       <c r="B130" s="23"/>
       <c r="C130" s="47"/>
@@ -24004,7 +24012,7 @@
       <c r="BI130" s="158"/>
       <c r="BJ130" s="158"/>
     </row>
-    <row r="131" spans="1:62" ht="11.25" customHeight="1">
+    <row r="131" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="158"/>
       <c r="B131" s="23"/>
       <c r="C131" s="47"/>
@@ -24068,7 +24076,7 @@
       <c r="BI131" s="158"/>
       <c r="BJ131" s="158"/>
     </row>
-    <row r="132" spans="1:62" ht="11.25" customHeight="1">
+    <row r="132" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="158"/>
       <c r="B132" s="23"/>
       <c r="C132" s="47"/>
@@ -24132,7 +24140,7 @@
       <c r="BI132" s="158"/>
       <c r="BJ132" s="158"/>
     </row>
-    <row r="133" spans="1:62" ht="11.25" customHeight="1">
+    <row r="133" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="158"/>
       <c r="B133" s="23"/>
       <c r="C133" s="47"/>
@@ -24196,7 +24204,7 @@
       <c r="BI133" s="158"/>
       <c r="BJ133" s="158"/>
     </row>
-    <row r="134" spans="1:62" ht="11.25" customHeight="1">
+    <row r="134" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="158"/>
       <c r="B134" s="23"/>
       <c r="C134" s="47"/>
@@ -24260,7 +24268,7 @@
       <c r="BI134" s="158"/>
       <c r="BJ134" s="158"/>
     </row>
-    <row r="135" spans="1:62" ht="11.25" customHeight="1">
+    <row r="135" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="158"/>
       <c r="B135" s="23"/>
       <c r="C135" s="47"/>
@@ -24324,7 +24332,7 @@
       <c r="BI135" s="158"/>
       <c r="BJ135" s="158"/>
     </row>
-    <row r="136" spans="1:62" ht="11.25" customHeight="1">
+    <row r="136" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="158"/>
       <c r="B136" s="23"/>
       <c r="C136" s="47"/>
@@ -24388,7 +24396,7 @@
       <c r="BI136" s="158"/>
       <c r="BJ136" s="158"/>
     </row>
-    <row r="137" spans="1:62" ht="11.25" customHeight="1">
+    <row r="137" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="158"/>
       <c r="B137" s="23"/>
       <c r="C137" s="47"/>
@@ -24452,7 +24460,7 @@
       <c r="BI137" s="158"/>
       <c r="BJ137" s="158"/>
     </row>
-    <row r="138" spans="1:62" ht="11.25" customHeight="1">
+    <row r="138" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="158"/>
       <c r="B138" s="23"/>
       <c r="C138" s="47"/>
@@ -24516,7 +24524,7 @@
       <c r="BI138" s="158"/>
       <c r="BJ138" s="158"/>
     </row>
-    <row r="139" spans="1:62" ht="11.25" customHeight="1">
+    <row r="139" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="158"/>
       <c r="B139" s="23"/>
       <c r="C139" s="47"/>
@@ -24580,7 +24588,7 @@
       <c r="BI139" s="158"/>
       <c r="BJ139" s="158"/>
     </row>
-    <row r="140" spans="1:62" ht="11.25" customHeight="1">
+    <row r="140" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="158"/>
       <c r="B140" s="23"/>
       <c r="C140" s="47"/>
@@ -24644,7 +24652,7 @@
       <c r="BI140" s="158"/>
       <c r="BJ140" s="158"/>
     </row>
-    <row r="141" spans="1:62" ht="11.25" customHeight="1">
+    <row r="141" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="158"/>
       <c r="B141" s="23"/>
       <c r="C141" s="47"/>
@@ -24708,7 +24716,7 @@
       <c r="BI141" s="158"/>
       <c r="BJ141" s="158"/>
     </row>
-    <row r="142" spans="1:62" ht="11.25" customHeight="1">
+    <row r="142" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="158"/>
       <c r="B142" s="23"/>
       <c r="C142" s="47"/>
@@ -24772,7 +24780,7 @@
       <c r="BI142" s="158"/>
       <c r="BJ142" s="158"/>
     </row>
-    <row r="143" spans="1:62" ht="11.25" customHeight="1">
+    <row r="143" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="158"/>
       <c r="B143" s="23"/>
       <c r="C143" s="47"/>
@@ -24836,7 +24844,7 @@
       <c r="BI143" s="158"/>
       <c r="BJ143" s="158"/>
     </row>
-    <row r="144" spans="1:62" ht="11.25" customHeight="1">
+    <row r="144" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="158"/>
       <c r="B144" s="23"/>
       <c r="C144" s="47"/>
@@ -24900,7 +24908,7 @@
       <c r="BI144" s="158"/>
       <c r="BJ144" s="158"/>
     </row>
-    <row r="145" spans="1:62" ht="11.25" customHeight="1">
+    <row r="145" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="158"/>
       <c r="B145" s="23"/>
       <c r="C145" s="47"/>
@@ -24964,7 +24972,7 @@
       <c r="BI145" s="158"/>
       <c r="BJ145" s="158"/>
     </row>
-    <row r="146" spans="1:62" ht="11.25" customHeight="1">
+    <row r="146" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="158"/>
       <c r="B146" s="23"/>
       <c r="C146" s="47"/>
@@ -25028,7 +25036,7 @@
       <c r="BI146" s="158"/>
       <c r="BJ146" s="158"/>
     </row>
-    <row r="147" spans="1:62" ht="11.25" customHeight="1">
+    <row r="147" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="158"/>
       <c r="B147" s="23"/>
       <c r="C147" s="47"/>
@@ -25092,7 +25100,7 @@
       <c r="BI147" s="158"/>
       <c r="BJ147" s="158"/>
     </row>
-    <row r="148" spans="1:62" ht="11.25" customHeight="1">
+    <row r="148" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="158"/>
       <c r="B148" s="23"/>
       <c r="C148" s="47"/>
@@ -25156,7 +25164,7 @@
       <c r="BI148" s="158"/>
       <c r="BJ148" s="158"/>
     </row>
-    <row r="149" spans="1:62" ht="11.25" customHeight="1">
+    <row r="149" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="158"/>
       <c r="B149" s="23"/>
       <c r="C149" s="47"/>
@@ -25220,7 +25228,7 @@
       <c r="BI149" s="158"/>
       <c r="BJ149" s="158"/>
     </row>
-    <row r="150" spans="1:62" ht="11.25" customHeight="1">
+    <row r="150" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="158"/>
       <c r="B150" s="23"/>
       <c r="C150" s="47"/>
@@ -25284,7 +25292,7 @@
       <c r="BI150" s="158"/>
       <c r="BJ150" s="158"/>
     </row>
-    <row r="151" spans="1:62" ht="11.25" customHeight="1">
+    <row r="151" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="158"/>
       <c r="B151" s="23"/>
       <c r="C151" s="47"/>
@@ -25348,7 +25356,7 @@
       <c r="BI151" s="158"/>
       <c r="BJ151" s="158"/>
     </row>
-    <row r="152" spans="1:62" ht="11.25" customHeight="1">
+    <row r="152" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="158"/>
       <c r="B152" s="23"/>
       <c r="C152" s="47"/>
@@ -25412,7 +25420,7 @@
       <c r="BI152" s="158"/>
       <c r="BJ152" s="158"/>
     </row>
-    <row r="153" spans="1:62" ht="11.25" customHeight="1">
+    <row r="153" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="158"/>
       <c r="B153" s="23"/>
       <c r="C153" s="47"/>
@@ -25476,7 +25484,7 @@
       <c r="BI153" s="158"/>
       <c r="BJ153" s="158"/>
     </row>
-    <row r="154" spans="1:62" ht="11.25" customHeight="1">
+    <row r="154" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="158"/>
       <c r="B154" s="23"/>
       <c r="C154" s="47"/>
@@ -25540,7 +25548,7 @@
       <c r="BI154" s="158"/>
       <c r="BJ154" s="158"/>
     </row>
-    <row r="155" spans="1:62" ht="11.25" customHeight="1">
+    <row r="155" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="158"/>
       <c r="B155" s="23"/>
       <c r="C155" s="47"/>
@@ -25604,7 +25612,7 @@
       <c r="BI155" s="158"/>
       <c r="BJ155" s="158"/>
     </row>
-    <row r="156" spans="1:62" ht="11.25" customHeight="1">
+    <row r="156" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="158"/>
       <c r="B156" s="23"/>
       <c r="C156" s="47"/>
@@ -25668,7 +25676,7 @@
       <c r="BI156" s="158"/>
       <c r="BJ156" s="158"/>
     </row>
-    <row r="157" spans="1:62" ht="11.25" customHeight="1">
+    <row r="157" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="158"/>
       <c r="B157" s="23"/>
       <c r="C157" s="47"/>
@@ -25732,7 +25740,7 @@
       <c r="BI157" s="158"/>
       <c r="BJ157" s="158"/>
     </row>
-    <row r="158" spans="1:62" ht="11.25" customHeight="1">
+    <row r="158" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="158"/>
       <c r="B158" s="23"/>
       <c r="C158" s="47"/>
@@ -25796,7 +25804,7 @@
       <c r="BI158" s="158"/>
       <c r="BJ158" s="158"/>
     </row>
-    <row r="159" spans="1:62" ht="11.25" customHeight="1">
+    <row r="159" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="158"/>
       <c r="B159" s="23"/>
       <c r="C159" s="47"/>
@@ -25860,7 +25868,7 @@
       <c r="BI159" s="158"/>
       <c r="BJ159" s="158"/>
     </row>
-    <row r="160" spans="1:62" ht="11.25" customHeight="1">
+    <row r="160" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="158"/>
       <c r="B160" s="23"/>
       <c r="C160" s="47"/>
@@ -25924,7 +25932,7 @@
       <c r="BI160" s="158"/>
       <c r="BJ160" s="158"/>
     </row>
-    <row r="161" spans="1:62" ht="11.25" customHeight="1">
+    <row r="161" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="158"/>
       <c r="B161" s="23"/>
       <c r="C161" s="47"/>
@@ -25988,7 +25996,7 @@
       <c r="BI161" s="158"/>
       <c r="BJ161" s="158"/>
     </row>
-    <row r="162" spans="1:62" ht="11.25" customHeight="1">
+    <row r="162" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="158"/>
       <c r="B162" s="23"/>
       <c r="C162" s="47"/>
@@ -26052,7 +26060,7 @@
       <c r="BI162" s="158"/>
       <c r="BJ162" s="158"/>
     </row>
-    <row r="163" spans="1:62" ht="11.25" customHeight="1">
+    <row r="163" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="158"/>
       <c r="B163" s="23"/>
       <c r="C163" s="47"/>
@@ -26116,7 +26124,7 @@
       <c r="BI163" s="158"/>
       <c r="BJ163" s="158"/>
     </row>
-    <row r="164" spans="1:62" ht="11.25" customHeight="1">
+    <row r="164" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="158"/>
       <c r="B164" s="23"/>
       <c r="C164" s="47"/>
@@ -26180,7 +26188,7 @@
       <c r="BI164" s="158"/>
       <c r="BJ164" s="158"/>
     </row>
-    <row r="165" spans="1:62" ht="11.25" customHeight="1">
+    <row r="165" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="158"/>
       <c r="B165" s="23"/>
       <c r="C165" s="47"/>
@@ -26244,7 +26252,7 @@
       <c r="BI165" s="158"/>
       <c r="BJ165" s="158"/>
     </row>
-    <row r="166" spans="1:62" ht="11.25" customHeight="1">
+    <row r="166" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="158"/>
       <c r="B166" s="23"/>
       <c r="C166" s="47"/>
@@ -26308,7 +26316,7 @@
       <c r="BI166" s="158"/>
       <c r="BJ166" s="158"/>
     </row>
-    <row r="167" spans="1:62" ht="11.25" customHeight="1">
+    <row r="167" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="158"/>
       <c r="B167" s="23"/>
       <c r="C167" s="47"/>
@@ -26372,7 +26380,7 @@
       <c r="BI167" s="158"/>
       <c r="BJ167" s="158"/>
     </row>
-    <row r="168" spans="1:62" ht="11.25" customHeight="1">
+    <row r="168" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="158"/>
       <c r="B168" s="23"/>
       <c r="C168" s="47"/>
@@ -26436,7 +26444,7 @@
       <c r="BI168" s="158"/>
       <c r="BJ168" s="158"/>
     </row>
-    <row r="169" spans="1:62" ht="11.25" customHeight="1">
+    <row r="169" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="158"/>
       <c r="B169" s="23"/>
       <c r="C169" s="47"/>
@@ -26500,7 +26508,7 @@
       <c r="BI169" s="158"/>
       <c r="BJ169" s="158"/>
     </row>
-    <row r="170" spans="1:62" ht="11.25" customHeight="1">
+    <row r="170" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="158"/>
       <c r="B170" s="23"/>
       <c r="C170" s="47"/>
@@ -26564,7 +26572,7 @@
       <c r="BI170" s="158"/>
       <c r="BJ170" s="158"/>
     </row>
-    <row r="171" spans="1:62" ht="11.25" customHeight="1">
+    <row r="171" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="158"/>
       <c r="B171" s="23"/>
       <c r="C171" s="47"/>
@@ -26628,7 +26636,7 @@
       <c r="BI171" s="158"/>
       <c r="BJ171" s="158"/>
     </row>
-    <row r="172" spans="1:62" ht="11.25" customHeight="1">
+    <row r="172" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="158"/>
       <c r="B172" s="23"/>
       <c r="C172" s="47"/>
@@ -26692,7 +26700,7 @@
       <c r="BI172" s="158"/>
       <c r="BJ172" s="158"/>
     </row>
-    <row r="173" spans="1:62" ht="11.25" customHeight="1">
+    <row r="173" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="158"/>
       <c r="B173" s="23"/>
       <c r="C173" s="47"/>
@@ -26756,7 +26764,7 @@
       <c r="BI173" s="158"/>
       <c r="BJ173" s="158"/>
     </row>
-    <row r="174" spans="1:62" ht="11.25" customHeight="1">
+    <row r="174" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="158"/>
       <c r="B174" s="23"/>
       <c r="C174" s="47"/>
@@ -26820,7 +26828,7 @@
       <c r="BI174" s="158"/>
       <c r="BJ174" s="158"/>
     </row>
-    <row r="175" spans="1:62" ht="11.25" customHeight="1">
+    <row r="175" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="158"/>
       <c r="B175" s="23"/>
       <c r="C175" s="47"/>
@@ -26884,7 +26892,7 @@
       <c r="BI175" s="158"/>
       <c r="BJ175" s="158"/>
     </row>
-    <row r="176" spans="1:62" ht="11.25" customHeight="1">
+    <row r="176" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="158"/>
       <c r="B176" s="23"/>
       <c r="C176" s="47"/>
@@ -26948,7 +26956,7 @@
       <c r="BI176" s="158"/>
       <c r="BJ176" s="158"/>
     </row>
-    <row r="177" spans="1:62" ht="11.25" customHeight="1">
+    <row r="177" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="158"/>
       <c r="B177" s="23"/>
       <c r="C177" s="47"/>
@@ -27012,7 +27020,7 @@
       <c r="BI177" s="158"/>
       <c r="BJ177" s="158"/>
     </row>
-    <row r="178" spans="1:62" ht="11.25" customHeight="1">
+    <row r="178" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="158"/>
       <c r="B178" s="23"/>
       <c r="C178" s="47"/>
@@ -27076,7 +27084,7 @@
       <c r="BI178" s="158"/>
       <c r="BJ178" s="158"/>
     </row>
-    <row r="179" spans="1:62" ht="11.25" customHeight="1">
+    <row r="179" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="158"/>
       <c r="B179" s="23"/>
       <c r="C179" s="47"/>
@@ -27140,7 +27148,7 @@
       <c r="BI179" s="158"/>
       <c r="BJ179" s="158"/>
     </row>
-    <row r="180" spans="1:62" ht="11.25" customHeight="1">
+    <row r="180" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="158"/>
       <c r="B180" s="23"/>
       <c r="C180" s="47"/>
@@ -27204,7 +27212,7 @@
       <c r="BI180" s="158"/>
       <c r="BJ180" s="158"/>
     </row>
-    <row r="181" spans="1:62" ht="11.25" customHeight="1">
+    <row r="181" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="158"/>
       <c r="B181" s="23"/>
       <c r="C181" s="47"/>
@@ -27268,7 +27276,7 @@
       <c r="BI181" s="158"/>
       <c r="BJ181" s="158"/>
     </row>
-    <row r="182" spans="1:62" ht="11.25" customHeight="1">
+    <row r="182" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="158"/>
       <c r="B182" s="23"/>
       <c r="C182" s="47"/>
@@ -27332,7 +27340,7 @@
       <c r="BI182" s="158"/>
       <c r="BJ182" s="158"/>
     </row>
-    <row r="183" spans="1:62" ht="11.25" customHeight="1">
+    <row r="183" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="158"/>
       <c r="B183" s="23"/>
       <c r="C183" s="47"/>
@@ -27396,7 +27404,7 @@
       <c r="BI183" s="158"/>
       <c r="BJ183" s="158"/>
     </row>
-    <row r="184" spans="1:62" ht="11.25" customHeight="1">
+    <row r="184" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="158"/>
       <c r="B184" s="23"/>
       <c r="C184" s="47"/>
@@ -27460,7 +27468,7 @@
       <c r="BI184" s="158"/>
       <c r="BJ184" s="158"/>
     </row>
-    <row r="185" spans="1:62" ht="11.25" customHeight="1">
+    <row r="185" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="158"/>
       <c r="B185" s="23"/>
       <c r="C185" s="47"/>
@@ -27524,7 +27532,7 @@
       <c r="BI185" s="158"/>
       <c r="BJ185" s="158"/>
     </row>
-    <row r="186" spans="1:62" ht="11.25" customHeight="1">
+    <row r="186" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="158"/>
       <c r="B186" s="23"/>
       <c r="C186" s="47"/>
@@ -27588,7 +27596,7 @@
       <c r="BI186" s="158"/>
       <c r="BJ186" s="158"/>
     </row>
-    <row r="187" spans="1:62" ht="11.25" customHeight="1">
+    <row r="187" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="158"/>
       <c r="B187" s="23"/>
       <c r="C187" s="47"/>
@@ -27652,7 +27660,7 @@
       <c r="BI187" s="158"/>
       <c r="BJ187" s="158"/>
     </row>
-    <row r="188" spans="1:62" ht="11.25" customHeight="1">
+    <row r="188" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="158"/>
       <c r="B188" s="23"/>
       <c r="C188" s="47"/>
@@ -27716,7 +27724,7 @@
       <c r="BI188" s="158"/>
       <c r="BJ188" s="158"/>
     </row>
-    <row r="189" spans="1:62" ht="11.25" customHeight="1">
+    <row r="189" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="158"/>
       <c r="B189" s="23"/>
       <c r="C189" s="47"/>
@@ -27780,7 +27788,7 @@
       <c r="BI189" s="158"/>
       <c r="BJ189" s="158"/>
     </row>
-    <row r="190" spans="1:62" ht="11.25" customHeight="1">
+    <row r="190" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="158"/>
       <c r="B190" s="23"/>
       <c r="C190" s="47"/>
@@ -27844,7 +27852,7 @@
       <c r="BI190" s="158"/>
       <c r="BJ190" s="158"/>
     </row>
-    <row r="191" spans="1:62" ht="11.25" customHeight="1">
+    <row r="191" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="158"/>
       <c r="B191" s="23"/>
       <c r="C191" s="47"/>
@@ -27908,7 +27916,7 @@
       <c r="BI191" s="158"/>
       <c r="BJ191" s="158"/>
     </row>
-    <row r="192" spans="1:62" ht="11.25" customHeight="1">
+    <row r="192" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="158"/>
       <c r="B192" s="23"/>
       <c r="C192" s="47"/>
@@ -27972,7 +27980,7 @@
       <c r="BI192" s="158"/>
       <c r="BJ192" s="158"/>
     </row>
-    <row r="193" spans="1:62" ht="11.25" customHeight="1">
+    <row r="193" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="158"/>
       <c r="B193" s="23"/>
       <c r="C193" s="47"/>
@@ -28036,7 +28044,7 @@
       <c r="BI193" s="158"/>
       <c r="BJ193" s="158"/>
     </row>
-    <row r="194" spans="1:62" ht="11.25" customHeight="1">
+    <row r="194" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="158"/>
       <c r="B194" s="23"/>
       <c r="C194" s="47"/>
@@ -28100,7 +28108,7 @@
       <c r="BI194" s="158"/>
       <c r="BJ194" s="158"/>
     </row>
-    <row r="195" spans="1:62" ht="11.25" customHeight="1">
+    <row r="195" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="158"/>
       <c r="B195" s="23"/>
       <c r="C195" s="47"/>
@@ -28164,7 +28172,7 @@
       <c r="BI195" s="158"/>
       <c r="BJ195" s="158"/>
     </row>
-    <row r="196" spans="1:62" ht="11.25" customHeight="1">
+    <row r="196" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="158"/>
       <c r="B196" s="23"/>
       <c r="C196" s="47"/>
@@ -28228,7 +28236,7 @@
       <c r="BI196" s="158"/>
       <c r="BJ196" s="158"/>
     </row>
-    <row r="197" spans="1:62" ht="11.25" customHeight="1">
+    <row r="197" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="158"/>
       <c r="B197" s="23"/>
       <c r="C197" s="47"/>
@@ -28292,7 +28300,7 @@
       <c r="BI197" s="158"/>
       <c r="BJ197" s="158"/>
     </row>
-    <row r="198" spans="1:62" ht="11.25" customHeight="1">
+    <row r="198" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="158"/>
       <c r="B198" s="23"/>
       <c r="C198" s="47"/>
@@ -28356,7 +28364,7 @@
       <c r="BI198" s="158"/>
       <c r="BJ198" s="158"/>
     </row>
-    <row r="199" spans="1:62" ht="11.25" customHeight="1">
+    <row r="199" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="158"/>
       <c r="B199" s="23"/>
       <c r="C199" s="47"/>
@@ -28420,7 +28428,7 @@
       <c r="BI199" s="158"/>
       <c r="BJ199" s="158"/>
     </row>
-    <row r="200" spans="1:62" ht="11.25" customHeight="1">
+    <row r="200" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="158"/>
       <c r="B200" s="23"/>
       <c r="C200" s="47"/>
@@ -28484,7 +28492,7 @@
       <c r="BI200" s="158"/>
       <c r="BJ200" s="158"/>
     </row>
-    <row r="201" spans="1:62" ht="11.25" customHeight="1">
+    <row r="201" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="158"/>
       <c r="B201" s="23"/>
       <c r="C201" s="47"/>
@@ -28548,7 +28556,7 @@
       <c r="BI201" s="158"/>
       <c r="BJ201" s="158"/>
     </row>
-    <row r="202" spans="1:62" ht="11.25" customHeight="1">
+    <row r="202" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="158"/>
       <c r="B202" s="23"/>
       <c r="C202" s="47"/>
@@ -28612,7 +28620,7 @@
       <c r="BI202" s="158"/>
       <c r="BJ202" s="158"/>
     </row>
-    <row r="203" spans="1:62" ht="11.25" customHeight="1">
+    <row r="203" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="158"/>
       <c r="B203" s="23"/>
       <c r="C203" s="47"/>
@@ -28676,7 +28684,7 @@
       <c r="BI203" s="158"/>
       <c r="BJ203" s="158"/>
     </row>
-    <row r="204" spans="1:62" ht="11.25" customHeight="1">
+    <row r="204" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="158"/>
       <c r="B204" s="23"/>
       <c r="C204" s="47"/>
@@ -28740,7 +28748,7 @@
       <c r="BI204" s="158"/>
       <c r="BJ204" s="158"/>
     </row>
-    <row r="205" spans="1:62" ht="11.25" customHeight="1">
+    <row r="205" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="158"/>
       <c r="B205" s="23"/>
       <c r="C205" s="47"/>
@@ -28804,7 +28812,7 @@
       <c r="BI205" s="158"/>
       <c r="BJ205" s="158"/>
     </row>
-    <row r="206" spans="1:62" ht="11.25" customHeight="1">
+    <row r="206" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="158"/>
       <c r="B206" s="23"/>
       <c r="C206" s="47"/>
@@ -28868,7 +28876,7 @@
       <c r="BI206" s="158"/>
       <c r="BJ206" s="158"/>
     </row>
-    <row r="207" spans="1:62" ht="11.25" customHeight="1">
+    <row r="207" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="158"/>
       <c r="B207" s="23"/>
       <c r="C207" s="47"/>
@@ -28932,7 +28940,7 @@
       <c r="BI207" s="158"/>
       <c r="BJ207" s="158"/>
     </row>
-    <row r="208" spans="1:62" ht="11.25" customHeight="1">
+    <row r="208" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="158"/>
       <c r="B208" s="23"/>
       <c r="C208" s="47"/>
@@ -28996,7 +29004,7 @@
       <c r="BI208" s="158"/>
       <c r="BJ208" s="158"/>
     </row>
-    <row r="209" spans="1:62" ht="11.25" customHeight="1">
+    <row r="209" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="158"/>
       <c r="B209" s="23"/>
       <c r="C209" s="47"/>
@@ -29060,7 +29068,7 @@
       <c r="BI209" s="158"/>
       <c r="BJ209" s="158"/>
     </row>
-    <row r="210" spans="1:62" ht="11.25" customHeight="1">
+    <row r="210" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="158"/>
       <c r="B210" s="23"/>
       <c r="C210" s="47"/>
@@ -29124,7 +29132,7 @@
       <c r="BI210" s="158"/>
       <c r="BJ210" s="158"/>
     </row>
-    <row r="211" spans="1:62" ht="11.25" customHeight="1">
+    <row r="211" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="158"/>
       <c r="B211" s="23"/>
       <c r="C211" s="47"/>
@@ -29188,7 +29196,7 @@
       <c r="BI211" s="158"/>
       <c r="BJ211" s="158"/>
     </row>
-    <row r="212" spans="1:62" ht="11.25" customHeight="1">
+    <row r="212" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="158"/>
       <c r="B212" s="23"/>
       <c r="C212" s="47"/>
@@ -29252,7 +29260,7 @@
       <c r="BI212" s="158"/>
       <c r="BJ212" s="158"/>
     </row>
-    <row r="213" spans="1:62" ht="11.25" customHeight="1">
+    <row r="213" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="158"/>
       <c r="B213" s="23"/>
       <c r="C213" s="47"/>
@@ -29316,7 +29324,7 @@
       <c r="BI213" s="158"/>
       <c r="BJ213" s="158"/>
     </row>
-    <row r="214" spans="1:62" ht="11.25" customHeight="1">
+    <row r="214" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="158"/>
       <c r="B214" s="23"/>
       <c r="C214" s="47"/>
@@ -29380,7 +29388,7 @@
       <c r="BI214" s="158"/>
       <c r="BJ214" s="158"/>
     </row>
-    <row r="215" spans="1:62" ht="11.25" customHeight="1">
+    <row r="215" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="158"/>
       <c r="B215" s="23"/>
       <c r="C215" s="47"/>
@@ -29444,7 +29452,7 @@
       <c r="BI215" s="158"/>
       <c r="BJ215" s="158"/>
     </row>
-    <row r="216" spans="1:62" ht="11.25" customHeight="1">
+    <row r="216" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="158"/>
       <c r="B216" s="23"/>
       <c r="C216" s="47"/>
@@ -29508,7 +29516,7 @@
       <c r="BI216" s="158"/>
       <c r="BJ216" s="158"/>
     </row>
-    <row r="217" spans="1:62" ht="11.25" customHeight="1">
+    <row r="217" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="158"/>
       <c r="B217" s="23"/>
       <c r="C217" s="47"/>
@@ -29572,7 +29580,7 @@
       <c r="BI217" s="158"/>
       <c r="BJ217" s="158"/>
     </row>
-    <row r="218" spans="1:62" ht="11.25" customHeight="1">
+    <row r="218" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="158"/>
       <c r="B218" s="23"/>
       <c r="C218" s="47"/>
@@ -29636,7 +29644,7 @@
       <c r="BI218" s="158"/>
       <c r="BJ218" s="158"/>
     </row>
-    <row r="219" spans="1:62" ht="11.25" customHeight="1">
+    <row r="219" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="158"/>
       <c r="B219" s="23"/>
       <c r="C219" s="47"/>
@@ -29700,7 +29708,7 @@
       <c r="BI219" s="158"/>
       <c r="BJ219" s="158"/>
     </row>
-    <row r="220" spans="1:62" ht="11.25" customHeight="1">
+    <row r="220" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="158"/>
       <c r="B220" s="23"/>
       <c r="C220" s="47"/>
@@ -29764,7 +29772,7 @@
       <c r="BI220" s="158"/>
       <c r="BJ220" s="158"/>
     </row>
-    <row r="221" spans="1:62" ht="11.25" customHeight="1">
+    <row r="221" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="158"/>
       <c r="B221" s="23"/>
       <c r="C221" s="47"/>
@@ -29828,7 +29836,7 @@
       <c r="BI221" s="158"/>
       <c r="BJ221" s="158"/>
     </row>
-    <row r="222" spans="1:62" ht="11.25" customHeight="1">
+    <row r="222" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="158"/>
       <c r="B222" s="23"/>
       <c r="C222" s="47"/>
@@ -29892,7 +29900,7 @@
       <c r="BI222" s="158"/>
       <c r="BJ222" s="158"/>
     </row>
-    <row r="223" spans="1:62" ht="11.25" customHeight="1">
+    <row r="223" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="158"/>
       <c r="B223" s="23"/>
       <c r="C223" s="47"/>
@@ -29956,7 +29964,7 @@
       <c r="BI223" s="158"/>
       <c r="BJ223" s="158"/>
     </row>
-    <row r="224" spans="1:62" ht="11.25" customHeight="1">
+    <row r="224" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="158"/>
       <c r="B224" s="23"/>
       <c r="C224" s="47"/>
@@ -30020,7 +30028,7 @@
       <c r="BI224" s="158"/>
       <c r="BJ224" s="158"/>
     </row>
-    <row r="225" spans="1:62" ht="11.25" customHeight="1">
+    <row r="225" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="158"/>
       <c r="B225" s="23"/>
       <c r="C225" s="47"/>
@@ -30084,7 +30092,7 @@
       <c r="BI225" s="158"/>
       <c r="BJ225" s="158"/>
     </row>
-    <row r="226" spans="1:62" ht="11.25" customHeight="1">
+    <row r="226" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="158"/>
       <c r="B226" s="23"/>
       <c r="C226" s="47"/>
@@ -30148,7 +30156,7 @@
       <c r="BI226" s="158"/>
       <c r="BJ226" s="158"/>
     </row>
-    <row r="227" spans="1:62" ht="11.25" customHeight="1">
+    <row r="227" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="158"/>
       <c r="B227" s="23"/>
       <c r="C227" s="47"/>
@@ -30212,7 +30220,7 @@
       <c r="BI227" s="158"/>
       <c r="BJ227" s="158"/>
     </row>
-    <row r="228" spans="1:62" ht="11.25" customHeight="1">
+    <row r="228" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="158"/>
       <c r="B228" s="23"/>
       <c r="C228" s="47"/>
@@ -30276,7 +30284,7 @@
       <c r="BI228" s="158"/>
       <c r="BJ228" s="158"/>
     </row>
-    <row r="229" spans="1:62" ht="11.25" customHeight="1">
+    <row r="229" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="158"/>
       <c r="B229" s="23"/>
       <c r="C229" s="47"/>
@@ -30340,7 +30348,7 @@
       <c r="BI229" s="158"/>
       <c r="BJ229" s="158"/>
     </row>
-    <row r="230" spans="1:62" ht="11.25" customHeight="1">
+    <row r="230" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="158"/>
       <c r="B230" s="23"/>
       <c r="C230" s="47"/>
@@ -30404,7 +30412,7 @@
       <c r="BI230" s="158"/>
       <c r="BJ230" s="158"/>
     </row>
-    <row r="231" spans="1:62" ht="11.25" customHeight="1">
+    <row r="231" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="158"/>
       <c r="B231" s="23"/>
       <c r="C231" s="47"/>
@@ -30468,7 +30476,7 @@
       <c r="BI231" s="158"/>
       <c r="BJ231" s="158"/>
     </row>
-    <row r="232" spans="1:62" ht="11.25" customHeight="1">
+    <row r="232" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="158"/>
       <c r="B232" s="23"/>
       <c r="C232" s="47"/>
@@ -30532,7 +30540,7 @@
       <c r="BI232" s="158"/>
       <c r="BJ232" s="158"/>
     </row>
-    <row r="233" spans="1:62" ht="11.25" customHeight="1">
+    <row r="233" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="158"/>
       <c r="B233" s="23"/>
       <c r="C233" s="47"/>
@@ -30596,7 +30604,7 @@
       <c r="BI233" s="158"/>
       <c r="BJ233" s="158"/>
     </row>
-    <row r="234" spans="1:62" ht="11.25" customHeight="1">
+    <row r="234" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="158"/>
       <c r="B234" s="23"/>
       <c r="C234" s="47"/>
@@ -30660,7 +30668,7 @@
       <c r="BI234" s="158"/>
       <c r="BJ234" s="158"/>
     </row>
-    <row r="235" spans="1:62" ht="11.25" customHeight="1">
+    <row r="235" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="158"/>
       <c r="B235" s="23"/>
       <c r="C235" s="47"/>
@@ -30724,7 +30732,7 @@
       <c r="BI235" s="158"/>
       <c r="BJ235" s="158"/>
     </row>
-    <row r="236" spans="1:62" ht="11.25" customHeight="1">
+    <row r="236" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="158"/>
       <c r="B236" s="23"/>
       <c r="C236" s="47"/>
@@ -30788,7 +30796,7 @@
       <c r="BI236" s="158"/>
       <c r="BJ236" s="158"/>
     </row>
-    <row r="237" spans="1:62" ht="11.25" customHeight="1">
+    <row r="237" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="158"/>
       <c r="B237" s="23"/>
       <c r="C237" s="47"/>
@@ -30852,7 +30860,7 @@
       <c r="BI237" s="158"/>
       <c r="BJ237" s="158"/>
     </row>
-    <row r="238" spans="1:62" ht="11.25" customHeight="1">
+    <row r="238" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="158"/>
       <c r="B238" s="23"/>
       <c r="C238" s="47"/>
@@ -30916,7 +30924,7 @@
       <c r="BI238" s="158"/>
       <c r="BJ238" s="158"/>
     </row>
-    <row r="239" spans="1:62" ht="11.25" customHeight="1">
+    <row r="239" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="158"/>
       <c r="B239" s="23"/>
       <c r="C239" s="47"/>
@@ -30980,7 +30988,7 @@
       <c r="BI239" s="158"/>
       <c r="BJ239" s="158"/>
     </row>
-    <row r="240" spans="1:62" ht="11.25" customHeight="1">
+    <row r="240" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="158"/>
       <c r="B240" s="23"/>
       <c r="C240" s="47"/>
@@ -31044,7 +31052,7 @@
       <c r="BI240" s="158"/>
       <c r="BJ240" s="158"/>
     </row>
-    <row r="241" spans="1:62" ht="11.25" customHeight="1">
+    <row r="241" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="158"/>
       <c r="B241" s="23"/>
       <c r="C241" s="47"/>
@@ -31108,7 +31116,7 @@
       <c r="BI241" s="158"/>
       <c r="BJ241" s="158"/>
     </row>
-    <row r="242" spans="1:62" ht="11.25" customHeight="1">
+    <row r="242" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="158"/>
       <c r="B242" s="23"/>
       <c r="C242" s="47"/>
@@ -31172,7 +31180,7 @@
       <c r="BI242" s="158"/>
       <c r="BJ242" s="158"/>
     </row>
-    <row r="243" spans="1:62" ht="11.25" customHeight="1">
+    <row r="243" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="158"/>
       <c r="B243" s="23"/>
       <c r="C243" s="47"/>
@@ -31236,7 +31244,7 @@
       <c r="BI243" s="158"/>
       <c r="BJ243" s="158"/>
     </row>
-    <row r="244" spans="1:62" ht="11.25" customHeight="1">
+    <row r="244" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="158"/>
       <c r="B244" s="23"/>
       <c r="C244" s="47"/>
@@ -31300,7 +31308,7 @@
       <c r="BI244" s="158"/>
       <c r="BJ244" s="158"/>
     </row>
-    <row r="245" spans="1:62" ht="11.25" customHeight="1">
+    <row r="245" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="158"/>
       <c r="B245" s="23"/>
       <c r="C245" s="47"/>
@@ -31364,7 +31372,7 @@
       <c r="BI245" s="158"/>
       <c r="BJ245" s="158"/>
     </row>
-    <row r="246" spans="1:62" ht="11.25" customHeight="1">
+    <row r="246" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="158"/>
       <c r="B246" s="23"/>
       <c r="C246" s="47"/>
@@ -31428,7 +31436,7 @@
       <c r="BI246" s="158"/>
       <c r="BJ246" s="158"/>
     </row>
-    <row r="247" spans="1:62" ht="11.25" customHeight="1">
+    <row r="247" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="158"/>
       <c r="B247" s="23"/>
       <c r="C247" s="47"/>
@@ -31492,7 +31500,7 @@
       <c r="BI247" s="158"/>
       <c r="BJ247" s="158"/>
     </row>
-    <row r="248" spans="1:62" ht="11.25" customHeight="1">
+    <row r="248" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="158"/>
       <c r="B248" s="23"/>
       <c r="C248" s="47"/>
@@ -31556,7 +31564,7 @@
       <c r="BI248" s="158"/>
       <c r="BJ248" s="158"/>
     </row>
-    <row r="249" spans="1:62" ht="11.25" customHeight="1">
+    <row r="249" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="158"/>
       <c r="B249" s="23"/>
       <c r="C249" s="47"/>
@@ -31620,7 +31628,7 @@
       <c r="BI249" s="158"/>
       <c r="BJ249" s="158"/>
     </row>
-    <row r="250" spans="1:62" ht="11.25" customHeight="1">
+    <row r="250" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="158"/>
       <c r="B250" s="23"/>
       <c r="C250" s="47"/>
@@ -31684,7 +31692,7 @@
       <c r="BI250" s="158"/>
       <c r="BJ250" s="158"/>
     </row>
-    <row r="251" spans="1:62" ht="11.25" customHeight="1">
+    <row r="251" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="158"/>
       <c r="B251" s="23"/>
       <c r="C251" s="47"/>
@@ -31748,7 +31756,7 @@
       <c r="BI251" s="158"/>
       <c r="BJ251" s="158"/>
     </row>
-    <row r="252" spans="1:62" ht="11.25" customHeight="1">
+    <row r="252" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="158"/>
       <c r="B252" s="23"/>
       <c r="C252" s="47"/>
@@ -31812,7 +31820,7 @@
       <c r="BI252" s="158"/>
       <c r="BJ252" s="158"/>
     </row>
-    <row r="253" spans="1:62" ht="11.25" customHeight="1">
+    <row r="253" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="158"/>
       <c r="B253" s="23"/>
       <c r="C253" s="47"/>
@@ -31876,7 +31884,7 @@
       <c r="BI253" s="158"/>
       <c r="BJ253" s="158"/>
     </row>
-    <row r="254" spans="1:62" ht="11.25" customHeight="1">
+    <row r="254" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="158"/>
       <c r="B254" s="23"/>
       <c r="C254" s="47"/>
@@ -31940,7 +31948,7 @@
       <c r="BI254" s="158"/>
       <c r="BJ254" s="158"/>
     </row>
-    <row r="255" spans="1:62" ht="11.25" customHeight="1">
+    <row r="255" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="158"/>
       <c r="B255" s="23"/>
       <c r="C255" s="47"/>
@@ -32004,7 +32012,7 @@
       <c r="BI255" s="158"/>
       <c r="BJ255" s="158"/>
     </row>
-    <row r="256" spans="1:62" ht="11.25" customHeight="1">
+    <row r="256" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="158"/>
       <c r="B256" s="23"/>
       <c r="C256" s="47"/>
@@ -32068,7 +32076,7 @@
       <c r="BI256" s="158"/>
       <c r="BJ256" s="158"/>
     </row>
-    <row r="257" spans="1:62" ht="11.25" customHeight="1">
+    <row r="257" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="158"/>
       <c r="B257" s="23"/>
       <c r="C257" s="47"/>
@@ -32132,7 +32140,7 @@
       <c r="BI257" s="158"/>
       <c r="BJ257" s="158"/>
     </row>
-    <row r="258" spans="1:62" ht="11.25" customHeight="1">
+    <row r="258" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="158"/>
       <c r="B258" s="23"/>
       <c r="C258" s="47"/>
@@ -32196,7 +32204,7 @@
       <c r="BI258" s="158"/>
       <c r="BJ258" s="158"/>
     </row>
-    <row r="259" spans="1:62" ht="11.25" customHeight="1">
+    <row r="259" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="158"/>
       <c r="B259" s="23"/>
       <c r="C259" s="47"/>
@@ -32260,7 +32268,7 @@
       <c r="BI259" s="158"/>
       <c r="BJ259" s="158"/>
     </row>
-    <row r="260" spans="1:62" ht="11.25" customHeight="1">
+    <row r="260" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="158"/>
       <c r="B260" s="23"/>
       <c r="C260" s="47"/>
@@ -32324,7 +32332,7 @@
       <c r="BI260" s="158"/>
       <c r="BJ260" s="158"/>
     </row>
-    <row r="261" spans="1:62" ht="11.25" customHeight="1">
+    <row r="261" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="158"/>
       <c r="B261" s="23"/>
       <c r="C261" s="47"/>
@@ -32388,7 +32396,7 @@
       <c r="BI261" s="158"/>
       <c r="BJ261" s="158"/>
     </row>
-    <row r="262" spans="1:62" ht="11.25" customHeight="1">
+    <row r="262" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="158"/>
       <c r="B262" s="23"/>
       <c r="C262" s="47"/>
@@ -32452,7 +32460,7 @@
       <c r="BI262" s="158"/>
       <c r="BJ262" s="158"/>
     </row>
-    <row r="263" spans="1:62" ht="11.25" customHeight="1">
+    <row r="263" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="158"/>
       <c r="B263" s="23"/>
       <c r="C263" s="47"/>
@@ -32516,7 +32524,7 @@
       <c r="BI263" s="158"/>
       <c r="BJ263" s="158"/>
     </row>
-    <row r="264" spans="1:62" ht="11.25" customHeight="1">
+    <row r="264" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="158"/>
       <c r="B264" s="23"/>
       <c r="C264" s="47"/>
@@ -32580,7 +32588,7 @@
       <c r="BI264" s="158"/>
       <c r="BJ264" s="158"/>
     </row>
-    <row r="265" spans="1:62" ht="11.25" customHeight="1">
+    <row r="265" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="158"/>
       <c r="B265" s="23"/>
       <c r="C265" s="47"/>
@@ -32644,7 +32652,7 @@
       <c r="BI265" s="158"/>
       <c r="BJ265" s="158"/>
     </row>
-    <row r="266" spans="1:62" ht="11.25" customHeight="1">
+    <row r="266" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="158"/>
       <c r="B266" s="23"/>
       <c r="C266" s="47"/>
@@ -32708,7 +32716,7 @@
       <c r="BI266" s="158"/>
       <c r="BJ266" s="158"/>
     </row>
-    <row r="267" spans="1:62" ht="11.25" customHeight="1">
+    <row r="267" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="158"/>
       <c r="B267" s="23"/>
       <c r="C267" s="47"/>
@@ -32772,7 +32780,7 @@
       <c r="BI267" s="158"/>
       <c r="BJ267" s="158"/>
     </row>
-    <row r="268" spans="1:62" ht="11.25" customHeight="1">
+    <row r="268" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="158"/>
       <c r="B268" s="23"/>
       <c r="C268" s="47"/>
@@ -32836,7 +32844,7 @@
       <c r="BI268" s="158"/>
       <c r="BJ268" s="158"/>
     </row>
-    <row r="269" spans="1:62" ht="11.25" customHeight="1">
+    <row r="269" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="158"/>
       <c r="B269" s="23"/>
       <c r="C269" s="47"/>
@@ -32900,7 +32908,7 @@
       <c r="BI269" s="158"/>
       <c r="BJ269" s="158"/>
     </row>
-    <row r="270" spans="1:62" ht="11.25" customHeight="1">
+    <row r="270" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="158"/>
       <c r="B270" s="23"/>
       <c r="C270" s="47"/>
@@ -32964,7 +32972,7 @@
       <c r="BI270" s="158"/>
       <c r="BJ270" s="158"/>
     </row>
-    <row r="271" spans="1:62" ht="11.25" customHeight="1">
+    <row r="271" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="158"/>
       <c r="B271" s="23"/>
       <c r="C271" s="47"/>
@@ -33028,7 +33036,7 @@
       <c r="BI271" s="158"/>
       <c r="BJ271" s="158"/>
     </row>
-    <row r="272" spans="1:62" ht="11.25" customHeight="1">
+    <row r="272" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="158"/>
       <c r="B272" s="23"/>
       <c r="C272" s="47"/>
@@ -33092,7 +33100,7 @@
       <c r="BI272" s="158"/>
       <c r="BJ272" s="158"/>
     </row>
-    <row r="273" spans="1:62" ht="11.25" customHeight="1">
+    <row r="273" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="158"/>
       <c r="B273" s="23"/>
       <c r="C273" s="47"/>
@@ -33156,7 +33164,7 @@
       <c r="BI273" s="158"/>
       <c r="BJ273" s="158"/>
     </row>
-    <row r="274" spans="1:62" ht="11.25" customHeight="1">
+    <row r="274" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="158"/>
       <c r="B274" s="23"/>
       <c r="C274" s="47"/>
@@ -33220,7 +33228,7 @@
       <c r="BI274" s="158"/>
       <c r="BJ274" s="158"/>
     </row>
-    <row r="275" spans="1:62" ht="11.25" customHeight="1">
+    <row r="275" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="158"/>
       <c r="B275" s="23"/>
       <c r="C275" s="47"/>
@@ -33284,7 +33292,7 @@
       <c r="BI275" s="158"/>
       <c r="BJ275" s="158"/>
     </row>
-    <row r="276" spans="1:62" ht="11.25" customHeight="1">
+    <row r="276" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="158"/>
       <c r="B276" s="23"/>
       <c r="C276" s="47"/>
@@ -33348,7 +33356,7 @@
       <c r="BI276" s="158"/>
       <c r="BJ276" s="158"/>
     </row>
-    <row r="277" spans="1:62" ht="11.25" customHeight="1">
+    <row r="277" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="158"/>
       <c r="B277" s="23"/>
       <c r="C277" s="47"/>
@@ -33412,7 +33420,7 @@
       <c r="BI277" s="158"/>
       <c r="BJ277" s="158"/>
     </row>
-    <row r="278" spans="1:62" ht="11.25" customHeight="1">
+    <row r="278" spans="1:62" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="158"/>
       <c r="B278" s="159"/>
       <c r="C278" s="159"/>
@@ -33475,7 +33483,7 @@
       <c r="BI278" s="159"/>
       <c r="BJ278" s="159"/>
     </row>
-    <row r="279" spans="1:62" ht="15.75" customHeight="1">
+    <row r="279" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="159"/>
       <c r="B279" s="159"/>
       <c r="C279" s="159"/>
@@ -33538,7 +33546,7 @@
       <c r="BI279" s="159"/>
       <c r="BJ279" s="159"/>
     </row>
-    <row r="280" spans="1:62" ht="15.75" customHeight="1">
+    <row r="280" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="159"/>
       <c r="B280" s="159"/>
       <c r="C280" s="159"/>
@@ -33601,7 +33609,7 @@
       <c r="BI280" s="159"/>
       <c r="BJ280" s="159"/>
     </row>
-    <row r="281" spans="1:62" ht="15.75" customHeight="1">
+    <row r="281" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="159"/>
       <c r="B281" s="159"/>
       <c r="C281" s="159"/>
@@ -33664,7 +33672,7 @@
       <c r="BI281" s="159"/>
       <c r="BJ281" s="159"/>
     </row>
-    <row r="282" spans="1:62" ht="15.75" customHeight="1">
+    <row r="282" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="159"/>
       <c r="B282" s="159"/>
       <c r="C282" s="159"/>
@@ -33727,7 +33735,7 @@
       <c r="BI282" s="159"/>
       <c r="BJ282" s="159"/>
     </row>
-    <row r="283" spans="1:62" ht="15.75" customHeight="1">
+    <row r="283" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="159"/>
       <c r="B283" s="159"/>
       <c r="C283" s="159"/>
@@ -33790,7 +33798,7 @@
       <c r="BI283" s="159"/>
       <c r="BJ283" s="159"/>
     </row>
-    <row r="284" spans="1:62" ht="15.75" customHeight="1">
+    <row r="284" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="159"/>
       <c r="B284" s="159"/>
       <c r="C284" s="159"/>
@@ -33853,7 +33861,7 @@
       <c r="BI284" s="159"/>
       <c r="BJ284" s="159"/>
     </row>
-    <row r="285" spans="1:62" ht="15.75" customHeight="1">
+    <row r="285" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="159"/>
       <c r="B285" s="159"/>
       <c r="C285" s="159"/>
@@ -33916,7 +33924,7 @@
       <c r="BI285" s="159"/>
       <c r="BJ285" s="159"/>
     </row>
-    <row r="286" spans="1:62" ht="15.75" customHeight="1">
+    <row r="286" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="159"/>
       <c r="B286" s="159"/>
       <c r="C286" s="159"/>
@@ -33979,7 +33987,7 @@
       <c r="BI286" s="159"/>
       <c r="BJ286" s="159"/>
     </row>
-    <row r="287" spans="1:62" ht="15.75" customHeight="1">
+    <row r="287" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="159"/>
       <c r="B287" s="159"/>
       <c r="C287" s="159"/>
@@ -34042,7 +34050,7 @@
       <c r="BI287" s="159"/>
       <c r="BJ287" s="159"/>
     </row>
-    <row r="288" spans="1:62" ht="15.75" customHeight="1">
+    <row r="288" spans="1:62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="159"/>
       <c r="B288" s="159"/>
       <c r="C288" s="159"/>
@@ -34105,3738 +34113,3721 @@
       <c r="BI288" s="159"/>
       <c r="BJ288" s="159"/>
     </row>
-    <row r="289" spans="42:44" ht="15.75" customHeight="1">
+    <row r="289" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP289" s="81"/>
       <c r="AQ289" s="91"/>
       <c r="AR289" s="81"/>
     </row>
-    <row r="290" spans="42:44" ht="15.75" customHeight="1">
+    <row r="290" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP290" s="81"/>
       <c r="AQ290" s="91"/>
       <c r="AR290" s="81"/>
     </row>
-    <row r="291" spans="42:44" ht="15.75" customHeight="1">
+    <row r="291" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP291" s="81"/>
       <c r="AQ291" s="91"/>
       <c r="AR291" s="81"/>
     </row>
-    <row r="292" spans="42:44" ht="15.75" customHeight="1">
+    <row r="292" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP292" s="81"/>
       <c r="AQ292" s="91"/>
       <c r="AR292" s="81"/>
     </row>
-    <row r="293" spans="42:44" ht="15.75" customHeight="1">
+    <row r="293" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP293" s="81"/>
       <c r="AQ293" s="91"/>
       <c r="AR293" s="81"/>
     </row>
-    <row r="294" spans="42:44" ht="15.75" customHeight="1">
+    <row r="294" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP294" s="81"/>
       <c r="AQ294" s="91"/>
       <c r="AR294" s="81"/>
     </row>
-    <row r="295" spans="42:44" ht="15.75" customHeight="1">
+    <row r="295" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP295" s="81"/>
       <c r="AQ295" s="91"/>
       <c r="AR295" s="81"/>
     </row>
-    <row r="296" spans="42:44" ht="15.75" customHeight="1">
+    <row r="296" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP296" s="81"/>
       <c r="AQ296" s="91"/>
       <c r="AR296" s="81"/>
     </row>
-    <row r="297" spans="42:44" ht="15.75" customHeight="1">
+    <row r="297" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP297" s="81"/>
       <c r="AQ297" s="91"/>
       <c r="AR297" s="81"/>
     </row>
-    <row r="298" spans="42:44" ht="15.75" customHeight="1">
+    <row r="298" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP298" s="81"/>
       <c r="AQ298" s="91"/>
       <c r="AR298" s="81"/>
     </row>
-    <row r="299" spans="42:44" ht="15.75" customHeight="1">
+    <row r="299" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP299" s="81"/>
       <c r="AQ299" s="91"/>
       <c r="AR299" s="81"/>
     </row>
-    <row r="300" spans="42:44" ht="15.75" customHeight="1">
+    <row r="300" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP300" s="81"/>
       <c r="AQ300" s="91"/>
       <c r="AR300" s="81"/>
     </row>
-    <row r="301" spans="42:44" ht="15.75" customHeight="1">
+    <row r="301" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP301" s="81"/>
       <c r="AQ301" s="91"/>
       <c r="AR301" s="81"/>
     </row>
-    <row r="302" spans="42:44" ht="15.75" customHeight="1">
+    <row r="302" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP302" s="81"/>
       <c r="AQ302" s="91"/>
       <c r="AR302" s="81"/>
     </row>
-    <row r="303" spans="42:44" ht="15.75" customHeight="1">
+    <row r="303" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP303" s="81"/>
       <c r="AQ303" s="91"/>
       <c r="AR303" s="81"/>
     </row>
-    <row r="304" spans="42:44" ht="15.75" customHeight="1">
+    <row r="304" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP304" s="81"/>
       <c r="AQ304" s="91"/>
       <c r="AR304" s="81"/>
     </row>
-    <row r="305" spans="42:44" ht="15.75" customHeight="1">
+    <row r="305" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP305" s="81"/>
       <c r="AQ305" s="91"/>
       <c r="AR305" s="81"/>
     </row>
-    <row r="306" spans="42:44" ht="15.75" customHeight="1">
+    <row r="306" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP306" s="81"/>
       <c r="AQ306" s="91"/>
       <c r="AR306" s="81"/>
     </row>
-    <row r="307" spans="42:44" ht="15.75" customHeight="1">
+    <row r="307" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP307" s="81"/>
       <c r="AQ307" s="91"/>
       <c r="AR307" s="81"/>
     </row>
-    <row r="308" spans="42:44" ht="15.75" customHeight="1">
+    <row r="308" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP308" s="81"/>
       <c r="AQ308" s="91"/>
       <c r="AR308" s="81"/>
     </row>
-    <row r="309" spans="42:44" ht="15.75" customHeight="1">
+    <row r="309" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP309" s="81"/>
       <c r="AQ309" s="91"/>
       <c r="AR309" s="81"/>
     </row>
-    <row r="310" spans="42:44" ht="15.75" customHeight="1">
+    <row r="310" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP310" s="81"/>
       <c r="AQ310" s="91"/>
       <c r="AR310" s="81"/>
     </row>
-    <row r="311" spans="42:44" ht="15.75" customHeight="1">
+    <row r="311" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP311" s="81"/>
       <c r="AQ311" s="91"/>
       <c r="AR311" s="81"/>
     </row>
-    <row r="312" spans="42:44" ht="15.75" customHeight="1">
+    <row r="312" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP312" s="81"/>
       <c r="AQ312" s="91"/>
       <c r="AR312" s="81"/>
     </row>
-    <row r="313" spans="42:44" ht="15.75" customHeight="1">
+    <row r="313" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP313" s="81"/>
       <c r="AQ313" s="91"/>
       <c r="AR313" s="81"/>
     </row>
-    <row r="314" spans="42:44" ht="15.75" customHeight="1">
+    <row r="314" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP314" s="81"/>
       <c r="AQ314" s="91"/>
       <c r="AR314" s="81"/>
     </row>
-    <row r="315" spans="42:44" ht="15.75" customHeight="1">
+    <row r="315" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP315" s="81"/>
       <c r="AQ315" s="91"/>
       <c r="AR315" s="81"/>
     </row>
-    <row r="316" spans="42:44" ht="15.75" customHeight="1">
+    <row r="316" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP316" s="81"/>
       <c r="AQ316" s="91"/>
       <c r="AR316" s="81"/>
     </row>
-    <row r="317" spans="42:44" ht="15.75" customHeight="1">
+    <row r="317" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP317" s="81"/>
       <c r="AQ317" s="91"/>
       <c r="AR317" s="81"/>
     </row>
-    <row r="318" spans="42:44" ht="15.75" customHeight="1">
+    <row r="318" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP318" s="81"/>
       <c r="AQ318" s="91"/>
       <c r="AR318" s="81"/>
     </row>
-    <row r="319" spans="42:44" ht="15.75" customHeight="1">
+    <row r="319" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP319" s="81"/>
       <c r="AQ319" s="91"/>
       <c r="AR319" s="81"/>
     </row>
-    <row r="320" spans="42:44" ht="15.75" customHeight="1">
+    <row r="320" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP320" s="81"/>
       <c r="AQ320" s="91"/>
       <c r="AR320" s="81"/>
     </row>
-    <row r="321" spans="42:44" ht="15.75" customHeight="1">
+    <row r="321" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP321" s="81"/>
       <c r="AQ321" s="91"/>
       <c r="AR321" s="81"/>
     </row>
-    <row r="322" spans="42:44" ht="15.75" customHeight="1">
+    <row r="322" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP322" s="81"/>
       <c r="AQ322" s="91"/>
       <c r="AR322" s="81"/>
     </row>
-    <row r="323" spans="42:44" ht="15.75" customHeight="1">
+    <row r="323" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP323" s="81"/>
       <c r="AQ323" s="91"/>
       <c r="AR323" s="81"/>
     </row>
-    <row r="324" spans="42:44" ht="15.75" customHeight="1">
+    <row r="324" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP324" s="81"/>
       <c r="AQ324" s="91"/>
       <c r="AR324" s="81"/>
     </row>
-    <row r="325" spans="42:44" ht="15.75" customHeight="1">
+    <row r="325" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP325" s="81"/>
       <c r="AQ325" s="91"/>
       <c r="AR325" s="81"/>
     </row>
-    <row r="326" spans="42:44" ht="15.75" customHeight="1">
+    <row r="326" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP326" s="81"/>
       <c r="AQ326" s="91"/>
       <c r="AR326" s="81"/>
     </row>
-    <row r="327" spans="42:44" ht="15.75" customHeight="1">
+    <row r="327" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP327" s="81"/>
       <c r="AQ327" s="91"/>
       <c r="AR327" s="81"/>
     </row>
-    <row r="328" spans="42:44" ht="15.75" customHeight="1">
+    <row r="328" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP328" s="81"/>
       <c r="AQ328" s="91"/>
       <c r="AR328" s="81"/>
     </row>
-    <row r="329" spans="42:44" ht="15.75" customHeight="1">
+    <row r="329" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP329" s="81"/>
       <c r="AQ329" s="91"/>
       <c r="AR329" s="81"/>
     </row>
-    <row r="330" spans="42:44" ht="15.75" customHeight="1">
+    <row r="330" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP330" s="81"/>
       <c r="AQ330" s="91"/>
       <c r="AR330" s="81"/>
     </row>
-    <row r="331" spans="42:44" ht="15.75" customHeight="1">
+    <row r="331" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP331" s="81"/>
       <c r="AQ331" s="91"/>
       <c r="AR331" s="81"/>
     </row>
-    <row r="332" spans="42:44" ht="15.75" customHeight="1">
+    <row r="332" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP332" s="81"/>
       <c r="AQ332" s="91"/>
       <c r="AR332" s="81"/>
     </row>
-    <row r="333" spans="42:44" ht="15.75" customHeight="1">
+    <row r="333" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP333" s="81"/>
       <c r="AQ333" s="91"/>
       <c r="AR333" s="81"/>
     </row>
-    <row r="334" spans="42:44" ht="15.75" customHeight="1">
+    <row r="334" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP334" s="81"/>
       <c r="AQ334" s="91"/>
       <c r="AR334" s="81"/>
     </row>
-    <row r="335" spans="42:44" ht="15.75" customHeight="1">
+    <row r="335" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP335" s="81"/>
       <c r="AQ335" s="91"/>
       <c r="AR335" s="81"/>
     </row>
-    <row r="336" spans="42:44" ht="15.75" customHeight="1">
+    <row r="336" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP336" s="81"/>
       <c r="AQ336" s="91"/>
       <c r="AR336" s="81"/>
     </row>
-    <row r="337" spans="42:44" ht="15.75" customHeight="1">
+    <row r="337" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP337" s="81"/>
       <c r="AQ337" s="91"/>
       <c r="AR337" s="81"/>
     </row>
-    <row r="338" spans="42:44" ht="15.75" customHeight="1">
+    <row r="338" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP338" s="81"/>
       <c r="AQ338" s="91"/>
       <c r="AR338" s="81"/>
     </row>
-    <row r="339" spans="42:44" ht="15.75" customHeight="1">
+    <row r="339" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP339" s="81"/>
       <c r="AQ339" s="91"/>
       <c r="AR339" s="81"/>
     </row>
-    <row r="340" spans="42:44" ht="15.75" customHeight="1">
+    <row r="340" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP340" s="81"/>
       <c r="AQ340" s="91"/>
       <c r="AR340" s="81"/>
     </row>
-    <row r="341" spans="42:44" ht="15.75" customHeight="1">
+    <row r="341" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP341" s="81"/>
       <c r="AQ341" s="91"/>
       <c r="AR341" s="81"/>
     </row>
-    <row r="342" spans="42:44" ht="15.75" customHeight="1">
+    <row r="342" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP342" s="81"/>
       <c r="AQ342" s="91"/>
       <c r="AR342" s="81"/>
     </row>
-    <row r="343" spans="42:44" ht="15.75" customHeight="1">
+    <row r="343" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP343" s="81"/>
       <c r="AQ343" s="91"/>
       <c r="AR343" s="81"/>
     </row>
-    <row r="344" spans="42:44" ht="15.75" customHeight="1">
+    <row r="344" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP344" s="81"/>
       <c r="AQ344" s="91"/>
       <c r="AR344" s="81"/>
     </row>
-    <row r="345" spans="42:44" ht="15.75" customHeight="1">
+    <row r="345" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP345" s="81"/>
       <c r="AQ345" s="91"/>
       <c r="AR345" s="81"/>
     </row>
-    <row r="346" spans="42:44" ht="15.75" customHeight="1">
+    <row r="346" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP346" s="81"/>
       <c r="AQ346" s="91"/>
       <c r="AR346" s="81"/>
     </row>
-    <row r="347" spans="42:44" ht="15.75" customHeight="1">
+    <row r="347" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP347" s="81"/>
       <c r="AQ347" s="91"/>
       <c r="AR347" s="81"/>
     </row>
-    <row r="348" spans="42:44" ht="15.75" customHeight="1">
+    <row r="348" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP348" s="81"/>
       <c r="AQ348" s="91"/>
       <c r="AR348" s="81"/>
     </row>
-    <row r="349" spans="42:44" ht="15.75" customHeight="1">
+    <row r="349" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP349" s="81"/>
       <c r="AQ349" s="91"/>
       <c r="AR349" s="81"/>
     </row>
-    <row r="350" spans="42:44" ht="15.75" customHeight="1">
+    <row r="350" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP350" s="81"/>
       <c r="AQ350" s="91"/>
       <c r="AR350" s="81"/>
     </row>
-    <row r="351" spans="42:44" ht="15.75" customHeight="1">
+    <row r="351" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP351" s="81"/>
       <c r="AQ351" s="91"/>
       <c r="AR351" s="81"/>
     </row>
-    <row r="352" spans="42:44" ht="15.75" customHeight="1">
+    <row r="352" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP352" s="81"/>
       <c r="AQ352" s="91"/>
       <c r="AR352" s="81"/>
     </row>
-    <row r="353" spans="42:44" ht="15.75" customHeight="1">
+    <row r="353" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP353" s="81"/>
       <c r="AQ353" s="91"/>
       <c r="AR353" s="81"/>
     </row>
-    <row r="354" spans="42:44" ht="15.75" customHeight="1">
+    <row r="354" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP354" s="81"/>
       <c r="AQ354" s="91"/>
       <c r="AR354" s="81"/>
     </row>
-    <row r="355" spans="42:44" ht="15.75" customHeight="1">
+    <row r="355" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP355" s="81"/>
       <c r="AQ355" s="91"/>
       <c r="AR355" s="81"/>
     </row>
-    <row r="356" spans="42:44" ht="15.75" customHeight="1">
+    <row r="356" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP356" s="81"/>
       <c r="AQ356" s="91"/>
       <c r="AR356" s="81"/>
     </row>
-    <row r="357" spans="42:44" ht="15.75" customHeight="1">
+    <row r="357" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP357" s="81"/>
       <c r="AQ357" s="91"/>
       <c r="AR357" s="81"/>
     </row>
-    <row r="358" spans="42:44" ht="15.75" customHeight="1">
+    <row r="358" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP358" s="81"/>
       <c r="AQ358" s="91"/>
       <c r="AR358" s="81"/>
     </row>
-    <row r="359" spans="42:44" ht="15.75" customHeight="1">
+    <row r="359" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP359" s="81"/>
       <c r="AQ359" s="91"/>
       <c r="AR359" s="81"/>
     </row>
-    <row r="360" spans="42:44" ht="15.75" customHeight="1">
+    <row r="360" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP360" s="81"/>
       <c r="AQ360" s="91"/>
       <c r="AR360" s="81"/>
     </row>
-    <row r="361" spans="42:44" ht="15.75" customHeight="1">
+    <row r="361" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP361" s="81"/>
       <c r="AQ361" s="91"/>
       <c r="AR361" s="81"/>
     </row>
-    <row r="362" spans="42:44" ht="15.75" customHeight="1">
+    <row r="362" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP362" s="81"/>
       <c r="AQ362" s="91"/>
       <c r="AR362" s="81"/>
     </row>
-    <row r="363" spans="42:44" ht="15.75" customHeight="1">
+    <row r="363" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP363" s="81"/>
       <c r="AQ363" s="91"/>
       <c r="AR363" s="81"/>
     </row>
-    <row r="364" spans="42:44" ht="15.75" customHeight="1">
+    <row r="364" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP364" s="81"/>
       <c r="AQ364" s="91"/>
       <c r="AR364" s="81"/>
     </row>
-    <row r="365" spans="42:44" ht="15.75" customHeight="1">
+    <row r="365" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP365" s="81"/>
       <c r="AQ365" s="91"/>
       <c r="AR365" s="81"/>
     </row>
-    <row r="366" spans="42:44" ht="15.75" customHeight="1">
+    <row r="366" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP366" s="81"/>
       <c r="AQ366" s="91"/>
       <c r="AR366" s="81"/>
     </row>
-    <row r="367" spans="42:44" ht="15.75" customHeight="1">
+    <row r="367" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP367" s="81"/>
       <c r="AQ367" s="91"/>
       <c r="AR367" s="81"/>
     </row>
-    <row r="368" spans="42:44" ht="15.75" customHeight="1">
+    <row r="368" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP368" s="81"/>
       <c r="AQ368" s="91"/>
       <c r="AR368" s="81"/>
     </row>
-    <row r="369" spans="42:44" ht="15.75" customHeight="1">
+    <row r="369" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP369" s="81"/>
       <c r="AQ369" s="91"/>
       <c r="AR369" s="81"/>
     </row>
-    <row r="370" spans="42:44" ht="15.75" customHeight="1">
+    <row r="370" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP370" s="81"/>
       <c r="AQ370" s="91"/>
       <c r="AR370" s="81"/>
     </row>
-    <row r="371" spans="42:44" ht="15.75" customHeight="1">
+    <row r="371" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP371" s="81"/>
       <c r="AQ371" s="91"/>
       <c r="AR371" s="81"/>
     </row>
-    <row r="372" spans="42:44" ht="15.75" customHeight="1">
+    <row r="372" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP372" s="81"/>
       <c r="AQ372" s="91"/>
       <c r="AR372" s="81"/>
     </row>
-    <row r="373" spans="42:44" ht="15.75" customHeight="1">
+    <row r="373" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP373" s="81"/>
       <c r="AQ373" s="91"/>
       <c r="AR373" s="81"/>
     </row>
-    <row r="374" spans="42:44" ht="15.75" customHeight="1">
+    <row r="374" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP374" s="81"/>
       <c r="AQ374" s="91"/>
       <c r="AR374" s="81"/>
     </row>
-    <row r="375" spans="42:44" ht="15.75" customHeight="1">
+    <row r="375" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP375" s="81"/>
       <c r="AQ375" s="91"/>
       <c r="AR375" s="81"/>
     </row>
-    <row r="376" spans="42:44" ht="15.75" customHeight="1">
+    <row r="376" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP376" s="81"/>
       <c r="AQ376" s="91"/>
       <c r="AR376" s="81"/>
     </row>
-    <row r="377" spans="42:44" ht="15.75" customHeight="1">
+    <row r="377" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP377" s="81"/>
       <c r="AQ377" s="91"/>
       <c r="AR377" s="81"/>
     </row>
-    <row r="378" spans="42:44" ht="15.75" customHeight="1">
+    <row r="378" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP378" s="81"/>
       <c r="AQ378" s="91"/>
       <c r="AR378" s="81"/>
     </row>
-    <row r="379" spans="42:44" ht="15.75" customHeight="1">
+    <row r="379" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP379" s="81"/>
       <c r="AQ379" s="91"/>
       <c r="AR379" s="81"/>
     </row>
-    <row r="380" spans="42:44" ht="15.75" customHeight="1">
+    <row r="380" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP380" s="81"/>
       <c r="AQ380" s="91"/>
       <c r="AR380" s="81"/>
     </row>
-    <row r="381" spans="42:44" ht="15.75" customHeight="1">
+    <row r="381" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP381" s="81"/>
       <c r="AQ381" s="91"/>
       <c r="AR381" s="81"/>
     </row>
-    <row r="382" spans="42:44" ht="15.75" customHeight="1">
+    <row r="382" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP382" s="81"/>
       <c r="AQ382" s="91"/>
       <c r="AR382" s="81"/>
     </row>
-    <row r="383" spans="42:44" ht="15.75" customHeight="1">
+    <row r="383" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP383" s="81"/>
       <c r="AQ383" s="91"/>
       <c r="AR383" s="81"/>
     </row>
-    <row r="384" spans="42:44" ht="15.75" customHeight="1">
+    <row r="384" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP384" s="81"/>
       <c r="AQ384" s="91"/>
       <c r="AR384" s="81"/>
     </row>
-    <row r="385" spans="42:44" ht="15.75" customHeight="1">
+    <row r="385" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP385" s="81"/>
       <c r="AQ385" s="91"/>
       <c r="AR385" s="81"/>
     </row>
-    <row r="386" spans="42:44" ht="15.75" customHeight="1">
+    <row r="386" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP386" s="81"/>
       <c r="AQ386" s="91"/>
       <c r="AR386" s="81"/>
     </row>
-    <row r="387" spans="42:44" ht="15.75" customHeight="1">
+    <row r="387" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP387" s="81"/>
       <c r="AQ387" s="91"/>
       <c r="AR387" s="81"/>
     </row>
-    <row r="388" spans="42:44" ht="15.75" customHeight="1">
+    <row r="388" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP388" s="81"/>
       <c r="AQ388" s="91"/>
       <c r="AR388" s="81"/>
     </row>
-    <row r="389" spans="42:44" ht="15.75" customHeight="1">
+    <row r="389" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP389" s="81"/>
       <c r="AQ389" s="91"/>
       <c r="AR389" s="81"/>
     </row>
-    <row r="390" spans="42:44" ht="15.75" customHeight="1">
+    <row r="390" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP390" s="81"/>
       <c r="AQ390" s="91"/>
       <c r="AR390" s="81"/>
     </row>
-    <row r="391" spans="42:44" ht="15.75" customHeight="1">
+    <row r="391" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP391" s="81"/>
       <c r="AQ391" s="91"/>
       <c r="AR391" s="81"/>
     </row>
-    <row r="392" spans="42:44" ht="15.75" customHeight="1">
+    <row r="392" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP392" s="81"/>
       <c r="AQ392" s="91"/>
       <c r="AR392" s="81"/>
     </row>
-    <row r="393" spans="42:44" ht="15.75" customHeight="1">
+    <row r="393" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP393" s="81"/>
       <c r="AQ393" s="91"/>
       <c r="AR393" s="81"/>
     </row>
-    <row r="394" spans="42:44" ht="15.75" customHeight="1">
+    <row r="394" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP394" s="81"/>
       <c r="AQ394" s="91"/>
       <c r="AR394" s="81"/>
     </row>
-    <row r="395" spans="42:44" ht="15.75" customHeight="1">
+    <row r="395" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP395" s="81"/>
       <c r="AQ395" s="91"/>
       <c r="AR395" s="81"/>
     </row>
-    <row r="396" spans="42:44" ht="15.75" customHeight="1">
+    <row r="396" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP396" s="81"/>
       <c r="AQ396" s="91"/>
       <c r="AR396" s="81"/>
     </row>
-    <row r="397" spans="42:44" ht="15.75" customHeight="1">
+    <row r="397" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP397" s="81"/>
       <c r="AQ397" s="91"/>
       <c r="AR397" s="81"/>
     </row>
-    <row r="398" spans="42:44" ht="15.75" customHeight="1">
+    <row r="398" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP398" s="81"/>
       <c r="AQ398" s="91"/>
       <c r="AR398" s="81"/>
     </row>
-    <row r="399" spans="42:44" ht="15.75" customHeight="1">
+    <row r="399" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP399" s="81"/>
       <c r="AQ399" s="91"/>
       <c r="AR399" s="81"/>
     </row>
-    <row r="400" spans="42:44" ht="15.75" customHeight="1">
+    <row r="400" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP400" s="81"/>
       <c r="AQ400" s="91"/>
       <c r="AR400" s="81"/>
     </row>
-    <row r="401" spans="42:44" ht="15.75" customHeight="1">
+    <row r="401" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP401" s="81"/>
       <c r="AQ401" s="91"/>
       <c r="AR401" s="81"/>
     </row>
-    <row r="402" spans="42:44" ht="15.75" customHeight="1">
+    <row r="402" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP402" s="81"/>
       <c r="AQ402" s="91"/>
       <c r="AR402" s="81"/>
     </row>
-    <row r="403" spans="42:44" ht="15.75" customHeight="1">
+    <row r="403" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP403" s="81"/>
       <c r="AQ403" s="91"/>
       <c r="AR403" s="81"/>
     </row>
-    <row r="404" spans="42:44" ht="15.75" customHeight="1">
+    <row r="404" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP404" s="81"/>
       <c r="AQ404" s="91"/>
       <c r="AR404" s="81"/>
     </row>
-    <row r="405" spans="42:44" ht="15.75" customHeight="1">
+    <row r="405" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP405" s="81"/>
       <c r="AQ405" s="91"/>
       <c r="AR405" s="81"/>
     </row>
-    <row r="406" spans="42:44" ht="15.75" customHeight="1">
+    <row r="406" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP406" s="81"/>
       <c r="AQ406" s="91"/>
       <c r="AR406" s="81"/>
     </row>
-    <row r="407" spans="42:44" ht="15.75" customHeight="1">
+    <row r="407" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP407" s="81"/>
       <c r="AQ407" s="91"/>
       <c r="AR407" s="81"/>
     </row>
-    <row r="408" spans="42:44" ht="15.75" customHeight="1">
+    <row r="408" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP408" s="81"/>
       <c r="AQ408" s="91"/>
       <c r="AR408" s="81"/>
     </row>
-    <row r="409" spans="42:44" ht="15.75" customHeight="1">
+    <row r="409" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP409" s="81"/>
       <c r="AQ409" s="91"/>
       <c r="AR409" s="81"/>
     </row>
-    <row r="410" spans="42:44" ht="15.75" customHeight="1">
+    <row r="410" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP410" s="81"/>
       <c r="AQ410" s="91"/>
       <c r="AR410" s="81"/>
     </row>
-    <row r="411" spans="42:44" ht="15.75" customHeight="1">
+    <row r="411" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP411" s="81"/>
       <c r="AQ411" s="91"/>
       <c r="AR411" s="81"/>
     </row>
-    <row r="412" spans="42:44" ht="15.75" customHeight="1">
+    <row r="412" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP412" s="81"/>
       <c r="AQ412" s="91"/>
       <c r="AR412" s="81"/>
     </row>
-    <row r="413" spans="42:44" ht="15.75" customHeight="1">
+    <row r="413" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP413" s="81"/>
       <c r="AQ413" s="91"/>
       <c r="AR413" s="81"/>
     </row>
-    <row r="414" spans="42:44" ht="15.75" customHeight="1">
+    <row r="414" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP414" s="81"/>
       <c r="AQ414" s="91"/>
       <c r="AR414" s="81"/>
     </row>
-    <row r="415" spans="42:44" ht="15.75" customHeight="1">
+    <row r="415" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP415" s="81"/>
       <c r="AQ415" s="91"/>
       <c r="AR415" s="81"/>
     </row>
-    <row r="416" spans="42:44" ht="15.75" customHeight="1">
+    <row r="416" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP416" s="81"/>
       <c r="AQ416" s="91"/>
       <c r="AR416" s="81"/>
     </row>
-    <row r="417" spans="42:44" ht="15.75" customHeight="1">
+    <row r="417" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP417" s="81"/>
       <c r="AQ417" s="91"/>
       <c r="AR417" s="81"/>
     </row>
-    <row r="418" spans="42:44" ht="15.75" customHeight="1">
+    <row r="418" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP418" s="81"/>
       <c r="AQ418" s="91"/>
       <c r="AR418" s="81"/>
     </row>
-    <row r="419" spans="42:44" ht="15.75" customHeight="1">
+    <row r="419" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP419" s="81"/>
       <c r="AQ419" s="91"/>
       <c r="AR419" s="81"/>
     </row>
-    <row r="420" spans="42:44" ht="15.75" customHeight="1">
+    <row r="420" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP420" s="81"/>
       <c r="AQ420" s="91"/>
       <c r="AR420" s="81"/>
     </row>
-    <row r="421" spans="42:44" ht="15.75" customHeight="1">
+    <row r="421" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP421" s="81"/>
       <c r="AQ421" s="91"/>
       <c r="AR421" s="81"/>
     </row>
-    <row r="422" spans="42:44" ht="15.75" customHeight="1">
+    <row r="422" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP422" s="81"/>
       <c r="AQ422" s="91"/>
       <c r="AR422" s="81"/>
     </row>
-    <row r="423" spans="42:44" ht="15.75" customHeight="1">
+    <row r="423" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP423" s="81"/>
       <c r="AQ423" s="91"/>
       <c r="AR423" s="81"/>
     </row>
-    <row r="424" spans="42:44" ht="15.75" customHeight="1">
+    <row r="424" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP424" s="81"/>
       <c r="AQ424" s="91"/>
       <c r="AR424" s="81"/>
     </row>
-    <row r="425" spans="42:44" ht="15.75" customHeight="1">
+    <row r="425" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP425" s="81"/>
       <c r="AQ425" s="91"/>
       <c r="AR425" s="81"/>
     </row>
-    <row r="426" spans="42:44" ht="15.75" customHeight="1">
+    <row r="426" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP426" s="81"/>
       <c r="AQ426" s="91"/>
       <c r="AR426" s="81"/>
     </row>
-    <row r="427" spans="42:44" ht="15.75" customHeight="1">
+    <row r="427" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP427" s="81"/>
       <c r="AQ427" s="91"/>
       <c r="AR427" s="81"/>
     </row>
-    <row r="428" spans="42:44" ht="15.75" customHeight="1">
+    <row r="428" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP428" s="81"/>
       <c r="AQ428" s="91"/>
       <c r="AR428" s="81"/>
     </row>
-    <row r="429" spans="42:44" ht="15.75" customHeight="1">
+    <row r="429" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP429" s="81"/>
       <c r="AQ429" s="91"/>
       <c r="AR429" s="81"/>
     </row>
-    <row r="430" spans="42:44" ht="15.75" customHeight="1">
+    <row r="430" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP430" s="81"/>
       <c r="AQ430" s="91"/>
       <c r="AR430" s="81"/>
     </row>
-    <row r="431" spans="42:44" ht="15.75" customHeight="1">
+    <row r="431" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP431" s="81"/>
       <c r="AQ431" s="91"/>
       <c r="AR431" s="81"/>
     </row>
-    <row r="432" spans="42:44" ht="15.75" customHeight="1">
+    <row r="432" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP432" s="81"/>
       <c r="AQ432" s="91"/>
       <c r="AR432" s="81"/>
     </row>
-    <row r="433" spans="42:44" ht="15.75" customHeight="1">
+    <row r="433" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP433" s="81"/>
       <c r="AQ433" s="91"/>
       <c r="AR433" s="81"/>
     </row>
-    <row r="434" spans="42:44" ht="15.75" customHeight="1">
+    <row r="434" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP434" s="81"/>
       <c r="AQ434" s="91"/>
       <c r="AR434" s="81"/>
     </row>
-    <row r="435" spans="42:44" ht="15.75" customHeight="1">
+    <row r="435" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP435" s="81"/>
       <c r="AQ435" s="91"/>
       <c r="AR435" s="81"/>
     </row>
-    <row r="436" spans="42:44" ht="15.75" customHeight="1">
+    <row r="436" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP436" s="81"/>
       <c r="AQ436" s="91"/>
       <c r="AR436" s="81"/>
     </row>
-    <row r="437" spans="42:44" ht="15.75" customHeight="1">
+    <row r="437" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP437" s="81"/>
       <c r="AQ437" s="91"/>
       <c r="AR437" s="81"/>
     </row>
-    <row r="438" spans="42:44" ht="15.75" customHeight="1">
+    <row r="438" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP438" s="81"/>
       <c r="AQ438" s="91"/>
       <c r="AR438" s="81"/>
     </row>
-    <row r="439" spans="42:44" ht="15.75" customHeight="1">
+    <row r="439" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP439" s="81"/>
       <c r="AQ439" s="91"/>
       <c r="AR439" s="81"/>
     </row>
-    <row r="440" spans="42:44" ht="15.75" customHeight="1">
+    <row r="440" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP440" s="81"/>
       <c r="AQ440" s="91"/>
       <c r="AR440" s="81"/>
     </row>
-    <row r="441" spans="42:44" ht="15.75" customHeight="1">
+    <row r="441" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP441" s="81"/>
       <c r="AQ441" s="91"/>
       <c r="AR441" s="81"/>
     </row>
-    <row r="442" spans="42:44" ht="15.75" customHeight="1">
+    <row r="442" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP442" s="81"/>
       <c r="AQ442" s="91"/>
       <c r="AR442" s="81"/>
     </row>
-    <row r="443" spans="42:44" ht="15.75" customHeight="1">
+    <row r="443" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP443" s="81"/>
       <c r="AQ443" s="91"/>
       <c r="AR443" s="81"/>
     </row>
-    <row r="444" spans="42:44" ht="15.75" customHeight="1">
+    <row r="444" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP444" s="81"/>
       <c r="AQ444" s="91"/>
       <c r="AR444" s="81"/>
     </row>
-    <row r="445" spans="42:44" ht="15.75" customHeight="1">
+    <row r="445" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP445" s="81"/>
       <c r="AQ445" s="91"/>
       <c r="AR445" s="81"/>
     </row>
-    <row r="446" spans="42:44" ht="15.75" customHeight="1">
+    <row r="446" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP446" s="81"/>
       <c r="AQ446" s="91"/>
       <c r="AR446" s="81"/>
     </row>
-    <row r="447" spans="42:44" ht="15.75" customHeight="1">
+    <row r="447" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP447" s="81"/>
       <c r="AQ447" s="91"/>
       <c r="AR447" s="81"/>
     </row>
-    <row r="448" spans="42:44" ht="15.75" customHeight="1">
+    <row r="448" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP448" s="81"/>
       <c r="AQ448" s="91"/>
       <c r="AR448" s="81"/>
     </row>
-    <row r="449" spans="42:44" ht="15.75" customHeight="1">
+    <row r="449" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP449" s="81"/>
       <c r="AQ449" s="91"/>
       <c r="AR449" s="81"/>
     </row>
-    <row r="450" spans="42:44" ht="15.75" customHeight="1">
+    <row r="450" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP450" s="81"/>
       <c r="AQ450" s="91"/>
       <c r="AR450" s="81"/>
     </row>
-    <row r="451" spans="42:44" ht="15.75" customHeight="1">
+    <row r="451" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP451" s="81"/>
       <c r="AQ451" s="91"/>
       <c r="AR451" s="81"/>
     </row>
-    <row r="452" spans="42:44" ht="15.75" customHeight="1">
+    <row r="452" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP452" s="81"/>
       <c r="AQ452" s="91"/>
       <c r="AR452" s="81"/>
     </row>
-    <row r="453" spans="42:44" ht="15.75" customHeight="1">
+    <row r="453" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP453" s="81"/>
       <c r="AQ453" s="91"/>
       <c r="AR453" s="81"/>
     </row>
-    <row r="454" spans="42:44" ht="15.75" customHeight="1">
+    <row r="454" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP454" s="81"/>
       <c r="AQ454" s="91"/>
       <c r="AR454" s="81"/>
     </row>
-    <row r="455" spans="42:44" ht="15.75" customHeight="1">
+    <row r="455" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP455" s="81"/>
       <c r="AQ455" s="91"/>
       <c r="AR455" s="81"/>
     </row>
-    <row r="456" spans="42:44" ht="15.75" customHeight="1">
+    <row r="456" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP456" s="81"/>
       <c r="AQ456" s="91"/>
       <c r="AR456" s="81"/>
     </row>
-    <row r="457" spans="42:44" ht="15.75" customHeight="1">
+    <row r="457" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP457" s="81"/>
       <c r="AQ457" s="91"/>
       <c r="AR457" s="81"/>
     </row>
-    <row r="458" spans="42:44" ht="15.75" customHeight="1">
+    <row r="458" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP458" s="81"/>
       <c r="AQ458" s="91"/>
       <c r="AR458" s="81"/>
     </row>
-    <row r="459" spans="42:44" ht="15.75" customHeight="1">
+    <row r="459" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP459" s="81"/>
       <c r="AQ459" s="91"/>
       <c r="AR459" s="81"/>
     </row>
-    <row r="460" spans="42:44" ht="15.75" customHeight="1">
+    <row r="460" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP460" s="81"/>
       <c r="AQ460" s="91"/>
       <c r="AR460" s="81"/>
     </row>
-    <row r="461" spans="42:44" ht="15.75" customHeight="1">
+    <row r="461" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP461" s="81"/>
       <c r="AQ461" s="91"/>
       <c r="AR461" s="81"/>
     </row>
-    <row r="462" spans="42:44" ht="15.75" customHeight="1">
+    <row r="462" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP462" s="81"/>
       <c r="AQ462" s="91"/>
       <c r="AR462" s="81"/>
     </row>
-    <row r="463" spans="42:44" ht="15.75" customHeight="1">
+    <row r="463" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP463" s="81"/>
       <c r="AQ463" s="91"/>
       <c r="AR463" s="81"/>
     </row>
-    <row r="464" spans="42:44" ht="15.75" customHeight="1">
+    <row r="464" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP464" s="81"/>
       <c r="AQ464" s="91"/>
       <c r="AR464" s="81"/>
     </row>
-    <row r="465" spans="42:44" ht="15.75" customHeight="1">
+    <row r="465" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP465" s="81"/>
       <c r="AQ465" s="91"/>
       <c r="AR465" s="81"/>
     </row>
-    <row r="466" spans="42:44" ht="15.75" customHeight="1">
+    <row r="466" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP466" s="81"/>
       <c r="AQ466" s="91"/>
       <c r="AR466" s="81"/>
     </row>
-    <row r="467" spans="42:44" ht="15.75" customHeight="1">
+    <row r="467" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP467" s="81"/>
       <c r="AQ467" s="91"/>
       <c r="AR467" s="81"/>
     </row>
-    <row r="468" spans="42:44" ht="15.75" customHeight="1">
+    <row r="468" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP468" s="81"/>
       <c r="AQ468" s="91"/>
       <c r="AR468" s="81"/>
     </row>
-    <row r="469" spans="42:44" ht="15.75" customHeight="1">
+    <row r="469" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP469" s="81"/>
       <c r="AQ469" s="91"/>
       <c r="AR469" s="81"/>
     </row>
-    <row r="470" spans="42:44" ht="15.75" customHeight="1">
+    <row r="470" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP470" s="81"/>
       <c r="AQ470" s="91"/>
       <c r="AR470" s="81"/>
     </row>
-    <row r="471" spans="42:44" ht="15.75" customHeight="1">
+    <row r="471" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP471" s="81"/>
       <c r="AQ471" s="91"/>
       <c r="AR471" s="81"/>
     </row>
-    <row r="472" spans="42:44" ht="15.75" customHeight="1">
+    <row r="472" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP472" s="81"/>
       <c r="AQ472" s="91"/>
       <c r="AR472" s="81"/>
     </row>
-    <row r="473" spans="42:44" ht="15.75" customHeight="1">
+    <row r="473" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP473" s="81"/>
       <c r="AQ473" s="91"/>
       <c r="AR473" s="81"/>
     </row>
-    <row r="474" spans="42:44" ht="15.75" customHeight="1">
+    <row r="474" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP474" s="81"/>
       <c r="AQ474" s="91"/>
       <c r="AR474" s="81"/>
     </row>
-    <row r="475" spans="42:44" ht="15.75" customHeight="1">
+    <row r="475" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP475" s="81"/>
       <c r="AQ475" s="91"/>
       <c r="AR475" s="81"/>
     </row>
-    <row r="476" spans="42:44" ht="15.75" customHeight="1">
+    <row r="476" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP476" s="81"/>
       <c r="AQ476" s="91"/>
       <c r="AR476" s="81"/>
     </row>
-    <row r="477" spans="42:44" ht="15.75" customHeight="1">
+    <row r="477" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP477" s="81"/>
       <c r="AQ477" s="91"/>
       <c r="AR477" s="81"/>
     </row>
-    <row r="478" spans="42:44" ht="15.75" customHeight="1">
+    <row r="478" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP478" s="81"/>
       <c r="AQ478" s="91"/>
       <c r="AR478" s="81"/>
     </row>
-    <row r="479" spans="42:44" ht="15.75" customHeight="1">
+    <row r="479" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP479" s="81"/>
       <c r="AQ479" s="91"/>
       <c r="AR479" s="81"/>
     </row>
-    <row r="480" spans="42:44" ht="15.75" customHeight="1">
+    <row r="480" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP480" s="81"/>
       <c r="AQ480" s="91"/>
       <c r="AR480" s="81"/>
     </row>
-    <row r="481" spans="42:44" ht="15.75" customHeight="1">
+    <row r="481" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP481" s="81"/>
       <c r="AQ481" s="91"/>
       <c r="AR481" s="81"/>
     </row>
-    <row r="482" spans="42:44" ht="15.75" customHeight="1">
+    <row r="482" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP482" s="81"/>
       <c r="AQ482" s="91"/>
       <c r="AR482" s="81"/>
     </row>
-    <row r="483" spans="42:44" ht="15.75" customHeight="1">
+    <row r="483" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP483" s="81"/>
       <c r="AQ483" s="91"/>
       <c r="AR483" s="81"/>
     </row>
-    <row r="484" spans="42:44" ht="15.75" customHeight="1">
+    <row r="484" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP484" s="81"/>
       <c r="AQ484" s="91"/>
       <c r="AR484" s="81"/>
     </row>
-    <row r="485" spans="42:44" ht="15.75" customHeight="1">
+    <row r="485" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP485" s="81"/>
       <c r="AQ485" s="91"/>
       <c r="AR485" s="81"/>
     </row>
-    <row r="486" spans="42:44" ht="15.75" customHeight="1">
+    <row r="486" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP486" s="81"/>
       <c r="AQ486" s="91"/>
       <c r="AR486" s="81"/>
     </row>
-    <row r="487" spans="42:44" ht="15.75" customHeight="1">
+    <row r="487" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP487" s="81"/>
       <c r="AQ487" s="91"/>
       <c r="AR487" s="81"/>
     </row>
-    <row r="488" spans="42:44" ht="15.75" customHeight="1">
+    <row r="488" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP488" s="81"/>
       <c r="AQ488" s="91"/>
       <c r="AR488" s="81"/>
     </row>
-    <row r="489" spans="42:44" ht="15.75" customHeight="1">
+    <row r="489" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP489" s="81"/>
       <c r="AQ489" s="91"/>
       <c r="AR489" s="81"/>
     </row>
-    <row r="490" spans="42:44" ht="15.75" customHeight="1">
+    <row r="490" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP490" s="81"/>
       <c r="AQ490" s="91"/>
       <c r="AR490" s="81"/>
     </row>
-    <row r="491" spans="42:44" ht="15.75" customHeight="1">
+    <row r="491" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP491" s="81"/>
       <c r="AQ491" s="91"/>
       <c r="AR491" s="81"/>
     </row>
-    <row r="492" spans="42:44" ht="15.75" customHeight="1">
+    <row r="492" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP492" s="81"/>
       <c r="AQ492" s="91"/>
       <c r="AR492" s="81"/>
     </row>
-    <row r="493" spans="42:44" ht="15.75" customHeight="1">
+    <row r="493" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP493" s="81"/>
       <c r="AQ493" s="91"/>
       <c r="AR493" s="81"/>
     </row>
-    <row r="494" spans="42:44" ht="15.75" customHeight="1">
+    <row r="494" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP494" s="81"/>
       <c r="AQ494" s="91"/>
       <c r="AR494" s="81"/>
     </row>
-    <row r="495" spans="42:44" ht="15.75" customHeight="1">
+    <row r="495" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP495" s="81"/>
       <c r="AQ495" s="91"/>
       <c r="AR495" s="81"/>
     </row>
-    <row r="496" spans="42:44" ht="15.75" customHeight="1">
+    <row r="496" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP496" s="81"/>
       <c r="AQ496" s="91"/>
       <c r="AR496" s="81"/>
     </row>
-    <row r="497" spans="42:44" ht="15.75" customHeight="1">
+    <row r="497" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP497" s="81"/>
       <c r="AQ497" s="91"/>
       <c r="AR497" s="81"/>
     </row>
-    <row r="498" spans="42:44" ht="15.75" customHeight="1">
+    <row r="498" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP498" s="81"/>
       <c r="AQ498" s="91"/>
       <c r="AR498" s="81"/>
     </row>
-    <row r="499" spans="42:44" ht="15.75" customHeight="1">
+    <row r="499" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP499" s="81"/>
       <c r="AQ499" s="91"/>
       <c r="AR499" s="81"/>
     </row>
-    <row r="500" spans="42:44" ht="15.75" customHeight="1">
+    <row r="500" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP500" s="81"/>
       <c r="AQ500" s="91"/>
       <c r="AR500" s="81"/>
     </row>
-    <row r="501" spans="42:44" ht="15.75" customHeight="1">
+    <row r="501" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP501" s="81"/>
       <c r="AQ501" s="91"/>
       <c r="AR501" s="81"/>
     </row>
-    <row r="502" spans="42:44" ht="15.75" customHeight="1">
+    <row r="502" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP502" s="81"/>
       <c r="AQ502" s="91"/>
       <c r="AR502" s="81"/>
     </row>
-    <row r="503" spans="42:44" ht="15.75" customHeight="1">
+    <row r="503" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP503" s="81"/>
       <c r="AQ503" s="91"/>
       <c r="AR503" s="81"/>
     </row>
-    <row r="504" spans="42:44" ht="15.75" customHeight="1">
+    <row r="504" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP504" s="81"/>
       <c r="AQ504" s="91"/>
       <c r="AR504" s="81"/>
     </row>
-    <row r="505" spans="42:44" ht="15.75" customHeight="1">
+    <row r="505" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP505" s="81"/>
       <c r="AQ505" s="91"/>
       <c r="AR505" s="81"/>
     </row>
-    <row r="506" spans="42:44" ht="15.75" customHeight="1">
+    <row r="506" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP506" s="81"/>
       <c r="AQ506" s="91"/>
       <c r="AR506" s="81"/>
     </row>
-    <row r="507" spans="42:44" ht="15.75" customHeight="1">
+    <row r="507" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP507" s="81"/>
       <c r="AQ507" s="91"/>
       <c r="AR507" s="81"/>
     </row>
-    <row r="508" spans="42:44" ht="15.75" customHeight="1">
+    <row r="508" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP508" s="81"/>
       <c r="AQ508" s="91"/>
       <c r="AR508" s="81"/>
     </row>
-    <row r="509" spans="42:44" ht="15.75" customHeight="1">
+    <row r="509" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP509" s="81"/>
       <c r="AQ509" s="91"/>
       <c r="AR509" s="81"/>
     </row>
-    <row r="510" spans="42:44" ht="15.75" customHeight="1">
+    <row r="510" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP510" s="81"/>
       <c r="AQ510" s="91"/>
       <c r="AR510" s="81"/>
     </row>
-    <row r="511" spans="42:44" ht="15.75" customHeight="1">
+    <row r="511" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP511" s="81"/>
       <c r="AQ511" s="91"/>
       <c r="AR511" s="81"/>
     </row>
-    <row r="512" spans="42:44" ht="15.75" customHeight="1">
+    <row r="512" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP512" s="81"/>
       <c r="AQ512" s="91"/>
       <c r="AR512" s="81"/>
     </row>
-    <row r="513" spans="42:44" ht="15.75" customHeight="1">
+    <row r="513" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP513" s="81"/>
       <c r="AQ513" s="91"/>
       <c r="AR513" s="81"/>
     </row>
-    <row r="514" spans="42:44" ht="15.75" customHeight="1">
+    <row r="514" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP514" s="81"/>
       <c r="AQ514" s="91"/>
       <c r="AR514" s="81"/>
     </row>
-    <row r="515" spans="42:44" ht="15.75" customHeight="1">
+    <row r="515" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP515" s="81"/>
       <c r="AQ515" s="91"/>
       <c r="AR515" s="81"/>
     </row>
-    <row r="516" spans="42:44" ht="15.75" customHeight="1">
+    <row r="516" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP516" s="81"/>
       <c r="AQ516" s="91"/>
       <c r="AR516" s="81"/>
     </row>
-    <row r="517" spans="42:44" ht="15.75" customHeight="1">
+    <row r="517" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP517" s="81"/>
       <c r="AQ517" s="91"/>
       <c r="AR517" s="81"/>
     </row>
-    <row r="518" spans="42:44" ht="15.75" customHeight="1">
+    <row r="518" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP518" s="81"/>
       <c r="AQ518" s="91"/>
       <c r="AR518" s="81"/>
     </row>
-    <row r="519" spans="42:44" ht="15.75" customHeight="1">
+    <row r="519" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP519" s="81"/>
       <c r="AQ519" s="91"/>
       <c r="AR519" s="81"/>
     </row>
-    <row r="520" spans="42:44" ht="15.75" customHeight="1">
+    <row r="520" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP520" s="81"/>
       <c r="AQ520" s="91"/>
       <c r="AR520" s="81"/>
     </row>
-    <row r="521" spans="42:44" ht="15.75" customHeight="1">
+    <row r="521" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP521" s="81"/>
       <c r="AQ521" s="91"/>
       <c r="AR521" s="81"/>
     </row>
-    <row r="522" spans="42:44" ht="15.75" customHeight="1">
+    <row r="522" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP522" s="81"/>
       <c r="AQ522" s="91"/>
       <c r="AR522" s="81"/>
     </row>
-    <row r="523" spans="42:44" ht="15.75" customHeight="1">
+    <row r="523" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP523" s="81"/>
       <c r="AQ523" s="91"/>
       <c r="AR523" s="81"/>
     </row>
-    <row r="524" spans="42:44" ht="15.75" customHeight="1">
+    <row r="524" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP524" s="81"/>
       <c r="AQ524" s="91"/>
       <c r="AR524" s="81"/>
     </row>
-    <row r="525" spans="42:44" ht="15.75" customHeight="1">
+    <row r="525" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP525" s="81"/>
       <c r="AQ525" s="91"/>
       <c r="AR525" s="81"/>
     </row>
-    <row r="526" spans="42:44" ht="15.75" customHeight="1">
+    <row r="526" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP526" s="81"/>
       <c r="AQ526" s="91"/>
       <c r="AR526" s="81"/>
     </row>
-    <row r="527" spans="42:44" ht="15.75" customHeight="1">
+    <row r="527" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP527" s="81"/>
       <c r="AQ527" s="91"/>
       <c r="AR527" s="81"/>
     </row>
-    <row r="528" spans="42:44" ht="15.75" customHeight="1">
+    <row r="528" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP528" s="81"/>
       <c r="AQ528" s="91"/>
       <c r="AR528" s="81"/>
     </row>
-    <row r="529" spans="42:44" ht="15.75" customHeight="1">
+    <row r="529" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP529" s="81"/>
       <c r="AQ529" s="91"/>
       <c r="AR529" s="81"/>
     </row>
-    <row r="530" spans="42:44" ht="15.75" customHeight="1">
+    <row r="530" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP530" s="81"/>
       <c r="AQ530" s="91"/>
       <c r="AR530" s="81"/>
     </row>
-    <row r="531" spans="42:44" ht="15.75" customHeight="1">
+    <row r="531" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP531" s="81"/>
       <c r="AQ531" s="91"/>
       <c r="AR531" s="81"/>
     </row>
-    <row r="532" spans="42:44" ht="15.75" customHeight="1">
+    <row r="532" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP532" s="81"/>
       <c r="AQ532" s="91"/>
       <c r="AR532" s="81"/>
     </row>
-    <row r="533" spans="42:44" ht="15.75" customHeight="1">
+    <row r="533" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP533" s="81"/>
       <c r="AQ533" s="91"/>
       <c r="AR533" s="81"/>
     </row>
-    <row r="534" spans="42:44" ht="15.75" customHeight="1">
+    <row r="534" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP534" s="81"/>
       <c r="AQ534" s="91"/>
       <c r="AR534" s="81"/>
     </row>
-    <row r="535" spans="42:44" ht="15.75" customHeight="1">
+    <row r="535" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP535" s="81"/>
       <c r="AQ535" s="91"/>
       <c r="AR535" s="81"/>
     </row>
-    <row r="536" spans="42:44" ht="15.75" customHeight="1">
+    <row r="536" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP536" s="81"/>
       <c r="AQ536" s="91"/>
       <c r="AR536" s="81"/>
     </row>
-    <row r="537" spans="42:44" ht="15.75" customHeight="1">
+    <row r="537" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP537" s="81"/>
       <c r="AQ537" s="91"/>
       <c r="AR537" s="81"/>
     </row>
-    <row r="538" spans="42:44" ht="15.75" customHeight="1">
+    <row r="538" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP538" s="81"/>
       <c r="AQ538" s="91"/>
       <c r="AR538" s="81"/>
     </row>
-    <row r="539" spans="42:44" ht="15.75" customHeight="1">
+    <row r="539" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP539" s="81"/>
       <c r="AQ539" s="91"/>
       <c r="AR539" s="81"/>
     </row>
-    <row r="540" spans="42:44" ht="15.75" customHeight="1">
+    <row r="540" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP540" s="81"/>
       <c r="AQ540" s="91"/>
       <c r="AR540" s="81"/>
     </row>
-    <row r="541" spans="42:44" ht="15.75" customHeight="1">
+    <row r="541" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP541" s="81"/>
       <c r="AQ541" s="91"/>
       <c r="AR541" s="81"/>
     </row>
-    <row r="542" spans="42:44" ht="15.75" customHeight="1">
+    <row r="542" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP542" s="81"/>
       <c r="AQ542" s="91"/>
       <c r="AR542" s="81"/>
     </row>
-    <row r="543" spans="42:44" ht="15.75" customHeight="1">
+    <row r="543" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP543" s="81"/>
       <c r="AQ543" s="91"/>
       <c r="AR543" s="81"/>
     </row>
-    <row r="544" spans="42:44" ht="15.75" customHeight="1">
+    <row r="544" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP544" s="81"/>
       <c r="AQ544" s="91"/>
       <c r="AR544" s="81"/>
     </row>
-    <row r="545" spans="42:44" ht="15.75" customHeight="1">
+    <row r="545" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP545" s="81"/>
       <c r="AQ545" s="91"/>
       <c r="AR545" s="81"/>
     </row>
-    <row r="546" spans="42:44" ht="15.75" customHeight="1">
+    <row r="546" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP546" s="81"/>
       <c r="AQ546" s="91"/>
       <c r="AR546" s="81"/>
     </row>
-    <row r="547" spans="42:44" ht="15.75" customHeight="1">
+    <row r="547" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP547" s="81"/>
       <c r="AQ547" s="91"/>
       <c r="AR547" s="81"/>
     </row>
-    <row r="548" spans="42:44" ht="15.75" customHeight="1">
+    <row r="548" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP548" s="81"/>
       <c r="AQ548" s="91"/>
       <c r="AR548" s="81"/>
     </row>
-    <row r="549" spans="42:44" ht="15.75" customHeight="1">
+    <row r="549" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP549" s="81"/>
       <c r="AQ549" s="91"/>
       <c r="AR549" s="81"/>
     </row>
-    <row r="550" spans="42:44" ht="15.75" customHeight="1">
+    <row r="550" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP550" s="81"/>
       <c r="AQ550" s="91"/>
       <c r="AR550" s="81"/>
     </row>
-    <row r="551" spans="42:44" ht="15.75" customHeight="1">
+    <row r="551" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP551" s="81"/>
       <c r="AQ551" s="91"/>
       <c r="AR551" s="81"/>
     </row>
-    <row r="552" spans="42:44" ht="15.75" customHeight="1">
+    <row r="552" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP552" s="81"/>
       <c r="AQ552" s="91"/>
       <c r="AR552" s="81"/>
     </row>
-    <row r="553" spans="42:44" ht="15.75" customHeight="1">
+    <row r="553" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP553" s="81"/>
       <c r="AQ553" s="91"/>
       <c r="AR553" s="81"/>
     </row>
-    <row r="554" spans="42:44" ht="15.75" customHeight="1">
+    <row r="554" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP554" s="81"/>
       <c r="AQ554" s="91"/>
       <c r="AR554" s="81"/>
     </row>
-    <row r="555" spans="42:44" ht="15.75" customHeight="1">
+    <row r="555" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP555" s="81"/>
       <c r="AQ555" s="91"/>
       <c r="AR555" s="81"/>
     </row>
-    <row r="556" spans="42:44" ht="15.75" customHeight="1">
+    <row r="556" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP556" s="81"/>
       <c r="AQ556" s="91"/>
       <c r="AR556" s="81"/>
     </row>
-    <row r="557" spans="42:44" ht="15.75" customHeight="1">
+    <row r="557" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP557" s="81"/>
       <c r="AQ557" s="91"/>
       <c r="AR557" s="81"/>
     </row>
-    <row r="558" spans="42:44" ht="15.75" customHeight="1">
+    <row r="558" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP558" s="81"/>
       <c r="AQ558" s="91"/>
       <c r="AR558" s="81"/>
     </row>
-    <row r="559" spans="42:44" ht="15.75" customHeight="1">
+    <row r="559" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP559" s="81"/>
       <c r="AQ559" s="91"/>
       <c r="AR559" s="81"/>
     </row>
-    <row r="560" spans="42:44" ht="15.75" customHeight="1">
+    <row r="560" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP560" s="81"/>
       <c r="AQ560" s="91"/>
       <c r="AR560" s="81"/>
     </row>
-    <row r="561" spans="42:44" ht="15.75" customHeight="1">
+    <row r="561" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP561" s="81"/>
       <c r="AQ561" s="91"/>
       <c r="AR561" s="81"/>
     </row>
-    <row r="562" spans="42:44" ht="15.75" customHeight="1">
+    <row r="562" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP562" s="81"/>
       <c r="AQ562" s="91"/>
       <c r="AR562" s="81"/>
     </row>
-    <row r="563" spans="42:44" ht="15.75" customHeight="1">
+    <row r="563" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP563" s="81"/>
       <c r="AQ563" s="91"/>
       <c r="AR563" s="81"/>
     </row>
-    <row r="564" spans="42:44" ht="15.75" customHeight="1">
+    <row r="564" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP564" s="81"/>
       <c r="AQ564" s="91"/>
       <c r="AR564" s="81"/>
     </row>
-    <row r="565" spans="42:44" ht="15.75" customHeight="1">
+    <row r="565" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP565" s="81"/>
       <c r="AQ565" s="91"/>
       <c r="AR565" s="81"/>
     </row>
-    <row r="566" spans="42:44" ht="15.75" customHeight="1">
+    <row r="566" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP566" s="81"/>
       <c r="AQ566" s="91"/>
       <c r="AR566" s="81"/>
     </row>
-    <row r="567" spans="42:44" ht="15.75" customHeight="1">
+    <row r="567" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP567" s="81"/>
       <c r="AQ567" s="91"/>
       <c r="AR567" s="81"/>
     </row>
-    <row r="568" spans="42:44" ht="15.75" customHeight="1">
+    <row r="568" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP568" s="81"/>
       <c r="AQ568" s="91"/>
       <c r="AR568" s="81"/>
     </row>
-    <row r="569" spans="42:44" ht="15.75" customHeight="1">
+    <row r="569" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP569" s="81"/>
       <c r="AQ569" s="91"/>
       <c r="AR569" s="81"/>
     </row>
-    <row r="570" spans="42:44" ht="15.75" customHeight="1">
+    <row r="570" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP570" s="81"/>
       <c r="AQ570" s="91"/>
       <c r="AR570" s="81"/>
     </row>
-    <row r="571" spans="42:44" ht="15.75" customHeight="1">
+    <row r="571" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP571" s="81"/>
       <c r="AQ571" s="91"/>
       <c r="AR571" s="81"/>
     </row>
-    <row r="572" spans="42:44" ht="15.75" customHeight="1">
+    <row r="572" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP572" s="81"/>
       <c r="AQ572" s="91"/>
       <c r="AR572" s="81"/>
     </row>
-    <row r="573" spans="42:44" ht="15.75" customHeight="1">
+    <row r="573" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP573" s="81"/>
       <c r="AQ573" s="91"/>
       <c r="AR573" s="81"/>
     </row>
-    <row r="574" spans="42:44" ht="15.75" customHeight="1">
+    <row r="574" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP574" s="81"/>
       <c r="AQ574" s="91"/>
       <c r="AR574" s="81"/>
     </row>
-    <row r="575" spans="42:44" ht="15.75" customHeight="1">
+    <row r="575" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP575" s="81"/>
       <c r="AQ575" s="91"/>
       <c r="AR575" s="81"/>
     </row>
-    <row r="576" spans="42:44" ht="15.75" customHeight="1">
+    <row r="576" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP576" s="81"/>
       <c r="AQ576" s="91"/>
       <c r="AR576" s="81"/>
     </row>
-    <row r="577" spans="42:44" ht="15.75" customHeight="1">
+    <row r="577" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP577" s="81"/>
       <c r="AQ577" s="91"/>
       <c r="AR577" s="81"/>
     </row>
-    <row r="578" spans="42:44" ht="15.75" customHeight="1">
+    <row r="578" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP578" s="81"/>
       <c r="AQ578" s="91"/>
       <c r="AR578" s="81"/>
     </row>
-    <row r="579" spans="42:44" ht="15.75" customHeight="1">
+    <row r="579" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP579" s="81"/>
       <c r="AQ579" s="91"/>
       <c r="AR579" s="81"/>
     </row>
-    <row r="580" spans="42:44" ht="15.75" customHeight="1">
+    <row r="580" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP580" s="81"/>
       <c r="AQ580" s="91"/>
       <c r="AR580" s="81"/>
     </row>
-    <row r="581" spans="42:44" ht="15.75" customHeight="1">
+    <row r="581" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP581" s="81"/>
       <c r="AQ581" s="91"/>
       <c r="AR581" s="81"/>
     </row>
-    <row r="582" spans="42:44" ht="15.75" customHeight="1">
+    <row r="582" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP582" s="81"/>
       <c r="AQ582" s="91"/>
       <c r="AR582" s="81"/>
     </row>
-    <row r="583" spans="42:44" ht="15.75" customHeight="1">
+    <row r="583" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP583" s="81"/>
       <c r="AQ583" s="91"/>
       <c r="AR583" s="81"/>
     </row>
-    <row r="584" spans="42:44" ht="15.75" customHeight="1">
+    <row r="584" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP584" s="81"/>
       <c r="AQ584" s="91"/>
       <c r="AR584" s="81"/>
     </row>
-    <row r="585" spans="42:44" ht="15.75" customHeight="1">
+    <row r="585" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP585" s="81"/>
       <c r="AQ585" s="91"/>
       <c r="AR585" s="81"/>
     </row>
-    <row r="586" spans="42:44" ht="15.75" customHeight="1">
+    <row r="586" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP586" s="81"/>
       <c r="AQ586" s="91"/>
       <c r="AR586" s="81"/>
     </row>
-    <row r="587" spans="42:44" ht="15.75" customHeight="1">
+    <row r="587" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP587" s="81"/>
       <c r="AQ587" s="91"/>
       <c r="AR587" s="81"/>
     </row>
-    <row r="588" spans="42:44" ht="15.75" customHeight="1">
+    <row r="588" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP588" s="81"/>
       <c r="AQ588" s="91"/>
       <c r="AR588" s="81"/>
     </row>
-    <row r="589" spans="42:44" ht="15.75" customHeight="1">
+    <row r="589" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP589" s="81"/>
       <c r="AQ589" s="91"/>
       <c r="AR589" s="81"/>
     </row>
-    <row r="590" spans="42:44" ht="15.75" customHeight="1">
+    <row r="590" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP590" s="81"/>
       <c r="AQ590" s="91"/>
       <c r="AR590" s="81"/>
     </row>
-    <row r="591" spans="42:44" ht="15.75" customHeight="1">
+    <row r="591" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP591" s="81"/>
       <c r="AQ591" s="91"/>
       <c r="AR591" s="81"/>
     </row>
-    <row r="592" spans="42:44" ht="15.75" customHeight="1">
+    <row r="592" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP592" s="81"/>
       <c r="AQ592" s="91"/>
       <c r="AR592" s="81"/>
     </row>
-    <row r="593" spans="42:44" ht="15.75" customHeight="1">
+    <row r="593" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP593" s="81"/>
       <c r="AQ593" s="91"/>
       <c r="AR593" s="81"/>
     </row>
-    <row r="594" spans="42:44" ht="15.75" customHeight="1">
+    <row r="594" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP594" s="81"/>
       <c r="AQ594" s="91"/>
       <c r="AR594" s="81"/>
     </row>
-    <row r="595" spans="42:44" ht="15.75" customHeight="1">
+    <row r="595" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP595" s="81"/>
       <c r="AQ595" s="91"/>
       <c r="AR595" s="81"/>
     </row>
-    <row r="596" spans="42:44" ht="15.75" customHeight="1">
+    <row r="596" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP596" s="81"/>
       <c r="AQ596" s="91"/>
       <c r="AR596" s="81"/>
     </row>
-    <row r="597" spans="42:44" ht="15.75" customHeight="1">
+    <row r="597" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP597" s="81"/>
       <c r="AQ597" s="91"/>
       <c r="AR597" s="81"/>
     </row>
-    <row r="598" spans="42:44" ht="15.75" customHeight="1">
+    <row r="598" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP598" s="81"/>
       <c r="AQ598" s="91"/>
       <c r="AR598" s="81"/>
     </row>
-    <row r="599" spans="42:44" ht="15.75" customHeight="1">
+    <row r="599" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP599" s="81"/>
       <c r="AQ599" s="91"/>
       <c r="AR599" s="81"/>
     </row>
-    <row r="600" spans="42:44" ht="15.75" customHeight="1">
+    <row r="600" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP600" s="81"/>
       <c r="AQ600" s="91"/>
       <c r="AR600" s="81"/>
     </row>
-    <row r="601" spans="42:44" ht="15.75" customHeight="1">
+    <row r="601" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP601" s="81"/>
       <c r="AQ601" s="91"/>
       <c r="AR601" s="81"/>
     </row>
-    <row r="602" spans="42:44" ht="15.75" customHeight="1">
+    <row r="602" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP602" s="81"/>
       <c r="AQ602" s="91"/>
       <c r="AR602" s="81"/>
     </row>
-    <row r="603" spans="42:44" ht="15.75" customHeight="1">
+    <row r="603" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP603" s="81"/>
       <c r="AQ603" s="91"/>
       <c r="AR603" s="81"/>
     </row>
-    <row r="604" spans="42:44" ht="15.75" customHeight="1">
+    <row r="604" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP604" s="81"/>
       <c r="AQ604" s="91"/>
       <c r="AR604" s="81"/>
     </row>
-    <row r="605" spans="42:44" ht="15.75" customHeight="1">
+    <row r="605" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP605" s="81"/>
       <c r="AQ605" s="91"/>
       <c r="AR605" s="81"/>
     </row>
-    <row r="606" spans="42:44" ht="15.75" customHeight="1">
+    <row r="606" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP606" s="81"/>
       <c r="AQ606" s="91"/>
       <c r="AR606" s="81"/>
     </row>
-    <row r="607" spans="42:44" ht="15.75" customHeight="1">
+    <row r="607" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP607" s="81"/>
       <c r="AQ607" s="91"/>
       <c r="AR607" s="81"/>
     </row>
-    <row r="608" spans="42:44" ht="15.75" customHeight="1">
+    <row r="608" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP608" s="81"/>
       <c r="AQ608" s="91"/>
       <c r="AR608" s="81"/>
     </row>
-    <row r="609" spans="42:44" ht="15.75" customHeight="1">
+    <row r="609" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP609" s="81"/>
       <c r="AQ609" s="91"/>
       <c r="AR609" s="81"/>
     </row>
-    <row r="610" spans="42:44" ht="15.75" customHeight="1">
+    <row r="610" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP610" s="81"/>
       <c r="AQ610" s="91"/>
       <c r="AR610" s="81"/>
     </row>
-    <row r="611" spans="42:44" ht="15.75" customHeight="1">
+    <row r="611" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP611" s="81"/>
       <c r="AQ611" s="91"/>
       <c r="AR611" s="81"/>
     </row>
-    <row r="612" spans="42:44" ht="15.75" customHeight="1">
+    <row r="612" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP612" s="81"/>
       <c r="AQ612" s="91"/>
       <c r="AR612" s="81"/>
     </row>
-    <row r="613" spans="42:44" ht="15.75" customHeight="1">
+    <row r="613" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP613" s="81"/>
       <c r="AQ613" s="91"/>
       <c r="AR613" s="81"/>
     </row>
-    <row r="614" spans="42:44" ht="15.75" customHeight="1">
+    <row r="614" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP614" s="81"/>
       <c r="AQ614" s="91"/>
       <c r="AR614" s="81"/>
     </row>
-    <row r="615" spans="42:44" ht="15.75" customHeight="1">
+    <row r="615" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP615" s="81"/>
       <c r="AQ615" s="91"/>
       <c r="AR615" s="81"/>
     </row>
-    <row r="616" spans="42:44" ht="15.75" customHeight="1">
+    <row r="616" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP616" s="81"/>
       <c r="AQ616" s="91"/>
       <c r="AR616" s="81"/>
     </row>
-    <row r="617" spans="42:44" ht="15.75" customHeight="1">
+    <row r="617" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP617" s="81"/>
       <c r="AQ617" s="91"/>
       <c r="AR617" s="81"/>
     </row>
-    <row r="618" spans="42:44" ht="15.75" customHeight="1">
+    <row r="618" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP618" s="81"/>
       <c r="AQ618" s="91"/>
       <c r="AR618" s="81"/>
     </row>
-    <row r="619" spans="42:44" ht="15.75" customHeight="1">
+    <row r="619" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP619" s="81"/>
       <c r="AQ619" s="91"/>
       <c r="AR619" s="81"/>
     </row>
-    <row r="620" spans="42:44" ht="15.75" customHeight="1">
+    <row r="620" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP620" s="81"/>
       <c r="AQ620" s="91"/>
       <c r="AR620" s="81"/>
     </row>
-    <row r="621" spans="42:44" ht="15.75" customHeight="1">
+    <row r="621" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP621" s="81"/>
       <c r="AQ621" s="91"/>
       <c r="AR621" s="81"/>
     </row>
-    <row r="622" spans="42:44" ht="15.75" customHeight="1">
+    <row r="622" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP622" s="81"/>
       <c r="AQ622" s="91"/>
       <c r="AR622" s="81"/>
     </row>
-    <row r="623" spans="42:44" ht="15.75" customHeight="1">
+    <row r="623" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP623" s="81"/>
       <c r="AQ623" s="91"/>
       <c r="AR623" s="81"/>
     </row>
-    <row r="624" spans="42:44" ht="15.75" customHeight="1">
+    <row r="624" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP624" s="81"/>
       <c r="AQ624" s="91"/>
       <c r="AR624" s="81"/>
     </row>
-    <row r="625" spans="42:44" ht="15.75" customHeight="1">
+    <row r="625" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP625" s="81"/>
       <c r="AQ625" s="91"/>
       <c r="AR625" s="81"/>
     </row>
-    <row r="626" spans="42:44" ht="15.75" customHeight="1">
+    <row r="626" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP626" s="81"/>
       <c r="AQ626" s="91"/>
       <c r="AR626" s="81"/>
     </row>
-    <row r="627" spans="42:44" ht="15.75" customHeight="1">
+    <row r="627" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP627" s="81"/>
       <c r="AQ627" s="91"/>
       <c r="AR627" s="81"/>
     </row>
-    <row r="628" spans="42:44" ht="15.75" customHeight="1">
+    <row r="628" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP628" s="81"/>
       <c r="AQ628" s="91"/>
       <c r="AR628" s="81"/>
     </row>
-    <row r="629" spans="42:44" ht="15.75" customHeight="1">
+    <row r="629" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP629" s="81"/>
       <c r="AQ629" s="91"/>
       <c r="AR629" s="81"/>
     </row>
-    <row r="630" spans="42:44" ht="15.75" customHeight="1">
+    <row r="630" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP630" s="81"/>
       <c r="AQ630" s="91"/>
       <c r="AR630" s="81"/>
     </row>
-    <row r="631" spans="42:44" ht="15.75" customHeight="1">
+    <row r="631" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP631" s="81"/>
       <c r="AQ631" s="91"/>
       <c r="AR631" s="81"/>
     </row>
-    <row r="632" spans="42:44" ht="15.75" customHeight="1">
+    <row r="632" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP632" s="81"/>
       <c r="AQ632" s="91"/>
       <c r="AR632" s="81"/>
     </row>
-    <row r="633" spans="42:44" ht="15.75" customHeight="1">
+    <row r="633" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP633" s="81"/>
       <c r="AQ633" s="91"/>
       <c r="AR633" s="81"/>
     </row>
-    <row r="634" spans="42:44" ht="15.75" customHeight="1">
+    <row r="634" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP634" s="81"/>
       <c r="AQ634" s="91"/>
       <c r="AR634" s="81"/>
     </row>
-    <row r="635" spans="42:44" ht="15.75" customHeight="1">
+    <row r="635" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP635" s="81"/>
       <c r="AQ635" s="91"/>
       <c r="AR635" s="81"/>
     </row>
-    <row r="636" spans="42:44" ht="15.75" customHeight="1">
+    <row r="636" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP636" s="81"/>
       <c r="AQ636" s="91"/>
       <c r="AR636" s="81"/>
     </row>
-    <row r="637" spans="42:44" ht="15.75" customHeight="1">
+    <row r="637" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP637" s="81"/>
       <c r="AQ637" s="91"/>
       <c r="AR637" s="81"/>
     </row>
-    <row r="638" spans="42:44" ht="15.75" customHeight="1">
+    <row r="638" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP638" s="81"/>
       <c r="AQ638" s="91"/>
       <c r="AR638" s="81"/>
     </row>
-    <row r="639" spans="42:44" ht="15.75" customHeight="1">
+    <row r="639" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP639" s="81"/>
       <c r="AQ639" s="91"/>
       <c r="AR639" s="81"/>
     </row>
-    <row r="640" spans="42:44" ht="15.75" customHeight="1">
+    <row r="640" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP640" s="81"/>
       <c r="AQ640" s="91"/>
       <c r="AR640" s="81"/>
     </row>
-    <row r="641" spans="42:44" ht="15.75" customHeight="1">
+    <row r="641" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP641" s="81"/>
       <c r="AQ641" s="91"/>
       <c r="AR641" s="81"/>
     </row>
-    <row r="642" spans="42:44" ht="15.75" customHeight="1">
+    <row r="642" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP642" s="81"/>
       <c r="AQ642" s="91"/>
       <c r="AR642" s="81"/>
     </row>
-    <row r="643" spans="42:44" ht="15.75" customHeight="1">
+    <row r="643" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP643" s="81"/>
       <c r="AQ643" s="91"/>
       <c r="AR643" s="81"/>
     </row>
-    <row r="644" spans="42:44" ht="15.75" customHeight="1">
+    <row r="644" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP644" s="81"/>
       <c r="AQ644" s="91"/>
       <c r="AR644" s="81"/>
     </row>
-    <row r="645" spans="42:44" ht="15.75" customHeight="1">
+    <row r="645" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP645" s="81"/>
       <c r="AQ645" s="91"/>
       <c r="AR645" s="81"/>
     </row>
-    <row r="646" spans="42:44" ht="15.75" customHeight="1">
+    <row r="646" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP646" s="81"/>
       <c r="AQ646" s="91"/>
       <c r="AR646" s="81"/>
     </row>
-    <row r="647" spans="42:44" ht="15.75" customHeight="1">
+    <row r="647" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP647" s="81"/>
       <c r="AQ647" s="91"/>
       <c r="AR647" s="81"/>
     </row>
-    <row r="648" spans="42:44" ht="15.75" customHeight="1">
+    <row r="648" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP648" s="81"/>
       <c r="AQ648" s="91"/>
       <c r="AR648" s="81"/>
     </row>
-    <row r="649" spans="42:44" ht="15.75" customHeight="1">
+    <row r="649" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP649" s="81"/>
       <c r="AQ649" s="91"/>
       <c r="AR649" s="81"/>
     </row>
-    <row r="650" spans="42:44" ht="15.75" customHeight="1">
+    <row r="650" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP650" s="81"/>
       <c r="AQ650" s="91"/>
       <c r="AR650" s="81"/>
     </row>
-    <row r="651" spans="42:44" ht="15.75" customHeight="1">
+    <row r="651" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP651" s="81"/>
       <c r="AQ651" s="91"/>
       <c r="AR651" s="81"/>
     </row>
-    <row r="652" spans="42:44" ht="15.75" customHeight="1">
+    <row r="652" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP652" s="81"/>
       <c r="AQ652" s="91"/>
       <c r="AR652" s="81"/>
     </row>
-    <row r="653" spans="42:44" ht="15.75" customHeight="1">
+    <row r="653" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP653" s="81"/>
       <c r="AQ653" s="91"/>
       <c r="AR653" s="81"/>
     </row>
-    <row r="654" spans="42:44" ht="15.75" customHeight="1">
+    <row r="654" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP654" s="81"/>
       <c r="AQ654" s="91"/>
       <c r="AR654" s="81"/>
     </row>
-    <row r="655" spans="42:44" ht="15.75" customHeight="1">
+    <row r="655" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP655" s="81"/>
       <c r="AQ655" s="91"/>
       <c r="AR655" s="81"/>
     </row>
-    <row r="656" spans="42:44" ht="15.75" customHeight="1">
+    <row r="656" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP656" s="81"/>
       <c r="AQ656" s="91"/>
       <c r="AR656" s="81"/>
     </row>
-    <row r="657" spans="42:44" ht="15.75" customHeight="1">
+    <row r="657" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP657" s="81"/>
       <c r="AQ657" s="91"/>
       <c r="AR657" s="81"/>
     </row>
-    <row r="658" spans="42:44" ht="15.75" customHeight="1">
+    <row r="658" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP658" s="81"/>
       <c r="AQ658" s="91"/>
       <c r="AR658" s="81"/>
     </row>
-    <row r="659" spans="42:44" ht="15.75" customHeight="1">
+    <row r="659" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP659" s="81"/>
       <c r="AQ659" s="91"/>
       <c r="AR659" s="81"/>
     </row>
-    <row r="660" spans="42:44" ht="15.75" customHeight="1">
+    <row r="660" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP660" s="81"/>
       <c r="AQ660" s="91"/>
       <c r="AR660" s="81"/>
     </row>
-    <row r="661" spans="42:44" ht="15.75" customHeight="1">
+    <row r="661" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP661" s="81"/>
       <c r="AQ661" s="91"/>
       <c r="AR661" s="81"/>
     </row>
-    <row r="662" spans="42:44" ht="15.75" customHeight="1">
+    <row r="662" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP662" s="81"/>
       <c r="AQ662" s="91"/>
       <c r="AR662" s="81"/>
     </row>
-    <row r="663" spans="42:44" ht="15.75" customHeight="1">
+    <row r="663" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP663" s="81"/>
       <c r="AQ663" s="91"/>
       <c r="AR663" s="81"/>
     </row>
-    <row r="664" spans="42:44" ht="15.75" customHeight="1">
+    <row r="664" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP664" s="81"/>
       <c r="AQ664" s="91"/>
       <c r="AR664" s="81"/>
     </row>
-    <row r="665" spans="42:44" ht="15.75" customHeight="1">
+    <row r="665" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP665" s="81"/>
       <c r="AQ665" s="91"/>
       <c r="AR665" s="81"/>
     </row>
-    <row r="666" spans="42:44" ht="15.75" customHeight="1">
+    <row r="666" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP666" s="81"/>
       <c r="AQ666" s="91"/>
       <c r="AR666" s="81"/>
     </row>
-    <row r="667" spans="42:44" ht="15.75" customHeight="1">
+    <row r="667" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP667" s="81"/>
       <c r="AQ667" s="91"/>
       <c r="AR667" s="81"/>
     </row>
-    <row r="668" spans="42:44" ht="15.75" customHeight="1">
+    <row r="668" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP668" s="81"/>
       <c r="AQ668" s="91"/>
       <c r="AR668" s="81"/>
     </row>
-    <row r="669" spans="42:44" ht="15.75" customHeight="1">
+    <row r="669" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP669" s="81"/>
       <c r="AQ669" s="91"/>
       <c r="AR669" s="81"/>
     </row>
-    <row r="670" spans="42:44" ht="15.75" customHeight="1">
+    <row r="670" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP670" s="81"/>
       <c r="AQ670" s="91"/>
       <c r="AR670" s="81"/>
     </row>
-    <row r="671" spans="42:44" ht="15.75" customHeight="1">
+    <row r="671" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP671" s="81"/>
       <c r="AQ671" s="91"/>
       <c r="AR671" s="81"/>
     </row>
-    <row r="672" spans="42:44" ht="15.75" customHeight="1">
+    <row r="672" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP672" s="81"/>
       <c r="AQ672" s="91"/>
       <c r="AR672" s="81"/>
     </row>
-    <row r="673" spans="42:44" ht="15.75" customHeight="1">
+    <row r="673" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP673" s="81"/>
       <c r="AQ673" s="91"/>
       <c r="AR673" s="81"/>
     </row>
-    <row r="674" spans="42:44" ht="15.75" customHeight="1">
+    <row r="674" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP674" s="81"/>
       <c r="AQ674" s="91"/>
       <c r="AR674" s="81"/>
     </row>
-    <row r="675" spans="42:44" ht="15.75" customHeight="1">
+    <row r="675" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP675" s="81"/>
       <c r="AQ675" s="91"/>
       <c r="AR675" s="81"/>
     </row>
-    <row r="676" spans="42:44" ht="15.75" customHeight="1">
+    <row r="676" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP676" s="81"/>
       <c r="AQ676" s="91"/>
       <c r="AR676" s="81"/>
     </row>
-    <row r="677" spans="42:44" ht="15.75" customHeight="1">
+    <row r="677" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP677" s="81"/>
       <c r="AQ677" s="91"/>
       <c r="AR677" s="81"/>
     </row>
-    <row r="678" spans="42:44" ht="15.75" customHeight="1">
+    <row r="678" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP678" s="81"/>
       <c r="AQ678" s="91"/>
       <c r="AR678" s="81"/>
     </row>
-    <row r="679" spans="42:44" ht="15.75" customHeight="1">
+    <row r="679" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP679" s="81"/>
       <c r="AQ679" s="91"/>
       <c r="AR679" s="81"/>
     </row>
-    <row r="680" spans="42:44" ht="15.75" customHeight="1">
+    <row r="680" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP680" s="81"/>
       <c r="AQ680" s="91"/>
       <c r="AR680" s="81"/>
     </row>
-    <row r="681" spans="42:44" ht="15.75" customHeight="1">
+    <row r="681" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP681" s="81"/>
       <c r="AQ681" s="91"/>
       <c r="AR681" s="81"/>
     </row>
-    <row r="682" spans="42:44" ht="15.75" customHeight="1">
+    <row r="682" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP682" s="81"/>
       <c r="AQ682" s="91"/>
       <c r="AR682" s="81"/>
     </row>
-    <row r="683" spans="42:44" ht="15.75" customHeight="1">
+    <row r="683" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP683" s="81"/>
       <c r="AQ683" s="91"/>
       <c r="AR683" s="81"/>
     </row>
-    <row r="684" spans="42:44" ht="15.75" customHeight="1">
+    <row r="684" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP684" s="81"/>
       <c r="AQ684" s="91"/>
       <c r="AR684" s="81"/>
     </row>
-    <row r="685" spans="42:44" ht="15.75" customHeight="1">
+    <row r="685" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP685" s="81"/>
       <c r="AQ685" s="91"/>
       <c r="AR685" s="81"/>
     </row>
-    <row r="686" spans="42:44" ht="15.75" customHeight="1">
+    <row r="686" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP686" s="81"/>
       <c r="AQ686" s="91"/>
       <c r="AR686" s="81"/>
     </row>
-    <row r="687" spans="42:44" ht="15.75" customHeight="1">
+    <row r="687" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP687" s="81"/>
       <c r="AQ687" s="91"/>
       <c r="AR687" s="81"/>
     </row>
-    <row r="688" spans="42:44" ht="15.75" customHeight="1">
+    <row r="688" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP688" s="81"/>
       <c r="AQ688" s="91"/>
       <c r="AR688" s="81"/>
     </row>
-    <row r="689" spans="42:44" ht="15.75" customHeight="1">
+    <row r="689" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP689" s="81"/>
       <c r="AQ689" s="91"/>
       <c r="AR689" s="81"/>
     </row>
-    <row r="690" spans="42:44" ht="15.75" customHeight="1">
+    <row r="690" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP690" s="81"/>
       <c r="AQ690" s="91"/>
       <c r="AR690" s="81"/>
     </row>
-    <row r="691" spans="42:44" ht="15.75" customHeight="1">
+    <row r="691" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP691" s="81"/>
       <c r="AQ691" s="91"/>
       <c r="AR691" s="81"/>
     </row>
-    <row r="692" spans="42:44" ht="15.75" customHeight="1">
+    <row r="692" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP692" s="81"/>
       <c r="AQ692" s="91"/>
       <c r="AR692" s="81"/>
     </row>
-    <row r="693" spans="42:44" ht="15.75" customHeight="1">
+    <row r="693" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP693" s="81"/>
       <c r="AQ693" s="91"/>
       <c r="AR693" s="81"/>
     </row>
-    <row r="694" spans="42:44" ht="15.75" customHeight="1">
+    <row r="694" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP694" s="81"/>
       <c r="AQ694" s="91"/>
       <c r="AR694" s="81"/>
     </row>
-    <row r="695" spans="42:44" ht="15.75" customHeight="1">
+    <row r="695" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP695" s="81"/>
       <c r="AQ695" s="91"/>
       <c r="AR695" s="81"/>
     </row>
-    <row r="696" spans="42:44" ht="15.75" customHeight="1">
+    <row r="696" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP696" s="81"/>
       <c r="AQ696" s="91"/>
       <c r="AR696" s="81"/>
     </row>
-    <row r="697" spans="42:44" ht="15.75" customHeight="1">
+    <row r="697" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP697" s="81"/>
       <c r="AQ697" s="91"/>
       <c r="AR697" s="81"/>
     </row>
-    <row r="698" spans="42:44" ht="15.75" customHeight="1">
+    <row r="698" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP698" s="81"/>
       <c r="AQ698" s="91"/>
       <c r="AR698" s="81"/>
     </row>
-    <row r="699" spans="42:44" ht="15.75" customHeight="1">
+    <row r="699" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP699" s="81"/>
       <c r="AQ699" s="91"/>
       <c r="AR699" s="81"/>
     </row>
-    <row r="700" spans="42:44" ht="15.75" customHeight="1">
+    <row r="700" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP700" s="81"/>
       <c r="AQ700" s="91"/>
       <c r="AR700" s="81"/>
     </row>
-    <row r="701" spans="42:44" ht="15.75" customHeight="1">
+    <row r="701" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP701" s="81"/>
       <c r="AQ701" s="91"/>
       <c r="AR701" s="81"/>
     </row>
-    <row r="702" spans="42:44" ht="15.75" customHeight="1">
+    <row r="702" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP702" s="81"/>
       <c r="AQ702" s="91"/>
       <c r="AR702" s="81"/>
     </row>
-    <row r="703" spans="42:44" ht="15.75" customHeight="1">
+    <row r="703" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP703" s="81"/>
       <c r="AQ703" s="91"/>
       <c r="AR703" s="81"/>
     </row>
-    <row r="704" spans="42:44" ht="15.75" customHeight="1">
+    <row r="704" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP704" s="81"/>
       <c r="AQ704" s="91"/>
       <c r="AR704" s="81"/>
     </row>
-    <row r="705" spans="42:44" ht="15.75" customHeight="1">
+    <row r="705" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP705" s="81"/>
       <c r="AQ705" s="91"/>
       <c r="AR705" s="81"/>
     </row>
-    <row r="706" spans="42:44" ht="15.75" customHeight="1">
+    <row r="706" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP706" s="81"/>
       <c r="AQ706" s="91"/>
       <c r="AR706" s="81"/>
     </row>
-    <row r="707" spans="42:44" ht="15.75" customHeight="1">
+    <row r="707" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP707" s="81"/>
       <c r="AQ707" s="91"/>
       <c r="AR707" s="81"/>
     </row>
-    <row r="708" spans="42:44" ht="15.75" customHeight="1">
+    <row r="708" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP708" s="81"/>
       <c r="AQ708" s="91"/>
       <c r="AR708" s="81"/>
     </row>
-    <row r="709" spans="42:44" ht="15.75" customHeight="1">
+    <row r="709" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP709" s="81"/>
       <c r="AQ709" s="91"/>
       <c r="AR709" s="81"/>
     </row>
-    <row r="710" spans="42:44" ht="15.75" customHeight="1">
+    <row r="710" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP710" s="81"/>
       <c r="AQ710" s="91"/>
       <c r="AR710" s="81"/>
     </row>
-    <row r="711" spans="42:44" ht="15.75" customHeight="1">
+    <row r="711" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP711" s="81"/>
       <c r="AQ711" s="91"/>
       <c r="AR711" s="81"/>
     </row>
-    <row r="712" spans="42:44" ht="15.75" customHeight="1">
+    <row r="712" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP712" s="81"/>
       <c r="AQ712" s="91"/>
       <c r="AR712" s="81"/>
     </row>
-    <row r="713" spans="42:44" ht="15.75" customHeight="1">
+    <row r="713" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP713" s="81"/>
       <c r="AQ713" s="91"/>
       <c r="AR713" s="81"/>
     </row>
-    <row r="714" spans="42:44" ht="15.75" customHeight="1">
+    <row r="714" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP714" s="81"/>
       <c r="AQ714" s="91"/>
       <c r="AR714" s="81"/>
     </row>
-    <row r="715" spans="42:44" ht="15.75" customHeight="1">
+    <row r="715" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP715" s="81"/>
       <c r="AQ715" s="91"/>
       <c r="AR715" s="81"/>
     </row>
-    <row r="716" spans="42:44" ht="15.75" customHeight="1">
+    <row r="716" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP716" s="81"/>
       <c r="AQ716" s="91"/>
       <c r="AR716" s="81"/>
     </row>
-    <row r="717" spans="42:44" ht="15.75" customHeight="1">
+    <row r="717" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP717" s="81"/>
       <c r="AQ717" s="91"/>
       <c r="AR717" s="81"/>
     </row>
-    <row r="718" spans="42:44" ht="15.75" customHeight="1">
+    <row r="718" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP718" s="81"/>
       <c r="AQ718" s="91"/>
       <c r="AR718" s="81"/>
     </row>
-    <row r="719" spans="42:44" ht="15.75" customHeight="1">
+    <row r="719" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP719" s="81"/>
       <c r="AQ719" s="91"/>
       <c r="AR719" s="81"/>
     </row>
-    <row r="720" spans="42:44" ht="15.75" customHeight="1">
+    <row r="720" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP720" s="81"/>
       <c r="AQ720" s="91"/>
       <c r="AR720" s="81"/>
     </row>
-    <row r="721" spans="42:44" ht="15.75" customHeight="1">
+    <row r="721" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP721" s="81"/>
       <c r="AQ721" s="91"/>
       <c r="AR721" s="81"/>
     </row>
-    <row r="722" spans="42:44" ht="15.75" customHeight="1">
+    <row r="722" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP722" s="81"/>
       <c r="AQ722" s="91"/>
       <c r="AR722" s="81"/>
     </row>
-    <row r="723" spans="42:44" ht="15.75" customHeight="1">
+    <row r="723" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP723" s="81"/>
       <c r="AQ723" s="91"/>
       <c r="AR723" s="81"/>
     </row>
-    <row r="724" spans="42:44" ht="15.75" customHeight="1">
+    <row r="724" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP724" s="81"/>
       <c r="AQ724" s="91"/>
       <c r="AR724" s="81"/>
     </row>
-    <row r="725" spans="42:44" ht="15.75" customHeight="1">
+    <row r="725" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP725" s="81"/>
       <c r="AQ725" s="91"/>
       <c r="AR725" s="81"/>
     </row>
-    <row r="726" spans="42:44" ht="15.75" customHeight="1">
+    <row r="726" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP726" s="81"/>
       <c r="AQ726" s="91"/>
       <c r="AR726" s="81"/>
     </row>
-    <row r="727" spans="42:44" ht="15.75" customHeight="1">
+    <row r="727" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP727" s="81"/>
       <c r="AQ727" s="91"/>
       <c r="AR727" s="81"/>
     </row>
-    <row r="728" spans="42:44" ht="15.75" customHeight="1">
+    <row r="728" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP728" s="81"/>
       <c r="AQ728" s="91"/>
       <c r="AR728" s="81"/>
     </row>
-    <row r="729" spans="42:44" ht="15.75" customHeight="1">
+    <row r="729" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP729" s="81"/>
       <c r="AQ729" s="91"/>
       <c r="AR729" s="81"/>
     </row>
-    <row r="730" spans="42:44" ht="15.75" customHeight="1">
+    <row r="730" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP730" s="81"/>
       <c r="AQ730" s="91"/>
       <c r="AR730" s="81"/>
     </row>
-    <row r="731" spans="42:44" ht="15.75" customHeight="1">
+    <row r="731" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP731" s="81"/>
       <c r="AQ731" s="91"/>
       <c r="AR731" s="81"/>
     </row>
-    <row r="732" spans="42:44" ht="15.75" customHeight="1">
+    <row r="732" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP732" s="81"/>
       <c r="AQ732" s="91"/>
       <c r="AR732" s="81"/>
     </row>
-    <row r="733" spans="42:44" ht="15.75" customHeight="1">
+    <row r="733" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP733" s="81"/>
       <c r="AQ733" s="91"/>
       <c r="AR733" s="81"/>
     </row>
-    <row r="734" spans="42:44" ht="15.75" customHeight="1">
+    <row r="734" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP734" s="81"/>
       <c r="AQ734" s="91"/>
       <c r="AR734" s="81"/>
     </row>
-    <row r="735" spans="42:44" ht="15.75" customHeight="1">
+    <row r="735" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP735" s="81"/>
       <c r="AQ735" s="91"/>
       <c r="AR735" s="81"/>
     </row>
-    <row r="736" spans="42:44" ht="15.75" customHeight="1">
+    <row r="736" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP736" s="81"/>
       <c r="AQ736" s="91"/>
       <c r="AR736" s="81"/>
     </row>
-    <row r="737" spans="42:44" ht="15.75" customHeight="1">
+    <row r="737" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP737" s="81"/>
       <c r="AQ737" s="91"/>
       <c r="AR737" s="81"/>
     </row>
-    <row r="738" spans="42:44" ht="15.75" customHeight="1">
+    <row r="738" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP738" s="81"/>
       <c r="AQ738" s="91"/>
       <c r="AR738" s="81"/>
     </row>
-    <row r="739" spans="42:44" ht="15.75" customHeight="1">
+    <row r="739" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP739" s="81"/>
       <c r="AQ739" s="91"/>
       <c r="AR739" s="81"/>
     </row>
-    <row r="740" spans="42:44" ht="15.75" customHeight="1">
+    <row r="740" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP740" s="81"/>
       <c r="AQ740" s="91"/>
       <c r="AR740" s="81"/>
     </row>
-    <row r="741" spans="42:44" ht="15.75" customHeight="1">
+    <row r="741" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP741" s="81"/>
       <c r="AQ741" s="91"/>
       <c r="AR741" s="81"/>
     </row>
-    <row r="742" spans="42:44" ht="15.75" customHeight="1">
+    <row r="742" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP742" s="81"/>
       <c r="AQ742" s="91"/>
       <c r="AR742" s="81"/>
     </row>
-    <row r="743" spans="42:44" ht="15.75" customHeight="1">
+    <row r="743" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP743" s="81"/>
       <c r="AQ743" s="91"/>
       <c r="AR743" s="81"/>
     </row>
-    <row r="744" spans="42:44" ht="15.75" customHeight="1">
+    <row r="744" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP744" s="81"/>
       <c r="AQ744" s="91"/>
       <c r="AR744" s="81"/>
     </row>
-    <row r="745" spans="42:44" ht="15.75" customHeight="1">
+    <row r="745" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP745" s="81"/>
       <c r="AQ745" s="91"/>
       <c r="AR745" s="81"/>
     </row>
-    <row r="746" spans="42:44" ht="15.75" customHeight="1">
+    <row r="746" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP746" s="81"/>
       <c r="AQ746" s="91"/>
       <c r="AR746" s="81"/>
     </row>
-    <row r="747" spans="42:44" ht="15.75" customHeight="1">
+    <row r="747" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP747" s="81"/>
       <c r="AQ747" s="91"/>
       <c r="AR747" s="81"/>
     </row>
-    <row r="748" spans="42:44" ht="15.75" customHeight="1">
+    <row r="748" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP748" s="81"/>
       <c r="AQ748" s="91"/>
       <c r="AR748" s="81"/>
     </row>
-    <row r="749" spans="42:44" ht="15.75" customHeight="1">
+    <row r="749" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP749" s="81"/>
       <c r="AQ749" s="91"/>
       <c r="AR749" s="81"/>
     </row>
-    <row r="750" spans="42:44" ht="15.75" customHeight="1">
+    <row r="750" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP750" s="81"/>
       <c r="AQ750" s="91"/>
       <c r="AR750" s="81"/>
     </row>
-    <row r="751" spans="42:44" ht="15.75" customHeight="1">
+    <row r="751" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP751" s="81"/>
       <c r="AQ751" s="91"/>
       <c r="AR751" s="81"/>
     </row>
-    <row r="752" spans="42:44" ht="15.75" customHeight="1">
+    <row r="752" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP752" s="81"/>
       <c r="AQ752" s="91"/>
       <c r="AR752" s="81"/>
     </row>
-    <row r="753" spans="42:44" ht="15.75" customHeight="1">
+    <row r="753" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP753" s="81"/>
       <c r="AQ753" s="91"/>
       <c r="AR753" s="81"/>
     </row>
-    <row r="754" spans="42:44" ht="15.75" customHeight="1">
+    <row r="754" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP754" s="81"/>
       <c r="AQ754" s="91"/>
       <c r="AR754" s="81"/>
     </row>
-    <row r="755" spans="42:44" ht="15.75" customHeight="1">
+    <row r="755" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP755" s="81"/>
       <c r="AQ755" s="91"/>
       <c r="AR755" s="81"/>
     </row>
-    <row r="756" spans="42:44" ht="15.75" customHeight="1">
+    <row r="756" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP756" s="81"/>
       <c r="AQ756" s="91"/>
       <c r="AR756" s="81"/>
     </row>
-    <row r="757" spans="42:44" ht="15.75" customHeight="1">
+    <row r="757" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP757" s="81"/>
       <c r="AQ757" s="91"/>
       <c r="AR757" s="81"/>
     </row>
-    <row r="758" spans="42:44" ht="15.75" customHeight="1">
+    <row r="758" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP758" s="81"/>
       <c r="AQ758" s="91"/>
       <c r="AR758" s="81"/>
     </row>
-    <row r="759" spans="42:44" ht="15.75" customHeight="1">
+    <row r="759" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP759" s="81"/>
       <c r="AQ759" s="91"/>
       <c r="AR759" s="81"/>
     </row>
-    <row r="760" spans="42:44" ht="15.75" customHeight="1">
+    <row r="760" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP760" s="81"/>
       <c r="AQ760" s="91"/>
       <c r="AR760" s="81"/>
     </row>
-    <row r="761" spans="42:44" ht="15.75" customHeight="1">
+    <row r="761" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP761" s="81"/>
       <c r="AQ761" s="91"/>
       <c r="AR761" s="81"/>
     </row>
-    <row r="762" spans="42:44" ht="15.75" customHeight="1">
+    <row r="762" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP762" s="81"/>
       <c r="AQ762" s="91"/>
       <c r="AR762" s="81"/>
     </row>
-    <row r="763" spans="42:44" ht="15.75" customHeight="1">
+    <row r="763" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP763" s="81"/>
       <c r="AQ763" s="91"/>
       <c r="AR763" s="81"/>
     </row>
-    <row r="764" spans="42:44" ht="15.75" customHeight="1">
+    <row r="764" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP764" s="81"/>
       <c r="AQ764" s="91"/>
       <c r="AR764" s="81"/>
     </row>
-    <row r="765" spans="42:44" ht="15.75" customHeight="1">
+    <row r="765" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP765" s="81"/>
       <c r="AQ765" s="91"/>
       <c r="AR765" s="81"/>
     </row>
-    <row r="766" spans="42:44" ht="15.75" customHeight="1">
+    <row r="766" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP766" s="81"/>
       <c r="AQ766" s="91"/>
       <c r="AR766" s="81"/>
     </row>
-    <row r="767" spans="42:44" ht="15.75" customHeight="1">
+    <row r="767" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP767" s="81"/>
       <c r="AQ767" s="91"/>
       <c r="AR767" s="81"/>
     </row>
-    <row r="768" spans="42:44" ht="15.75" customHeight="1">
+    <row r="768" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP768" s="81"/>
       <c r="AQ768" s="91"/>
       <c r="AR768" s="81"/>
     </row>
-    <row r="769" spans="42:44" ht="15.75" customHeight="1">
+    <row r="769" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP769" s="81"/>
       <c r="AQ769" s="91"/>
       <c r="AR769" s="81"/>
     </row>
-    <row r="770" spans="42:44" ht="15.75" customHeight="1">
+    <row r="770" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP770" s="81"/>
       <c r="AQ770" s="91"/>
       <c r="AR770" s="81"/>
     </row>
-    <row r="771" spans="42:44" ht="15.75" customHeight="1">
+    <row r="771" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP771" s="81"/>
       <c r="AQ771" s="91"/>
       <c r="AR771" s="81"/>
     </row>
-    <row r="772" spans="42:44" ht="15.75" customHeight="1">
+    <row r="772" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP772" s="81"/>
       <c r="AQ772" s="91"/>
       <c r="AR772" s="81"/>
     </row>
-    <row r="773" spans="42:44" ht="15.75" customHeight="1">
+    <row r="773" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP773" s="81"/>
       <c r="AQ773" s="91"/>
       <c r="AR773" s="81"/>
     </row>
-    <row r="774" spans="42:44" ht="15.75" customHeight="1">
+    <row r="774" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP774" s="81"/>
       <c r="AQ774" s="91"/>
       <c r="AR774" s="81"/>
     </row>
-    <row r="775" spans="42:44" ht="15.75" customHeight="1">
+    <row r="775" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP775" s="81"/>
       <c r="AQ775" s="91"/>
       <c r="AR775" s="81"/>
     </row>
-    <row r="776" spans="42:44" ht="15.75" customHeight="1">
+    <row r="776" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP776" s="81"/>
       <c r="AQ776" s="91"/>
       <c r="AR776" s="81"/>
     </row>
-    <row r="777" spans="42:44" ht="15.75" customHeight="1">
+    <row r="777" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP777" s="81"/>
       <c r="AQ777" s="91"/>
       <c r="AR777" s="81"/>
     </row>
-    <row r="778" spans="42:44" ht="15.75" customHeight="1">
+    <row r="778" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP778" s="81"/>
       <c r="AQ778" s="91"/>
       <c r="AR778" s="81"/>
     </row>
-    <row r="779" spans="42:44" ht="15.75" customHeight="1">
+    <row r="779" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP779" s="81"/>
       <c r="AQ779" s="91"/>
       <c r="AR779" s="81"/>
     </row>
-    <row r="780" spans="42:44" ht="15.75" customHeight="1">
+    <row r="780" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP780" s="81"/>
       <c r="AQ780" s="91"/>
       <c r="AR780" s="81"/>
     </row>
-    <row r="781" spans="42:44" ht="15.75" customHeight="1">
+    <row r="781" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP781" s="81"/>
       <c r="AQ781" s="91"/>
       <c r="AR781" s="81"/>
     </row>
-    <row r="782" spans="42:44" ht="15.75" customHeight="1">
+    <row r="782" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP782" s="81"/>
       <c r="AQ782" s="91"/>
       <c r="AR782" s="81"/>
     </row>
-    <row r="783" spans="42:44" ht="15.75" customHeight="1">
+    <row r="783" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP783" s="81"/>
       <c r="AQ783" s="91"/>
       <c r="AR783" s="81"/>
     </row>
-    <row r="784" spans="42:44" ht="15.75" customHeight="1">
+    <row r="784" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP784" s="81"/>
       <c r="AQ784" s="91"/>
       <c r="AR784" s="81"/>
     </row>
-    <row r="785" spans="42:44" ht="15.75" customHeight="1">
+    <row r="785" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP785" s="81"/>
       <c r="AQ785" s="91"/>
       <c r="AR785" s="81"/>
     </row>
-    <row r="786" spans="42:44" ht="15.75" customHeight="1">
+    <row r="786" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP786" s="81"/>
       <c r="AQ786" s="91"/>
       <c r="AR786" s="81"/>
     </row>
-    <row r="787" spans="42:44" ht="15.75" customHeight="1">
+    <row r="787" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP787" s="81"/>
       <c r="AQ787" s="91"/>
       <c r="AR787" s="81"/>
     </row>
-    <row r="788" spans="42:44" ht="15.75" customHeight="1">
+    <row r="788" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP788" s="81"/>
       <c r="AQ788" s="91"/>
       <c r="AR788" s="81"/>
     </row>
-    <row r="789" spans="42:44" ht="15.75" customHeight="1">
+    <row r="789" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP789" s="81"/>
       <c r="AQ789" s="91"/>
       <c r="AR789" s="81"/>
     </row>
-    <row r="790" spans="42:44" ht="15.75" customHeight="1">
+    <row r="790" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP790" s="81"/>
       <c r="AQ790" s="91"/>
       <c r="AR790" s="81"/>
     </row>
-    <row r="791" spans="42:44" ht="15.75" customHeight="1">
+    <row r="791" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP791" s="81"/>
       <c r="AQ791" s="91"/>
       <c r="AR791" s="81"/>
     </row>
-    <row r="792" spans="42:44" ht="15.75" customHeight="1">
+    <row r="792" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP792" s="81"/>
       <c r="AQ792" s="91"/>
       <c r="AR792" s="81"/>
     </row>
-    <row r="793" spans="42:44" ht="15.75" customHeight="1">
+    <row r="793" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP793" s="81"/>
       <c r="AQ793" s="91"/>
       <c r="AR793" s="81"/>
     </row>
-    <row r="794" spans="42:44" ht="15.75" customHeight="1">
+    <row r="794" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP794" s="81"/>
       <c r="AQ794" s="91"/>
       <c r="AR794" s="81"/>
     </row>
-    <row r="795" spans="42:44" ht="15.75" customHeight="1">
+    <row r="795" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP795" s="81"/>
       <c r="AQ795" s="91"/>
       <c r="AR795" s="81"/>
     </row>
-    <row r="796" spans="42:44" ht="15.75" customHeight="1">
+    <row r="796" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP796" s="81"/>
       <c r="AQ796" s="91"/>
       <c r="AR796" s="81"/>
     </row>
-    <row r="797" spans="42:44" ht="15.75" customHeight="1">
+    <row r="797" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP797" s="81"/>
       <c r="AQ797" s="91"/>
       <c r="AR797" s="81"/>
     </row>
-    <row r="798" spans="42:44" ht="15.75" customHeight="1">
+    <row r="798" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP798" s="81"/>
       <c r="AQ798" s="91"/>
       <c r="AR798" s="81"/>
     </row>
-    <row r="799" spans="42:44" ht="15.75" customHeight="1">
+    <row r="799" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP799" s="81"/>
       <c r="AQ799" s="91"/>
       <c r="AR799" s="81"/>
     </row>
-    <row r="800" spans="42:44" ht="15.75" customHeight="1">
+    <row r="800" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP800" s="81"/>
       <c r="AQ800" s="91"/>
       <c r="AR800" s="81"/>
     </row>
-    <row r="801" spans="42:44" ht="15.75" customHeight="1">
+    <row r="801" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP801" s="81"/>
       <c r="AQ801" s="91"/>
       <c r="AR801" s="81"/>
     </row>
-    <row r="802" spans="42:44" ht="15.75" customHeight="1">
+    <row r="802" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP802" s="81"/>
       <c r="AQ802" s="91"/>
       <c r="AR802" s="81"/>
     </row>
-    <row r="803" spans="42:44" ht="15.75" customHeight="1">
+    <row r="803" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP803" s="81"/>
       <c r="AQ803" s="91"/>
       <c r="AR803" s="81"/>
     </row>
-    <row r="804" spans="42:44" ht="15.75" customHeight="1">
+    <row r="804" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP804" s="81"/>
       <c r="AQ804" s="91"/>
       <c r="AR804" s="81"/>
     </row>
-    <row r="805" spans="42:44" ht="15.75" customHeight="1">
+    <row r="805" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP805" s="81"/>
       <c r="AQ805" s="91"/>
       <c r="AR805" s="81"/>
     </row>
-    <row r="806" spans="42:44" ht="15.75" customHeight="1">
+    <row r="806" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP806" s="81"/>
       <c r="AQ806" s="91"/>
       <c r="AR806" s="81"/>
     </row>
-    <row r="807" spans="42:44" ht="15.75" customHeight="1">
+    <row r="807" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP807" s="81"/>
       <c r="AQ807" s="91"/>
       <c r="AR807" s="81"/>
     </row>
-    <row r="808" spans="42:44" ht="15.75" customHeight="1">
+    <row r="808" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP808" s="81"/>
       <c r="AQ808" s="91"/>
       <c r="AR808" s="81"/>
     </row>
-    <row r="809" spans="42:44" ht="15.75" customHeight="1">
+    <row r="809" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP809" s="81"/>
       <c r="AQ809" s="91"/>
       <c r="AR809" s="81"/>
     </row>
-    <row r="810" spans="42:44" ht="15.75" customHeight="1">
+    <row r="810" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP810" s="81"/>
       <c r="AQ810" s="91"/>
       <c r="AR810" s="81"/>
     </row>
-    <row r="811" spans="42:44" ht="15.75" customHeight="1">
+    <row r="811" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP811" s="81"/>
       <c r="AQ811" s="91"/>
       <c r="AR811" s="81"/>
     </row>
-    <row r="812" spans="42:44" ht="15.75" customHeight="1">
+    <row r="812" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP812" s="81"/>
       <c r="AQ812" s="91"/>
       <c r="AR812" s="81"/>
     </row>
-    <row r="813" spans="42:44" ht="15.75" customHeight="1">
+    <row r="813" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP813" s="81"/>
       <c r="AQ813" s="91"/>
       <c r="AR813" s="81"/>
     </row>
-    <row r="814" spans="42:44" ht="15.75" customHeight="1">
+    <row r="814" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP814" s="81"/>
       <c r="AQ814" s="91"/>
       <c r="AR814" s="81"/>
     </row>
-    <row r="815" spans="42:44" ht="15.75" customHeight="1">
+    <row r="815" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP815" s="81"/>
       <c r="AQ815" s="91"/>
       <c r="AR815" s="81"/>
     </row>
-    <row r="816" spans="42:44" ht="15.75" customHeight="1">
+    <row r="816" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP816" s="81"/>
       <c r="AQ816" s="91"/>
       <c r="AR816" s="81"/>
     </row>
-    <row r="817" spans="42:44" ht="15.75" customHeight="1">
+    <row r="817" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP817" s="81"/>
       <c r="AQ817" s="91"/>
       <c r="AR817" s="81"/>
     </row>
-    <row r="818" spans="42:44" ht="15.75" customHeight="1">
+    <row r="818" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP818" s="81"/>
       <c r="AQ818" s="91"/>
       <c r="AR818" s="81"/>
     </row>
-    <row r="819" spans="42:44" ht="15.75" customHeight="1">
+    <row r="819" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP819" s="81"/>
       <c r="AQ819" s="91"/>
       <c r="AR819" s="81"/>
     </row>
-    <row r="820" spans="42:44" ht="15.75" customHeight="1">
+    <row r="820" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP820" s="81"/>
       <c r="AQ820" s="91"/>
       <c r="AR820" s="81"/>
     </row>
-    <row r="821" spans="42:44" ht="15.75" customHeight="1">
+    <row r="821" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP821" s="81"/>
       <c r="AQ821" s="91"/>
       <c r="AR821" s="81"/>
     </row>
-    <row r="822" spans="42:44" ht="15.75" customHeight="1">
+    <row r="822" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP822" s="81"/>
       <c r="AQ822" s="91"/>
       <c r="AR822" s="81"/>
     </row>
-    <row r="823" spans="42:44" ht="15.75" customHeight="1">
+    <row r="823" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP823" s="81"/>
       <c r="AQ823" s="91"/>
       <c r="AR823" s="81"/>
     </row>
-    <row r="824" spans="42:44" ht="15.75" customHeight="1">
+    <row r="824" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP824" s="81"/>
       <c r="AQ824" s="91"/>
       <c r="AR824" s="81"/>
     </row>
-    <row r="825" spans="42:44" ht="15.75" customHeight="1">
+    <row r="825" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP825" s="81"/>
       <c r="AQ825" s="91"/>
       <c r="AR825" s="81"/>
     </row>
-    <row r="826" spans="42:44" ht="15.75" customHeight="1">
+    <row r="826" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP826" s="81"/>
       <c r="AQ826" s="91"/>
       <c r="AR826" s="81"/>
     </row>
-    <row r="827" spans="42:44" ht="15.75" customHeight="1">
+    <row r="827" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP827" s="81"/>
       <c r="AQ827" s="91"/>
       <c r="AR827" s="81"/>
     </row>
-    <row r="828" spans="42:44" ht="15.75" customHeight="1">
+    <row r="828" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP828" s="81"/>
       <c r="AQ828" s="91"/>
       <c r="AR828" s="81"/>
     </row>
-    <row r="829" spans="42:44" ht="15.75" customHeight="1">
+    <row r="829" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP829" s="81"/>
       <c r="AQ829" s="91"/>
       <c r="AR829" s="81"/>
     </row>
-    <row r="830" spans="42:44" ht="15.75" customHeight="1">
+    <row r="830" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP830" s="81"/>
       <c r="AQ830" s="91"/>
       <c r="AR830" s="81"/>
     </row>
-    <row r="831" spans="42:44" ht="15.75" customHeight="1">
+    <row r="831" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP831" s="81"/>
       <c r="AQ831" s="91"/>
       <c r="AR831" s="81"/>
     </row>
-    <row r="832" spans="42:44" ht="15.75" customHeight="1">
+    <row r="832" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP832" s="81"/>
       <c r="AQ832" s="91"/>
       <c r="AR832" s="81"/>
     </row>
-    <row r="833" spans="42:44" ht="15.75" customHeight="1">
+    <row r="833" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP833" s="81"/>
       <c r="AQ833" s="91"/>
       <c r="AR833" s="81"/>
     </row>
-    <row r="834" spans="42:44" ht="15.75" customHeight="1">
+    <row r="834" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP834" s="81"/>
       <c r="AQ834" s="91"/>
       <c r="AR834" s="81"/>
     </row>
-    <row r="835" spans="42:44" ht="15.75" customHeight="1">
+    <row r="835" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP835" s="81"/>
       <c r="AQ835" s="91"/>
       <c r="AR835" s="81"/>
     </row>
-    <row r="836" spans="42:44" ht="15.75" customHeight="1">
+    <row r="836" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP836" s="81"/>
       <c r="AQ836" s="91"/>
       <c r="AR836" s="81"/>
     </row>
-    <row r="837" spans="42:44" ht="15.75" customHeight="1">
+    <row r="837" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP837" s="81"/>
       <c r="AQ837" s="91"/>
       <c r="AR837" s="81"/>
     </row>
-    <row r="838" spans="42:44" ht="15.75" customHeight="1">
+    <row r="838" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP838" s="81"/>
       <c r="AQ838" s="91"/>
       <c r="AR838" s="81"/>
     </row>
-    <row r="839" spans="42:44" ht="15.75" customHeight="1">
+    <row r="839" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP839" s="81"/>
       <c r="AQ839" s="91"/>
       <c r="AR839" s="81"/>
     </row>
-    <row r="840" spans="42:44" ht="15.75" customHeight="1">
+    <row r="840" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP840" s="81"/>
       <c r="AQ840" s="91"/>
       <c r="AR840" s="81"/>
     </row>
-    <row r="841" spans="42:44" ht="15.75" customHeight="1">
+    <row r="841" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP841" s="81"/>
       <c r="AQ841" s="91"/>
       <c r="AR841" s="81"/>
     </row>
-    <row r="842" spans="42:44" ht="15.75" customHeight="1">
+    <row r="842" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP842" s="81"/>
       <c r="AQ842" s="91"/>
       <c r="AR842" s="81"/>
     </row>
-    <row r="843" spans="42:44" ht="15.75" customHeight="1">
+    <row r="843" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP843" s="81"/>
       <c r="AQ843" s="91"/>
       <c r="AR843" s="81"/>
     </row>
-    <row r="844" spans="42:44" ht="15.75" customHeight="1">
+    <row r="844" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP844" s="81"/>
       <c r="AQ844" s="91"/>
       <c r="AR844" s="81"/>
     </row>
-    <row r="845" spans="42:44" ht="15.75" customHeight="1">
+    <row r="845" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP845" s="81"/>
       <c r="AQ845" s="91"/>
       <c r="AR845" s="81"/>
     </row>
-    <row r="846" spans="42:44" ht="15.75" customHeight="1">
+    <row r="846" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP846" s="81"/>
       <c r="AQ846" s="91"/>
       <c r="AR846" s="81"/>
     </row>
-    <row r="847" spans="42:44" ht="15.75" customHeight="1">
+    <row r="847" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP847" s="81"/>
       <c r="AQ847" s="91"/>
       <c r="AR847" s="81"/>
     </row>
-    <row r="848" spans="42:44" ht="15.75" customHeight="1">
+    <row r="848" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP848" s="81"/>
       <c r="AQ848" s="91"/>
       <c r="AR848" s="81"/>
     </row>
-    <row r="849" spans="42:44" ht="15.75" customHeight="1">
+    <row r="849" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP849" s="81"/>
       <c r="AQ849" s="91"/>
       <c r="AR849" s="81"/>
     </row>
-    <row r="850" spans="42:44" ht="15.75" customHeight="1">
+    <row r="850" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP850" s="81"/>
       <c r="AQ850" s="91"/>
       <c r="AR850" s="81"/>
     </row>
-    <row r="851" spans="42:44" ht="15.75" customHeight="1">
+    <row r="851" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP851" s="81"/>
       <c r="AQ851" s="91"/>
       <c r="AR851" s="81"/>
     </row>
-    <row r="852" spans="42:44" ht="15.75" customHeight="1">
+    <row r="852" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP852" s="81"/>
       <c r="AQ852" s="91"/>
       <c r="AR852" s="81"/>
     </row>
-    <row r="853" spans="42:44" ht="15.75" customHeight="1">
+    <row r="853" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP853" s="81"/>
       <c r="AQ853" s="91"/>
       <c r="AR853" s="81"/>
     </row>
-    <row r="854" spans="42:44" ht="15.75" customHeight="1">
+    <row r="854" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP854" s="81"/>
       <c r="AQ854" s="91"/>
       <c r="AR854" s="81"/>
     </row>
-    <row r="855" spans="42:44" ht="15.75" customHeight="1">
+    <row r="855" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP855" s="81"/>
       <c r="AQ855" s="91"/>
       <c r="AR855" s="81"/>
     </row>
-    <row r="856" spans="42:44" ht="15.75" customHeight="1">
+    <row r="856" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP856" s="81"/>
       <c r="AQ856" s="91"/>
       <c r="AR856" s="81"/>
     </row>
-    <row r="857" spans="42:44" ht="15.75" customHeight="1">
+    <row r="857" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP857" s="81"/>
       <c r="AQ857" s="91"/>
       <c r="AR857" s="81"/>
     </row>
-    <row r="858" spans="42:44" ht="15.75" customHeight="1">
+    <row r="858" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP858" s="81"/>
       <c r="AQ858" s="91"/>
       <c r="AR858" s="81"/>
     </row>
-    <row r="859" spans="42:44" ht="15.75" customHeight="1">
+    <row r="859" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP859" s="81"/>
       <c r="AQ859" s="91"/>
       <c r="AR859" s="81"/>
     </row>
-    <row r="860" spans="42:44" ht="15.75" customHeight="1">
+    <row r="860" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP860" s="81"/>
       <c r="AQ860" s="91"/>
       <c r="AR860" s="81"/>
     </row>
-    <row r="861" spans="42:44" ht="15.75" customHeight="1">
+    <row r="861" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP861" s="81"/>
       <c r="AQ861" s="91"/>
       <c r="AR861" s="81"/>
     </row>
-    <row r="862" spans="42:44" ht="15.75" customHeight="1">
+    <row r="862" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP862" s="81"/>
       <c r="AQ862" s="91"/>
       <c r="AR862" s="81"/>
     </row>
-    <row r="863" spans="42:44" ht="15.75" customHeight="1">
+    <row r="863" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP863" s="81"/>
       <c r="AQ863" s="91"/>
       <c r="AR863" s="81"/>
     </row>
-    <row r="864" spans="42:44" ht="15.75" customHeight="1">
+    <row r="864" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP864" s="81"/>
       <c r="AQ864" s="91"/>
       <c r="AR864" s="81"/>
     </row>
-    <row r="865" spans="42:44" ht="15.75" customHeight="1">
+    <row r="865" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP865" s="81"/>
       <c r="AQ865" s="91"/>
       <c r="AR865" s="81"/>
     </row>
-    <row r="866" spans="42:44" ht="15.75" customHeight="1">
+    <row r="866" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP866" s="81"/>
       <c r="AQ866" s="91"/>
       <c r="AR866" s="81"/>
     </row>
-    <row r="867" spans="42:44" ht="15.75" customHeight="1">
+    <row r="867" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP867" s="81"/>
       <c r="AQ867" s="91"/>
       <c r="AR867" s="81"/>
     </row>
-    <row r="868" spans="42:44" ht="15.75" customHeight="1">
+    <row r="868" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP868" s="81"/>
       <c r="AQ868" s="91"/>
       <c r="AR868" s="81"/>
     </row>
-    <row r="869" spans="42:44" ht="15.75" customHeight="1">
+    <row r="869" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP869" s="81"/>
       <c r="AQ869" s="91"/>
       <c r="AR869" s="81"/>
     </row>
-    <row r="870" spans="42:44" ht="15.75" customHeight="1">
+    <row r="870" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP870" s="81"/>
       <c r="AQ870" s="91"/>
       <c r="AR870" s="81"/>
     </row>
-    <row r="871" spans="42:44" ht="15.75" customHeight="1">
+    <row r="871" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP871" s="81"/>
       <c r="AQ871" s="91"/>
       <c r="AR871" s="81"/>
     </row>
-    <row r="872" spans="42:44" ht="15.75" customHeight="1">
+    <row r="872" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP872" s="81"/>
       <c r="AQ872" s="91"/>
       <c r="AR872" s="81"/>
     </row>
-    <row r="873" spans="42:44" ht="15.75" customHeight="1">
+    <row r="873" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP873" s="81"/>
       <c r="AQ873" s="91"/>
       <c r="AR873" s="81"/>
     </row>
-    <row r="874" spans="42:44" ht="15.75" customHeight="1">
+    <row r="874" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP874" s="81"/>
       <c r="AQ874" s="91"/>
       <c r="AR874" s="81"/>
     </row>
-    <row r="875" spans="42:44" ht="15.75" customHeight="1">
+    <row r="875" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP875" s="81"/>
       <c r="AQ875" s="91"/>
       <c r="AR875" s="81"/>
     </row>
-    <row r="876" spans="42:44" ht="15.75" customHeight="1">
+    <row r="876" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP876" s="81"/>
       <c r="AQ876" s="91"/>
       <c r="AR876" s="81"/>
     </row>
-    <row r="877" spans="42:44" ht="15.75" customHeight="1">
+    <row r="877" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP877" s="81"/>
       <c r="AQ877" s="91"/>
       <c r="AR877" s="81"/>
     </row>
-    <row r="878" spans="42:44" ht="15.75" customHeight="1">
+    <row r="878" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP878" s="81"/>
       <c r="AQ878" s="91"/>
       <c r="AR878" s="81"/>
     </row>
-    <row r="879" spans="42:44" ht="15.75" customHeight="1">
+    <row r="879" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP879" s="81"/>
       <c r="AQ879" s="91"/>
       <c r="AR879" s="81"/>
     </row>
-    <row r="880" spans="42:44" ht="15.75" customHeight="1">
+    <row r="880" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP880" s="81"/>
       <c r="AQ880" s="91"/>
       <c r="AR880" s="81"/>
     </row>
-    <row r="881" spans="42:44" ht="15.75" customHeight="1">
+    <row r="881" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP881" s="81"/>
       <c r="AQ881" s="91"/>
       <c r="AR881" s="81"/>
     </row>
-    <row r="882" spans="42:44" ht="15.75" customHeight="1">
+    <row r="882" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP882" s="81"/>
       <c r="AQ882" s="91"/>
       <c r="AR882" s="81"/>
     </row>
-    <row r="883" spans="42:44" ht="15.75" customHeight="1">
+    <row r="883" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP883" s="81"/>
       <c r="AQ883" s="91"/>
       <c r="AR883" s="81"/>
     </row>
-    <row r="884" spans="42:44" ht="15.75" customHeight="1">
+    <row r="884" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP884" s="81"/>
       <c r="AQ884" s="91"/>
       <c r="AR884" s="81"/>
     </row>
-    <row r="885" spans="42:44" ht="15.75" customHeight="1">
+    <row r="885" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP885" s="81"/>
       <c r="AQ885" s="91"/>
       <c r="AR885" s="81"/>
     </row>
-    <row r="886" spans="42:44" ht="15.75" customHeight="1">
+    <row r="886" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP886" s="81"/>
       <c r="AQ886" s="91"/>
       <c r="AR886" s="81"/>
     </row>
-    <row r="887" spans="42:44" ht="15.75" customHeight="1">
+    <row r="887" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP887" s="81"/>
       <c r="AQ887" s="91"/>
       <c r="AR887" s="81"/>
     </row>
-    <row r="888" spans="42:44" ht="15.75" customHeight="1">
+    <row r="888" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP888" s="81"/>
       <c r="AQ888" s="91"/>
       <c r="AR888" s="81"/>
     </row>
-    <row r="889" spans="42:44" ht="15.75" customHeight="1">
+    <row r="889" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP889" s="81"/>
       <c r="AQ889" s="91"/>
       <c r="AR889" s="81"/>
     </row>
-    <row r="890" spans="42:44" ht="15.75" customHeight="1">
+    <row r="890" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP890" s="81"/>
       <c r="AQ890" s="91"/>
       <c r="AR890" s="81"/>
     </row>
-    <row r="891" spans="42:44" ht="15.75" customHeight="1">
+    <row r="891" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP891" s="81"/>
       <c r="AQ891" s="91"/>
       <c r="AR891" s="81"/>
     </row>
-    <row r="892" spans="42:44" ht="15.75" customHeight="1">
+    <row r="892" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP892" s="81"/>
       <c r="AQ892" s="91"/>
       <c r="AR892" s="81"/>
     </row>
-    <row r="893" spans="42:44" ht="15.75" customHeight="1">
+    <row r="893" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP893" s="81"/>
       <c r="AQ893" s="91"/>
       <c r="AR893" s="81"/>
     </row>
-    <row r="894" spans="42:44" ht="15.75" customHeight="1">
+    <row r="894" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP894" s="81"/>
       <c r="AQ894" s="91"/>
       <c r="AR894" s="81"/>
     </row>
-    <row r="895" spans="42:44" ht="15.75" customHeight="1">
+    <row r="895" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP895" s="81"/>
       <c r="AQ895" s="91"/>
       <c r="AR895" s="81"/>
     </row>
-    <row r="896" spans="42:44" ht="15.75" customHeight="1">
+    <row r="896" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP896" s="81"/>
       <c r="AQ896" s="91"/>
       <c r="AR896" s="81"/>
     </row>
-    <row r="897" spans="42:44" ht="15.75" customHeight="1">
+    <row r="897" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP897" s="81"/>
       <c r="AQ897" s="91"/>
       <c r="AR897" s="81"/>
     </row>
-    <row r="898" spans="42:44" ht="15.75" customHeight="1">
+    <row r="898" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP898" s="81"/>
       <c r="AQ898" s="91"/>
       <c r="AR898" s="81"/>
     </row>
-    <row r="899" spans="42:44" ht="15.75" customHeight="1">
+    <row r="899" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP899" s="81"/>
       <c r="AQ899" s="91"/>
       <c r="AR899" s="81"/>
     </row>
-    <row r="900" spans="42:44" ht="15.75" customHeight="1">
+    <row r="900" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP900" s="81"/>
       <c r="AQ900" s="91"/>
       <c r="AR900" s="81"/>
     </row>
-    <row r="901" spans="42:44" ht="15.75" customHeight="1">
+    <row r="901" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP901" s="81"/>
       <c r="AQ901" s="91"/>
       <c r="AR901" s="81"/>
     </row>
-    <row r="902" spans="42:44" ht="15.75" customHeight="1">
+    <row r="902" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP902" s="81"/>
       <c r="AQ902" s="91"/>
       <c r="AR902" s="81"/>
     </row>
-    <row r="903" spans="42:44" ht="15.75" customHeight="1">
+    <row r="903" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP903" s="81"/>
       <c r="AQ903" s="91"/>
       <c r="AR903" s="81"/>
     </row>
-    <row r="904" spans="42:44" ht="15.75" customHeight="1">
+    <row r="904" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP904" s="81"/>
       <c r="AQ904" s="91"/>
       <c r="AR904" s="81"/>
     </row>
-    <row r="905" spans="42:44" ht="15.75" customHeight="1">
+    <row r="905" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP905" s="81"/>
       <c r="AQ905" s="91"/>
       <c r="AR905" s="81"/>
     </row>
-    <row r="906" spans="42:44" ht="15.75" customHeight="1">
+    <row r="906" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP906" s="81"/>
       <c r="AQ906" s="91"/>
       <c r="AR906" s="81"/>
     </row>
-    <row r="907" spans="42:44" ht="15.75" customHeight="1">
+    <row r="907" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP907" s="81"/>
       <c r="AQ907" s="91"/>
       <c r="AR907" s="81"/>
     </row>
-    <row r="908" spans="42:44" ht="15.75" customHeight="1">
+    <row r="908" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP908" s="81"/>
       <c r="AQ908" s="91"/>
       <c r="AR908" s="81"/>
     </row>
-    <row r="909" spans="42:44" ht="15.75" customHeight="1">
+    <row r="909" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP909" s="81"/>
       <c r="AQ909" s="91"/>
       <c r="AR909" s="81"/>
     </row>
-    <row r="910" spans="42:44" ht="15.75" customHeight="1">
+    <row r="910" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP910" s="81"/>
       <c r="AQ910" s="91"/>
       <c r="AR910" s="81"/>
     </row>
-    <row r="911" spans="42:44" ht="15.75" customHeight="1">
+    <row r="911" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP911" s="81"/>
       <c r="AQ911" s="91"/>
       <c r="AR911" s="81"/>
     </row>
-    <row r="912" spans="42:44" ht="15.75" customHeight="1">
+    <row r="912" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP912" s="81"/>
       <c r="AQ912" s="91"/>
       <c r="AR912" s="81"/>
     </row>
-    <row r="913" spans="42:44" ht="15.75" customHeight="1">
+    <row r="913" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP913" s="81"/>
       <c r="AQ913" s="91"/>
       <c r="AR913" s="81"/>
     </row>
-    <row r="914" spans="42:44" ht="15.75" customHeight="1">
+    <row r="914" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP914" s="81"/>
       <c r="AQ914" s="91"/>
       <c r="AR914" s="81"/>
     </row>
-    <row r="915" spans="42:44" ht="15.75" customHeight="1">
+    <row r="915" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP915" s="81"/>
       <c r="AQ915" s="91"/>
       <c r="AR915" s="81"/>
     </row>
-    <row r="916" spans="42:44" ht="15.75" customHeight="1">
+    <row r="916" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP916" s="81"/>
       <c r="AQ916" s="91"/>
       <c r="AR916" s="81"/>
     </row>
-    <row r="917" spans="42:44" ht="15.75" customHeight="1">
+    <row r="917" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP917" s="81"/>
       <c r="AQ917" s="91"/>
       <c r="AR917" s="81"/>
     </row>
-    <row r="918" spans="42:44" ht="15.75" customHeight="1">
+    <row r="918" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP918" s="81"/>
       <c r="AQ918" s="91"/>
       <c r="AR918" s="81"/>
     </row>
-    <row r="919" spans="42:44" ht="15.75" customHeight="1">
+    <row r="919" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP919" s="81"/>
       <c r="AQ919" s="91"/>
       <c r="AR919" s="81"/>
     </row>
-    <row r="920" spans="42:44" ht="15.75" customHeight="1">
+    <row r="920" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP920" s="81"/>
       <c r="AQ920" s="91"/>
       <c r="AR920" s="81"/>
     </row>
-    <row r="921" spans="42:44" ht="15.75" customHeight="1">
+    <row r="921" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP921" s="81"/>
       <c r="AQ921" s="91"/>
       <c r="AR921" s="81"/>
     </row>
-    <row r="922" spans="42:44" ht="15.75" customHeight="1">
+    <row r="922" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP922" s="81"/>
       <c r="AQ922" s="91"/>
       <c r="AR922" s="81"/>
     </row>
-    <row r="923" spans="42:44" ht="15.75" customHeight="1">
+    <row r="923" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP923" s="81"/>
       <c r="AQ923" s="91"/>
       <c r="AR923" s="81"/>
     </row>
-    <row r="924" spans="42:44" ht="15.75" customHeight="1">
+    <row r="924" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP924" s="81"/>
       <c r="AQ924" s="91"/>
       <c r="AR924" s="81"/>
     </row>
-    <row r="925" spans="42:44" ht="15.75" customHeight="1">
+    <row r="925" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP925" s="81"/>
       <c r="AQ925" s="91"/>
       <c r="AR925" s="81"/>
     </row>
-    <row r="926" spans="42:44" ht="15.75" customHeight="1">
+    <row r="926" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP926" s="81"/>
       <c r="AQ926" s="91"/>
       <c r="AR926" s="81"/>
     </row>
-    <row r="927" spans="42:44" ht="15.75" customHeight="1">
+    <row r="927" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP927" s="81"/>
       <c r="AQ927" s="91"/>
       <c r="AR927" s="81"/>
     </row>
-    <row r="928" spans="42:44" ht="15.75" customHeight="1">
+    <row r="928" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP928" s="81"/>
       <c r="AQ928" s="91"/>
       <c r="AR928" s="81"/>
     </row>
-    <row r="929" spans="42:44" ht="15.75" customHeight="1">
+    <row r="929" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP929" s="81"/>
       <c r="AQ929" s="91"/>
       <c r="AR929" s="81"/>
     </row>
-    <row r="930" spans="42:44" ht="15.75" customHeight="1">
+    <row r="930" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP930" s="81"/>
       <c r="AQ930" s="91"/>
       <c r="AR930" s="81"/>
     </row>
-    <row r="931" spans="42:44" ht="15.75" customHeight="1">
+    <row r="931" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP931" s="81"/>
       <c r="AQ931" s="91"/>
       <c r="AR931" s="81"/>
     </row>
-    <row r="932" spans="42:44" ht="15.75" customHeight="1">
+    <row r="932" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP932" s="81"/>
       <c r="AQ932" s="91"/>
       <c r="AR932" s="81"/>
     </row>
-    <row r="933" spans="42:44" ht="15.75" customHeight="1">
+    <row r="933" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP933" s="81"/>
       <c r="AQ933" s="91"/>
       <c r="AR933" s="81"/>
     </row>
-    <row r="934" spans="42:44" ht="15.75" customHeight="1">
+    <row r="934" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP934" s="81"/>
       <c r="AQ934" s="91"/>
       <c r="AR934" s="81"/>
     </row>
-    <row r="935" spans="42:44" ht="15.75" customHeight="1">
+    <row r="935" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP935" s="81"/>
       <c r="AQ935" s="91"/>
       <c r="AR935" s="81"/>
     </row>
-    <row r="936" spans="42:44" ht="15.75" customHeight="1">
+    <row r="936" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP936" s="81"/>
       <c r="AQ936" s="91"/>
       <c r="AR936" s="81"/>
     </row>
-    <row r="937" spans="42:44" ht="15.75" customHeight="1">
+    <row r="937" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP937" s="81"/>
       <c r="AQ937" s="91"/>
       <c r="AR937" s="81"/>
     </row>
-    <row r="938" spans="42:44" ht="15.75" customHeight="1">
+    <row r="938" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP938" s="81"/>
       <c r="AQ938" s="91"/>
       <c r="AR938" s="81"/>
     </row>
-    <row r="939" spans="42:44" ht="15.75" customHeight="1">
+    <row r="939" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP939" s="81"/>
       <c r="AQ939" s="91"/>
       <c r="AR939" s="81"/>
     </row>
-    <row r="940" spans="42:44" ht="15.75" customHeight="1">
+    <row r="940" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP940" s="81"/>
       <c r="AQ940" s="91"/>
       <c r="AR940" s="81"/>
     </row>
-    <row r="941" spans="42:44" ht="15.75" customHeight="1">
+    <row r="941" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP941" s="81"/>
       <c r="AQ941" s="91"/>
       <c r="AR941" s="81"/>
     </row>
-    <row r="942" spans="42:44" ht="15.75" customHeight="1">
+    <row r="942" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP942" s="81"/>
       <c r="AQ942" s="91"/>
       <c r="AR942" s="81"/>
     </row>
-    <row r="943" spans="42:44" ht="15.75" customHeight="1">
+    <row r="943" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP943" s="81"/>
       <c r="AQ943" s="91"/>
       <c r="AR943" s="81"/>
     </row>
-    <row r="944" spans="42:44" ht="15.75" customHeight="1">
+    <row r="944" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP944" s="81"/>
       <c r="AQ944" s="91"/>
       <c r="AR944" s="81"/>
     </row>
-    <row r="945" spans="42:44" ht="15.75" customHeight="1">
+    <row r="945" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP945" s="81"/>
       <c r="AQ945" s="91"/>
       <c r="AR945" s="81"/>
     </row>
-    <row r="946" spans="42:44" ht="15.75" customHeight="1">
+    <row r="946" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP946" s="81"/>
       <c r="AQ946" s="91"/>
       <c r="AR946" s="81"/>
     </row>
-    <row r="947" spans="42:44" ht="15.75" customHeight="1">
+    <row r="947" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP947" s="81"/>
       <c r="AQ947" s="91"/>
       <c r="AR947" s="81"/>
     </row>
-    <row r="948" spans="42:44" ht="15.75" customHeight="1">
+    <row r="948" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP948" s="81"/>
       <c r="AQ948" s="91"/>
       <c r="AR948" s="81"/>
     </row>
-    <row r="949" spans="42:44" ht="15.75" customHeight="1">
+    <row r="949" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP949" s="81"/>
       <c r="AQ949" s="91"/>
       <c r="AR949" s="81"/>
     </row>
-    <row r="950" spans="42:44" ht="15.75" customHeight="1">
+    <row r="950" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP950" s="81"/>
       <c r="AQ950" s="91"/>
       <c r="AR950" s="81"/>
     </row>
-    <row r="951" spans="42:44" ht="15.75" customHeight="1">
+    <row r="951" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP951" s="81"/>
       <c r="AQ951" s="91"/>
       <c r="AR951" s="81"/>
     </row>
-    <row r="952" spans="42:44" ht="15.75" customHeight="1">
+    <row r="952" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP952" s="81"/>
       <c r="AQ952" s="91"/>
       <c r="AR952" s="81"/>
     </row>
-    <row r="953" spans="42:44" ht="15.75" customHeight="1">
+    <row r="953" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP953" s="81"/>
       <c r="AQ953" s="91"/>
       <c r="AR953" s="81"/>
     </row>
-    <row r="954" spans="42:44" ht="15.75" customHeight="1">
+    <row r="954" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP954" s="81"/>
       <c r="AQ954" s="91"/>
       <c r="AR954" s="81"/>
     </row>
-    <row r="955" spans="42:44" ht="15.75" customHeight="1">
+    <row r="955" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP955" s="81"/>
       <c r="AQ955" s="91"/>
       <c r="AR955" s="81"/>
     </row>
-    <row r="956" spans="42:44" ht="15.75" customHeight="1">
+    <row r="956" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP956" s="81"/>
       <c r="AQ956" s="91"/>
       <c r="AR956" s="81"/>
     </row>
-    <row r="957" spans="42:44" ht="15.75" customHeight="1">
+    <row r="957" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP957" s="81"/>
       <c r="AQ957" s="91"/>
       <c r="AR957" s="81"/>
     </row>
-    <row r="958" spans="42:44" ht="15.75" customHeight="1">
+    <row r="958" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP958" s="81"/>
       <c r="AQ958" s="91"/>
       <c r="AR958" s="81"/>
     </row>
-    <row r="959" spans="42:44" ht="15.75" customHeight="1">
+    <row r="959" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP959" s="81"/>
       <c r="AQ959" s="91"/>
       <c r="AR959" s="81"/>
     </row>
-    <row r="960" spans="42:44" ht="15.75" customHeight="1">
+    <row r="960" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP960" s="81"/>
       <c r="AQ960" s="91"/>
       <c r="AR960" s="81"/>
     </row>
-    <row r="961" spans="42:44" ht="15.75" customHeight="1">
+    <row r="961" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP961" s="81"/>
       <c r="AQ961" s="91"/>
       <c r="AR961" s="81"/>
     </row>
-    <row r="962" spans="42:44" ht="15.75" customHeight="1">
+    <row r="962" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP962" s="81"/>
       <c r="AQ962" s="91"/>
       <c r="AR962" s="81"/>
     </row>
-    <row r="963" spans="42:44" ht="15.75" customHeight="1">
+    <row r="963" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP963" s="81"/>
       <c r="AQ963" s="91"/>
       <c r="AR963" s="81"/>
     </row>
-    <row r="964" spans="42:44" ht="15.75" customHeight="1">
+    <row r="964" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP964" s="81"/>
       <c r="AQ964" s="91"/>
       <c r="AR964" s="81"/>
     </row>
-    <row r="965" spans="42:44" ht="15.75" customHeight="1">
+    <row r="965" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP965" s="81"/>
       <c r="AQ965" s="91"/>
       <c r="AR965" s="81"/>
     </row>
-    <row r="966" spans="42:44" ht="15.75" customHeight="1">
+    <row r="966" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP966" s="81"/>
       <c r="AQ966" s="91"/>
       <c r="AR966" s="81"/>
     </row>
-    <row r="967" spans="42:44" ht="15.75" customHeight="1">
+    <row r="967" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP967" s="81"/>
       <c r="AQ967" s="91"/>
       <c r="AR967" s="81"/>
     </row>
-    <row r="968" spans="42:44" ht="15.75" customHeight="1">
+    <row r="968" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP968" s="81"/>
       <c r="AQ968" s="91"/>
       <c r="AR968" s="81"/>
     </row>
-    <row r="969" spans="42:44" ht="15.75" customHeight="1">
+    <row r="969" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP969" s="81"/>
       <c r="AQ969" s="91"/>
       <c r="AR969" s="81"/>
     </row>
-    <row r="970" spans="42:44" ht="15.75" customHeight="1">
+    <row r="970" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP970" s="81"/>
       <c r="AQ970" s="91"/>
       <c r="AR970" s="81"/>
     </row>
-    <row r="971" spans="42:44" ht="15.75" customHeight="1">
+    <row r="971" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP971" s="81"/>
       <c r="AQ971" s="91"/>
       <c r="AR971" s="81"/>
     </row>
-    <row r="972" spans="42:44" ht="15.75" customHeight="1">
+    <row r="972" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP972" s="81"/>
       <c r="AQ972" s="91"/>
       <c r="AR972" s="81"/>
     </row>
-    <row r="973" spans="42:44" ht="15.75" customHeight="1">
+    <row r="973" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP973" s="81"/>
       <c r="AQ973" s="91"/>
       <c r="AR973" s="81"/>
     </row>
-    <row r="974" spans="42:44" ht="15.75" customHeight="1">
+    <row r="974" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP974" s="81"/>
       <c r="AQ974" s="91"/>
       <c r="AR974" s="81"/>
     </row>
-    <row r="975" spans="42:44" ht="15.75" customHeight="1">
+    <row r="975" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP975" s="81"/>
       <c r="AQ975" s="91"/>
       <c r="AR975" s="81"/>
     </row>
-    <row r="976" spans="42:44" ht="15.75" customHeight="1">
+    <row r="976" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP976" s="81"/>
       <c r="AQ976" s="91"/>
       <c r="AR976" s="81"/>
     </row>
-    <row r="977" spans="42:44" ht="15.75" customHeight="1">
+    <row r="977" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP977" s="81"/>
       <c r="AQ977" s="91"/>
       <c r="AR977" s="81"/>
     </row>
-    <row r="978" spans="42:44" ht="15.75" customHeight="1">
+    <row r="978" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP978" s="81"/>
       <c r="AQ978" s="91"/>
       <c r="AR978" s="81"/>
     </row>
-    <row r="979" spans="42:44" ht="15.75" customHeight="1">
+    <row r="979" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP979" s="81"/>
       <c r="AQ979" s="91"/>
       <c r="AR979" s="81"/>
     </row>
-    <row r="980" spans="42:44" ht="15.75" customHeight="1">
+    <row r="980" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP980" s="81"/>
       <c r="AQ980" s="91"/>
       <c r="AR980" s="81"/>
     </row>
-    <row r="981" spans="42:44" ht="15.75" customHeight="1">
+    <row r="981" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP981" s="81"/>
       <c r="AQ981" s="91"/>
       <c r="AR981" s="81"/>
     </row>
-    <row r="982" spans="42:44" ht="15.75" customHeight="1">
+    <row r="982" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP982" s="81"/>
       <c r="AQ982" s="91"/>
       <c r="AR982" s="81"/>
     </row>
-    <row r="983" spans="42:44" ht="15.75" customHeight="1">
+    <row r="983" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP983" s="81"/>
       <c r="AQ983" s="91"/>
       <c r="AR983" s="81"/>
     </row>
-    <row r="984" spans="42:44" ht="15.75" customHeight="1">
+    <row r="984" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP984" s="81"/>
       <c r="AQ984" s="91"/>
       <c r="AR984" s="81"/>
     </row>
-    <row r="985" spans="42:44" ht="15.75" customHeight="1">
+    <row r="985" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP985" s="81"/>
       <c r="AQ985" s="91"/>
       <c r="AR985" s="81"/>
     </row>
-    <row r="986" spans="42:44" ht="15.75" customHeight="1">
+    <row r="986" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP986" s="81"/>
       <c r="AQ986" s="91"/>
       <c r="AR986" s="81"/>
     </row>
-    <row r="987" spans="42:44" ht="15.75" customHeight="1">
+    <row r="987" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP987" s="81"/>
       <c r="AQ987" s="91"/>
       <c r="AR987" s="81"/>
     </row>
-    <row r="988" spans="42:44" ht="15.75" customHeight="1">
+    <row r="988" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP988" s="81"/>
       <c r="AQ988" s="91"/>
       <c r="AR988" s="81"/>
     </row>
-    <row r="989" spans="42:44" ht="15.75" customHeight="1">
+    <row r="989" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP989" s="81"/>
       <c r="AQ989" s="91"/>
       <c r="AR989" s="81"/>
     </row>
-    <row r="990" spans="42:44" ht="15.75" customHeight="1">
+    <row r="990" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP990" s="81"/>
       <c r="AQ990" s="91"/>
       <c r="AR990" s="81"/>
     </row>
-    <row r="991" spans="42:44" ht="15.75" customHeight="1">
+    <row r="991" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP991" s="81"/>
       <c r="AQ991" s="91"/>
       <c r="AR991" s="81"/>
     </row>
-    <row r="992" spans="42:44" ht="15.75" customHeight="1">
+    <row r="992" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP992" s="81"/>
       <c r="AQ992" s="91"/>
       <c r="AR992" s="81"/>
     </row>
-    <row r="993" spans="42:44" ht="15.75" customHeight="1">
+    <row r="993" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP993" s="81"/>
       <c r="AQ993" s="91"/>
       <c r="AR993" s="81"/>
     </row>
-    <row r="994" spans="42:44" ht="15.75" customHeight="1">
+    <row r="994" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP994" s="81"/>
       <c r="AQ994" s="91"/>
       <c r="AR994" s="81"/>
     </row>
-    <row r="995" spans="42:44" ht="15.75" customHeight="1">
+    <row r="995" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP995" s="81"/>
       <c r="AQ995" s="91"/>
       <c r="AR995" s="81"/>
     </row>
-    <row r="996" spans="42:44" ht="15.75" customHeight="1">
+    <row r="996" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP996" s="81"/>
       <c r="AQ996" s="91"/>
       <c r="AR996" s="81"/>
     </row>
-    <row r="997" spans="42:44" ht="15.75" customHeight="1">
+    <row r="997" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP997" s="81"/>
       <c r="AQ997" s="91"/>
       <c r="AR997" s="81"/>
     </row>
-    <row r="998" spans="42:44" ht="15.75" customHeight="1">
+    <row r="998" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP998" s="81"/>
       <c r="AQ998" s="91"/>
       <c r="AR998" s="81"/>
     </row>
-    <row r="999" spans="42:44" ht="15.75" customHeight="1">
+    <row r="999" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP999" s="81"/>
       <c r="AQ999" s="91"/>
       <c r="AR999" s="81"/>
     </row>
-    <row r="1000" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1000" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1000" s="81"/>
       <c r="AQ1000" s="91"/>
       <c r="AR1000" s="81"/>
     </row>
-    <row r="1001" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1001" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1001" s="81"/>
       <c r="AQ1001" s="91"/>
       <c r="AR1001" s="81"/>
     </row>
-    <row r="1002" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1002" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1002" s="81"/>
       <c r="AQ1002" s="91"/>
       <c r="AR1002" s="81"/>
     </row>
-    <row r="1003" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1003" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1003" s="81"/>
       <c r="AQ1003" s="91"/>
       <c r="AR1003" s="81"/>
     </row>
-    <row r="1004" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1004" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1004" s="81"/>
       <c r="AQ1004" s="91"/>
       <c r="AR1004" s="81"/>
     </row>
-    <row r="1005" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1005" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1005" s="81"/>
       <c r="AQ1005" s="91"/>
       <c r="AR1005" s="81"/>
     </row>
-    <row r="1006" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1006" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1006" s="81"/>
       <c r="AQ1006" s="91"/>
       <c r="AR1006" s="81"/>
     </row>
-    <row r="1007" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1007" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1007" s="81"/>
       <c r="AQ1007" s="91"/>
       <c r="AR1007" s="81"/>
     </row>
-    <row r="1008" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1008" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1008" s="81"/>
       <c r="AQ1008" s="91"/>
       <c r="AR1008" s="81"/>
     </row>
-    <row r="1009" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1009" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1009" s="81"/>
       <c r="AQ1009" s="91"/>
       <c r="AR1009" s="81"/>
     </row>
-    <row r="1010" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1010" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1010" s="81"/>
       <c r="AQ1010" s="91"/>
       <c r="AR1010" s="81"/>
     </row>
-    <row r="1011" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1011" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1011" s="81"/>
       <c r="AQ1011" s="91"/>
       <c r="AR1011" s="81"/>
     </row>
-    <row r="1012" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1012" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1012" s="81"/>
       <c r="AQ1012" s="91"/>
       <c r="AR1012" s="81"/>
     </row>
-    <row r="1013" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1013" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1013" s="81"/>
       <c r="AQ1013" s="91"/>
       <c r="AR1013" s="81"/>
     </row>
-    <row r="1014" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1014" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1014" s="81"/>
       <c r="AQ1014" s="91"/>
       <c r="AR1014" s="81"/>
     </row>
-    <row r="1015" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1015" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1015" s="81"/>
       <c r="AQ1015" s="91"/>
       <c r="AR1015" s="81"/>
     </row>
-    <row r="1016" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1016" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1016" s="81"/>
       <c r="AQ1016" s="91"/>
       <c r="AR1016" s="81"/>
     </row>
-    <row r="1017" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1017" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1017" s="81"/>
       <c r="AQ1017" s="91"/>
       <c r="AR1017" s="81"/>
     </row>
-    <row r="1018" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1018" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1018" s="81"/>
       <c r="AQ1018" s="91"/>
       <c r="AR1018" s="81"/>
     </row>
-    <row r="1019" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1019" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1019" s="81"/>
       <c r="AQ1019" s="91"/>
       <c r="AR1019" s="81"/>
     </row>
-    <row r="1020" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1020" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1020" s="81"/>
       <c r="AQ1020" s="91"/>
       <c r="AR1020" s="81"/>
     </row>
-    <row r="1021" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1021" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1021" s="81"/>
       <c r="AQ1021" s="91"/>
       <c r="AR1021" s="81"/>
     </row>
-    <row r="1022" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1022" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1022" s="81"/>
       <c r="AQ1022" s="91"/>
       <c r="AR1022" s="81"/>
     </row>
-    <row r="1023" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1023" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1023" s="81"/>
       <c r="AQ1023" s="91"/>
       <c r="AR1023" s="81"/>
     </row>
-    <row r="1024" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1024" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1024" s="81"/>
       <c r="AQ1024" s="91"/>
       <c r="AR1024" s="81"/>
     </row>
-    <row r="1025" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1025" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1025" s="81"/>
       <c r="AQ1025" s="91"/>
       <c r="AR1025" s="81"/>
     </row>
-    <row r="1026" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1026" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1026" s="81"/>
       <c r="AQ1026" s="91"/>
       <c r="AR1026" s="81"/>
     </row>
-    <row r="1027" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1027" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1027" s="81"/>
       <c r="AQ1027" s="91"/>
       <c r="AR1027" s="81"/>
     </row>
-    <row r="1028" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1028" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1028" s="159"/>
       <c r="AQ1028" s="91"/>
       <c r="AR1028" s="159"/>
     </row>
-    <row r="1029" spans="42:44" ht="15.75" customHeight="1">
+    <row r="1029" spans="42:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1029" s="159"/>
       <c r="AQ1029" s="91"/>
       <c r="AR1029" s="159"/>
     </row>
-    <row r="1030" spans="42:44" ht="15" customHeight="1">
+    <row r="1030" spans="42:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1030" s="159"/>
       <c r="AR1030" s="159"/>
     </row>
-    <row r="1031" spans="42:44" ht="15" customHeight="1">
+    <row r="1031" spans="42:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AP1031" s="159"/>
       <c r="AR1031" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="FN5:FT5"/>
-    <mergeCell ref="FU5:FV5"/>
-    <mergeCell ref="EE5:EK5"/>
-    <mergeCell ref="EL5:ER5"/>
-    <mergeCell ref="ES5:EY5"/>
-    <mergeCell ref="EZ5:FF5"/>
-    <mergeCell ref="FG5:FM5"/>
-    <mergeCell ref="CV5:DB5"/>
-    <mergeCell ref="DC5:DI5"/>
-    <mergeCell ref="DJ5:DP5"/>
-    <mergeCell ref="DQ5:DW5"/>
-    <mergeCell ref="DX5:ED5"/>
-    <mergeCell ref="BM5:BS5"/>
-    <mergeCell ref="BT5:BZ5"/>
-    <mergeCell ref="CA5:CG5"/>
-    <mergeCell ref="CH5:CN5"/>
-    <mergeCell ref="CO5:CU5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -37853,6 +37844,23 @@
     <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AD5:AJ5"/>
     <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="BM5:BS5"/>
+    <mergeCell ref="BT5:BZ5"/>
+    <mergeCell ref="CA5:CG5"/>
+    <mergeCell ref="CH5:CN5"/>
+    <mergeCell ref="CO5:CU5"/>
+    <mergeCell ref="CV5:DB5"/>
+    <mergeCell ref="DC5:DI5"/>
+    <mergeCell ref="DJ5:DP5"/>
+    <mergeCell ref="DQ5:DW5"/>
+    <mergeCell ref="DX5:ED5"/>
+    <mergeCell ref="FN5:FT5"/>
+    <mergeCell ref="FU5:FV5"/>
+    <mergeCell ref="EE5:EK5"/>
+    <mergeCell ref="EL5:ER5"/>
+    <mergeCell ref="ES5:EY5"/>
+    <mergeCell ref="EZ5:FF5"/>
+    <mergeCell ref="FG5:FM5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
